--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC7564-DF4C-4F78-9C05-CB7D409F6B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="108" windowWidth="22008" windowHeight="9216"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
+    <sheet name="ERD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="173">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_MEMBERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,18 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>직위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPR_STS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인상태(미승인,승인)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회사명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>법인등록번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회사대표번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COMP_NM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMP_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,18 +347,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMP_ADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>법인소재지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMP_FOUND_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>법인설립일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,14 +543,180 @@
   </si>
   <si>
     <t>TBL_CODE_DET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인실패횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당회원사ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자권한정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_MEMBER_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_MEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_member_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_company_seq</t>
+  </si>
+  <si>
+    <t>tbl_user_seq</t>
+  </si>
+  <si>
+    <t>tbl_member_role_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직위명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPR_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협회여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORP_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원사대표번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORP_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORP_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORP_FOUND_DT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,13 +765,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>130292</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506D5D7F-D266-4058-ADA0-80778F677748}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91440" y="15240"/>
+          <a:ext cx="14120612" cy="5097780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,7 +883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,9 +915,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,6 +967,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -923,788 +1160,1455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.09765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.69921875" customWidth="1"/>
-    <col min="4" max="5" width="8.796875" style="1"/>
-    <col min="7" max="7" width="18.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="1"/>
+    <col min="5" max="5" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C75" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C81" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C84" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="C33" t="s">
+      <c r="E84" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C85" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C86" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="C34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7">
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7">
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7">
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="C41" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7">
-      <c r="C42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
-      <c r="C43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="E86" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="3:7">
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7">
-      <c r="C46" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7">
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7">
-      <c r="C48" t="s">
-        <v>85</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="C49" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="C50" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="C52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="B87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C90" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="C54" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="C56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="C57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="C58" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="C59" t="s">
-        <v>100</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="C60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="C61" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="C63" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="C64" t="s">
-        <v>110</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="C65" t="s">
-        <v>52</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="C67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="C68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="C69" t="s">
-        <v>134</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" t="s">
-        <v>108</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="C71" t="s">
-        <v>40</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="C72" t="s">
-        <v>113</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="C73" t="s">
-        <v>52</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="C74" t="s">
-        <v>134</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" t="s">
-        <v>115</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="C76" t="s">
-        <v>40</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="C77" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="C78" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
         <v>118</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="C79" t="s">
-        <v>84</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
+      <c r="C91" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="E91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C92" t="s">
         <v>121</v>
       </c>
-      <c r="C80" t="s">
-        <v>122</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="C81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C82" t="s">
-        <v>125</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="C83" t="s">
+      <c r="C93" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
+      <c r="E93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
         <v>127</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
         <v>129</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="C85" t="s">
+      <c r="B95" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" t="s">
-        <v>135</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>136</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1715,27 +2619,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC7564-DF4C-4F78-9C05-CB7D409F6B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596B8E31-C1EA-46E7-9D9C-F065BE7CAAF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="227">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,10 +519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_FILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FILE_ID</t>
   </si>
   <si>
@@ -672,6 +668,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
     <t>APPR_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,6 +708,203 @@
   </si>
   <si>
     <t>CORP_FOUND_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_EXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일확장자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>파일경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_SAVE_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_DATE</t>
+  </si>
+  <si>
+    <t>REG_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_DATE</t>
+  </si>
+  <si>
+    <t>UPD_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_YN</t>
+  </si>
+  <si>
+    <t>USE_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통코드 - FIL001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_FILE_ATTACH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_ORG_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_file_attach_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_MST_CD</t>
+  </si>
+  <si>
+    <t>CODE_MST_NM</t>
+  </si>
+  <si>
+    <t>CODE_MST_DESC</t>
+  </si>
+  <si>
+    <t>PROPERTY01</t>
+  </si>
+  <si>
+    <t>PROPERTY02</t>
+  </si>
+  <si>
+    <t>PROPERTY03</t>
+  </si>
+  <si>
+    <t>PROPERTY04</t>
+  </si>
+  <si>
+    <t>PROPERTY05</t>
+  </si>
+  <si>
+    <t>REG_NO</t>
+  </si>
+  <si>
+    <t>UPD_NO</t>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션2</t>
+  </si>
+  <si>
+    <t>옵션3</t>
+  </si>
+  <si>
+    <t>옵션4</t>
+  </si>
+  <si>
+    <t>옵션5</t>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정자번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_DTL_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_DTL_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_DTL_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세코드명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세코드설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,6 +969,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H95"/>
+  <dimension ref="A2:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1193,7 +1392,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -1207,7 +1406,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1216,16 +1415,16 @@
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1233,10 +1432,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>14</v>
@@ -1247,10 +1446,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>15</v>
@@ -1261,10 +1460,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -1275,10 +1474,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
@@ -1289,10 +1488,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
@@ -1303,10 +1502,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>20</v>
@@ -1317,10 +1516,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
@@ -1331,13 +1530,13 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1345,10 +1544,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>51</v>
@@ -1359,13 +1558,13 @@
         <v>163</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>164</v>
@@ -1374,14 +1573,14 @@
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
@@ -1391,20 +1590,20 @@
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1414,13 +1613,13 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>165</v>
@@ -1429,46 +1628,46 @@
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1478,31 +1677,31 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -1519,13 +1718,13 @@
         <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -1536,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>167</v>
@@ -1550,10 +1749,10 @@
         <v>168</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>24</v>
@@ -1564,10 +1763,10 @@
         <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>25</v>
@@ -1578,10 +1777,10 @@
         <v>61</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>169</v>
@@ -1601,13 +1800,13 @@
         <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>108</v>
@@ -1619,13 +1818,13 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -1634,13 +1833,13 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -1649,10 +1848,10 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>64</v>
@@ -1664,10 +1863,10 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>39</v>
@@ -1679,10 +1878,10 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>35</v>
@@ -1694,10 +1893,10 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>37</v>
@@ -1709,10 +1908,10 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>42</v>
@@ -1724,10 +1923,10 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>47</v>
@@ -1739,10 +1938,10 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>48</v>
@@ -1754,10 +1953,10 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>49</v>
@@ -1769,10 +1968,10 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>66</v>
@@ -1784,10 +1983,10 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>67</v>
@@ -1799,10 +1998,10 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>71</v>
@@ -1814,10 +2013,10 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>72</v>
@@ -1829,10 +2028,10 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>74</v>
@@ -1844,10 +2043,10 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>80</v>
@@ -1859,10 +2058,10 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>46</v>
@@ -1874,10 +2073,10 @@
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>24</v>
@@ -1889,10 +2088,10 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>25</v>
@@ -1904,10 +2103,10 @@
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>169</v>
@@ -1919,10 +2118,10 @@
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>81</v>
@@ -1934,10 +2133,10 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>82</v>
@@ -1949,10 +2148,10 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>84</v>
@@ -1963,10 +2162,10 @@
         <v>62</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>63</v>
@@ -1977,10 +2176,10 @@
         <v>52</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>53</v>
@@ -1991,10 +2190,10 @@
         <v>54</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>55</v>
@@ -2005,10 +2204,10 @@
         <v>56</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>57</v>
@@ -2019,10 +2218,10 @@
         <v>58</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>59</v>
@@ -2033,10 +2232,10 @@
         <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>60</v>
@@ -2047,10 +2246,10 @@
         <v>76</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>75</v>
@@ -2058,13 +2257,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>65</v>
@@ -2081,10 +2280,10 @@
         <v>102</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>17</v>
@@ -2095,10 +2294,10 @@
         <v>33</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>108</v>
@@ -2109,10 +2308,10 @@
         <v>88</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>87</v>
@@ -2123,10 +2322,10 @@
         <v>103</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>43</v>
@@ -2137,10 +2336,10 @@
         <v>45</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>44</v>
@@ -2151,10 +2350,10 @@
         <v>90</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>67</v>
@@ -2165,10 +2364,10 @@
         <v>69</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>71</v>
@@ -2179,10 +2378,10 @@
         <v>70</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>72</v>
@@ -2193,10 +2392,10 @@
         <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>92</v>
@@ -2207,10 +2406,10 @@
         <v>93</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>94</v>
@@ -2218,13 +2417,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>65</v>
@@ -2241,10 +2440,10 @@
         <v>100</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>17</v>
@@ -2255,10 +2454,10 @@
         <v>33</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>108</v>
@@ -2269,10 +2468,10 @@
         <v>101</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>43</v>
@@ -2283,10 +2482,10 @@
         <v>45</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>44</v>
@@ -2297,10 +2496,10 @@
         <v>90</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>67</v>
@@ -2311,10 +2510,10 @@
         <v>69</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>71</v>
@@ -2325,10 +2524,10 @@
         <v>70</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>72</v>
@@ -2336,13 +2535,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>65</v>
@@ -2359,10 +2558,10 @@
         <v>99</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>17</v>
@@ -2373,10 +2572,10 @@
         <v>33</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>108</v>
@@ -2387,10 +2586,10 @@
         <v>104</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>43</v>
@@ -2401,10 +2600,10 @@
         <v>45</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>44</v>
@@ -2412,13 +2611,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>65</v>
@@ -2435,10 +2634,10 @@
         <v>106</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>17</v>
@@ -2449,10 +2648,10 @@
         <v>33</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>108</v>
@@ -2463,10 +2662,10 @@
         <v>34</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>35</v>
@@ -2477,10 +2676,10 @@
         <v>109</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>110</v>
@@ -2491,10 +2690,10 @@
         <v>77</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>60</v>
@@ -2511,10 +2710,10 @@
         <v>113</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>17</v>
@@ -2536,10 +2735,10 @@
         <v>116</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>17</v>
@@ -2561,10 +2760,10 @@
         <v>120</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>17</v>
@@ -2580,35 +2779,542 @@
         <v>123</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="C93" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
+        <v>173</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C95" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C96" t="s">
+        <v>177</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C98" t="s">
+        <v>194</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C99" t="s">
+        <v>183</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C101" t="s">
+        <v>190</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
         <v>126</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+      <c r="B105" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C105" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C106" t="s">
+        <v>201</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>202</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
+        <v>203</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C109" t="s">
+        <v>204</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
+        <v>205</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C111" t="s">
+        <v>206</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C112" t="s">
+        <v>207</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C113" t="s">
+        <v>189</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C114" t="s">
+        <v>182</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C115" t="s">
+        <v>208</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C116" t="s">
+        <v>185</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C117" t="s">
+        <v>209</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
+      <c r="B118" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>130</v>
+      <c r="C118" t="s">
+        <v>200</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C119" t="s">
+        <v>221</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C120" t="s">
+        <v>223</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C121" t="s">
+        <v>224</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C122" t="s">
+        <v>203</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C123" t="s">
+        <v>204</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C124" t="s">
+        <v>205</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C125" t="s">
+        <v>206</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C126" t="s">
+        <v>207</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C127" t="s">
+        <v>189</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C128" t="s">
+        <v>182</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C129" t="s">
+        <v>208</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C130" t="s">
+        <v>185</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C131" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596B8E31-C1EA-46E7-9D9C-F065BE7CAAF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5675BC0F-1874-42B9-9BF0-E80013D78DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1460,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>135</v>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5675BC0F-1874-42B9-9BF0-E80013D78DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C69E25-FEC4-4243-857F-4E459A2F70B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="226">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,10 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변경일시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,12 +834,6 @@
     <t>PROPERTY05</t>
   </si>
   <si>
-    <t>REG_NO</t>
-  </si>
-  <si>
-    <t>UPD_NO</t>
-  </si>
-  <si>
     <t>코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,14 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등록자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CODE_DTL_CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -905,6 +887,22 @@
   </si>
   <si>
     <t>상세코드설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경자ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록자ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1360,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H131"/>
+  <dimension ref="A2:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1645,122 +1643,128 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>140</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>140</v>
+      <c r="E19" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5" t="s">
+      <c r="F22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>138</v>
@@ -1769,172 +1773,170 @@
         <v>146</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="F27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
@@ -1944,12 +1946,12 @@
         <v>146</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C36" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
@@ -1959,72 +1961,72 @@
         <v>146</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C38" s="3" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C40" s="3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C41" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
@@ -2034,12 +2036,12 @@
         <v>146</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
@@ -2049,42 +2051,42 @@
         <v>146</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
@@ -2094,114 +2096,116 @@
         <v>146</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>146</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C50" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="F51" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C50" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>145</v>
@@ -2210,12 +2214,12 @@
         <v>146</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>145</v>
@@ -2224,172 +2228,182 @@
         <v>146</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>87</v>
+        <v>224</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>43</v>
+        <v>183</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>44</v>
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C63" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>67</v>
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C65" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>139</v>
@@ -2398,192 +2412,186 @@
         <v>146</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C67" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C72" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C73" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C74" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C76" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C78" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C79" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>132</v>
@@ -2592,60 +2600,60 @@
         <v>146</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C80" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
         <v>124</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C82" t="s">
-        <v>106</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>140</v>
@@ -2654,85 +2662,88 @@
         <v>135</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C86" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H87" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" t="s">
+        <v>106</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C88" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>140</v>
@@ -2741,48 +2752,60 @@
         <v>135</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
-        <v>117</v>
+        <v>34</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
-        <v>121</v>
+        <v>77</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>140</v>
@@ -2790,196 +2813,229 @@
       <c r="F93" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="H93" s="2" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C94" t="s">
-        <v>173</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="C95" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>135</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C96" t="s">
-        <v>177</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C97" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>135</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" t="s">
-        <v>183</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>197</v>
+        <v>125</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="G99" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="H99" s="2" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C100" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C101" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C102" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C103" t="s">
+        <v>180</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>193</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>126</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C105" t="s">
-        <v>200</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>135</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C107" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>212</v>
+        <v>135</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C108" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C109" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>178</v>
@@ -2988,12 +3044,12 @@
         <v>146</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C110" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>178</v>
@@ -3002,12 +3058,12 @@
         <v>146</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>178</v>
@@ -3016,12 +3072,12 @@
         <v>146</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C112" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>178</v>
@@ -3030,167 +3086,167 @@
         <v>146</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C113" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C114" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C116" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C118" t="s">
+        <v>224</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>128</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C118" t="s">
-        <v>200</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="F118" s="1" t="s">
         <v>135</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>221</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
+        <v>222</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H120" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C121" t="s">
-        <v>224</v>
+        <v>199</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
-        <v>203</v>
+        <v>216</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>178</v>
@@ -3199,12 +3255,12 @@
         <v>146</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>178</v>
@@ -3213,12 +3269,12 @@
         <v>146</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>178</v>
@@ -3227,12 +3283,12 @@
         <v>146</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>178</v>
@@ -3241,80 +3297,122 @@
         <v>146</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="130" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C130" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C132" t="s">
+        <v>224</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>220</v>
+      <c r="F132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C133" t="s">
+        <v>185</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C134" t="s">
+        <v>222</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C69E25-FEC4-4243-857F-4E459A2F70B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEEA117-1512-4992-82B7-8862C1C4ED1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="251">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOGIN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PASSWORD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,18 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEPT_NM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,26 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원사ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_COMPANY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>법인등록번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,14 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMP_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,46 +107,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_STS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모집인상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PROCESS_STS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>처리상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRODUCT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>취급상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_REG_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RESIDENT_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>법인명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,34 +155,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REQ_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신청일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>APPR_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>승인일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LICENSE_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자격취득일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAY_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제완료일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAY_STS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QUIT_MSG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MSG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONTRACT_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계약일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_EXCUTIVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>임원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,14 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_TYP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDU_FIN_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FULL_TM_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,34 +291,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_EXPERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_OPERATING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전산인력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OPER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXP_NM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXC_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXC_NM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,22 +307,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_USER_STEP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_STEP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모집인단계이력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모집인ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOD_DT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,26 +323,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_USER_HIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_HIST_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_PAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제정보 전달 받은 후 기재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,14 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_PAY_HIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY_HIST_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제정보동일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,29 +347,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FILE_ID</t>
-  </si>
-  <si>
-    <t>FILE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_CODE_MST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드상세관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_CODE_DET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FAIL_CNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_MEMBER_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROLE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,32 +439,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>권한명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_MEMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_member_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_company_seq</t>
-  </si>
-  <si>
-    <t>tbl_user_seq</t>
-  </si>
-  <si>
-    <t>tbl_member_role_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직위명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -691,18 +478,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CORP_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원사대표번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CORP_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CORP_ADDR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,24 +525,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REG_DATE</t>
-  </si>
-  <si>
-    <t>REG_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록일시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UPD_DATE</t>
-  </si>
-  <si>
-    <t>UPD_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변경일시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,10 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_FILE_ATTACH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
@@ -890,19 +651,356 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UPD_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경자ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REG_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록자ID</t>
+    <t>MEMBER_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_MEMBERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_lc_member_seq</t>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원사코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정자시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_MEMBER_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_lc_member_role_seq</t>
+  </si>
+  <si>
+    <t>TB_LC_COMPANY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_MERCHANT_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_BUSINESS_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_lc_company_seq</t>
+  </si>
+  <si>
+    <t>tb_lc_mas01_seq</t>
+  </si>
+  <si>
+    <t>TB_LC_MAS01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASTER_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_PRODUCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_REG_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_REGIST_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_M_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_M_Z_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_CELLPHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_EDU_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM_CONT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_MERCHANT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_PAY_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM_REG_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE_APP_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LICENSE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_HIST_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM_HAEJI_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE_HAEJI_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원사해지일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협회해지일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록자시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문인력시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임원시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXC_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASTER_SEQ</t>
+  </si>
+  <si>
+    <t>접수번호시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_EDU_NO</t>
+  </si>
+  <si>
+    <t>TB_LC_MAS01_IMWON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_MAS01_EXPERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPER_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전산인력시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_MAS01_IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_MAS01_STEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_STEP_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집인단계이력시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_MAS01_HIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_PAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_PAY_HIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_FILE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_SEQ</t>
+  </si>
+  <si>
+    <t>FILE_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_COD01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_COD01_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타협회수신정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_BANKRECV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타협회송신정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_BANKSEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이수정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_EDU01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_EDU_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입/경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취급상품 교육분류(대출, 리스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수료번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수료일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_HIST_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제내역이력시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제내역시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_HIST_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집인변경이력시퀀스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1358,22 +1456,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H134"/>
+  <dimension ref="A2:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.69921875" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="1"/>
     <col min="5" max="5" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.8984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.8984375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1387,10 +1485,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -1401,1293 +1499,1287 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="6" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C31" s="3" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C32" s="3" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C36" s="3" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C38" s="3" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C39" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C40" s="3" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C41" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
-        <v>224</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="5" t="s">
-        <v>225</v>
+        <v>202</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="5" t="s">
-        <v>184</v>
+        <v>228</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D62" s="4"/>
+      <c r="C62" t="s">
+        <v>206</v>
+      </c>
       <c r="E62" s="4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" s="4"/>
+      <c r="C63" t="s">
+        <v>231</v>
+      </c>
       <c r="E63" s="6" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C65" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>108</v>
+      <c r="F65" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>146</v>
+        <v>194</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C72" t="s">
-        <v>91</v>
+      <c r="C72" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C73" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C74" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C76" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C77" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C78" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C80" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>146</v>
+        <v>194</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C81" t="s">
-        <v>70</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C82" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>98</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C84" t="s">
-        <v>33</v>
+      <c r="C84" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>43</v>
@@ -2698,721 +2790,949 @@
         <v>45</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C87" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>146</v>
+        <v>194</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C91" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>111</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C94" t="s">
-        <v>122</v>
+      <c r="C94" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>114</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="C96" t="s">
-        <v>117</v>
+        <v>222</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>118</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C98" t="s">
-        <v>121</v>
+      <c r="C98" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>123</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C100" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="C101" t="s">
-        <v>197</v>
+        <v>249</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
-        <v>177</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="C103" t="s">
-        <v>180</v>
+        <v>247</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
-        <v>193</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C105" t="s">
-        <v>183</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>196</v>
+        <v>245</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
-        <v>186</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>80</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>229</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>190</v>
+        <v>137</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>126</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C108" t="s">
-        <v>199</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C109" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C110" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C112" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C113" t="s">
-        <v>204</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>178</v>
+        <v>231</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C114" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" t="s">
+        <v>138</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H116" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C116" t="s">
-        <v>188</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C118" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>128</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C121" t="s">
-        <v>199</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
-        <v>216</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="F128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>82</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C129" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H129" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H128" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C129" t="s">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C130" t="s">
+        <v>155</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C131" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C132" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C133" t="s">
+        <v>141</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C134" t="s">
+        <v>142</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C136" t="s">
+        <v>144</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C137" t="s">
+        <v>145</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C138" t="s">
+        <v>128</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C139" t="s">
+        <v>231</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C140" t="s">
         <v>206</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C130" t="s">
-        <v>188</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G130" s="1" t="s">
+      <c r="E140" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C141" t="s">
+        <v>170</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C142" t="s">
+        <v>171</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>234</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>236</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>238</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C148" t="s">
+        <v>189</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C149" t="s">
         <v>190</v>
       </c>
-      <c r="H130" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C131" t="s">
-        <v>182</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H131" s="2" t="s">
+      <c r="E149" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C150" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C132" t="s">
-        <v>224</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C133" t="s">
+      <c r="F150" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C151" t="s">
         <v>185</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C134" t="s">
-        <v>222</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>223</v>
+      <c r="F151" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C152" t="s">
+        <v>192</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C153" t="s">
+        <v>240</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEEA117-1512-4992-82B7-8862C1C4ED1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779848FD-4CBB-4B08-851A-96917585DDE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="250">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,10 +404,6 @@
   </si>
   <si>
     <t>VARCHAR(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당회원사ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1458,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1502,10 +1498,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -1517,15 +1513,15 @@
         <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>85</v>
@@ -1534,7 +1530,7 @@
         <v>88</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1553,7 +1549,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>93</v>
@@ -1562,21 +1558,21 @@
         <v>88</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1587,7 +1583,7 @@
         <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -1601,7 +1597,7 @@
         <v>85</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -1615,7 +1611,7 @@
         <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
@@ -1629,10 +1625,10 @@
         <v>85</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1640,10 +1636,10 @@
         <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>32</v>
@@ -1651,7 +1647,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>92</v>
@@ -1663,13 +1659,13 @@
         <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
@@ -1705,7 +1701,7 @@
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -1718,13 +1714,13 @@
         <v>89</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -1737,52 +1733,52 @@
         <v>89</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
@@ -1794,16 +1790,16 @@
         <v>88</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -1814,13 +1810,13 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -1831,7 +1827,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -1839,10 +1835,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -1854,35 +1850,35 @@
         <v>88</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
@@ -1890,13 +1886,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>16</v>
@@ -1910,10 +1906,10 @@
         <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -1921,10 +1917,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
         <v>182</v>
-      </c>
-      <c r="C28" t="s">
-        <v>183</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -1936,15 +1932,15 @@
         <v>88</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
@@ -1954,12 +1950,12 @@
         <v>88</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
@@ -1969,19 +1965,19 @@
         <v>88</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C31" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>94</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>40</v>
@@ -1989,14 +1985,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C32" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>23</v>
@@ -2004,14 +2000,14 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>21</v>
@@ -2019,14 +2015,14 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C34" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>22</v>
@@ -2034,14 +2030,14 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>24</v>
@@ -2049,14 +2045,14 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C36" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>28</v>
@@ -2064,14 +2060,14 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>29</v>
@@ -2079,14 +2075,14 @@
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C38" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>30</v>
@@ -2101,7 +2097,7 @@
         <v>95</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>42</v>
@@ -2109,14 +2105,14 @@
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C40" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>43</v>
@@ -2128,10 +2124,10 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>47</v>
@@ -2143,10 +2139,10 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>48</v>
@@ -2158,10 +2154,10 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>50</v>
@@ -2169,14 +2165,14 @@
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>54</v>
@@ -2184,14 +2180,14 @@
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>27</v>
@@ -2199,14 +2195,14 @@
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>15</v>
@@ -2214,14 +2210,14 @@
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>16</v>
@@ -2236,22 +2232,22 @@
         <v>85</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>55</v>
@@ -2259,14 +2255,14 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>56</v>
@@ -2281,7 +2277,7 @@
         <v>93</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>58</v>
@@ -2289,13 +2285,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>39</v>
@@ -2303,13 +2299,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>33</v>
@@ -2317,13 +2313,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>34</v>
@@ -2331,13 +2327,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>35</v>
@@ -2345,13 +2341,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>36</v>
@@ -2365,7 +2361,7 @@
         <v>95</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>37</v>
@@ -2373,13 +2369,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>51</v>
@@ -2387,41 +2383,41 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>41</v>
@@ -2429,68 +2425,68 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -2498,10 +2494,10 @@
         <v>59</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>93</v>
@@ -2510,18 +2506,18 @@
         <v>88</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>15</v>
@@ -2529,13 +2525,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>16</v>
@@ -2543,7 +2539,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>93</v>
@@ -2552,7 +2548,7 @@
         <v>88</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -2563,7 +2559,7 @@
         <v>92</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>60</v>
@@ -2577,7 +2573,7 @@
         <v>85</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>25</v>
@@ -2585,13 +2581,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C72" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>26</v>
@@ -2599,13 +2595,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>43</v>
@@ -2616,10 +2612,10 @@
         <v>45</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>47</v>
@@ -2630,10 +2626,10 @@
         <v>46</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>48</v>
@@ -2647,7 +2643,7 @@
         <v>92</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>63</v>
@@ -2661,7 +2657,7 @@
         <v>92</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>65</v>
@@ -2669,13 +2665,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>41</v>
@@ -2686,10 +2682,10 @@
         <v>66</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>93</v>
@@ -2698,18 +2694,18 @@
         <v>88</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>15</v>
@@ -2717,13 +2713,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>16</v>
@@ -2731,7 +2727,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>93</v>
@@ -2740,7 +2736,7 @@
         <v>88</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -2751,7 +2747,7 @@
         <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>25</v>
@@ -2759,13 +2755,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>26</v>
@@ -2773,13 +2769,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>43</v>
@@ -2790,10 +2786,10 @@
         <v>45</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>47</v>
@@ -2804,10 +2800,10 @@
         <v>46</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>48</v>
@@ -2815,13 +2811,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>41</v>
@@ -2832,10 +2828,10 @@
         <v>67</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>93</v>
@@ -2844,18 +2840,18 @@
         <v>88</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>15</v>
@@ -2863,13 +2859,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>16</v>
@@ -2877,7 +2873,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>93</v>
@@ -2886,7 +2882,7 @@
         <v>88</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
@@ -2897,7 +2893,7 @@
         <v>85</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>25</v>
@@ -2905,13 +2901,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>26</v>
@@ -2919,13 +2915,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>41</v>
@@ -2936,10 +2932,10 @@
         <v>71</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" t="s">
         <v>221</v>
-      </c>
-      <c r="C96" t="s">
-        <v>222</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>93</v>
@@ -2948,12 +2944,12 @@
         <v>88</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>93</v>
@@ -2962,19 +2958,19 @@
         <v>88</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>21</v>
@@ -2985,10 +2981,10 @@
         <v>72</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>73</v>
@@ -3002,7 +2998,7 @@
         <v>95</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>37</v>
@@ -3013,10 +3009,10 @@
         <v>74</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
@@ -3028,7 +3024,7 @@
         <v>88</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
@@ -3041,10 +3037,10 @@
         <v>75</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C103" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
@@ -3056,7 +3052,7 @@
         <v>88</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
@@ -3069,10 +3065,10 @@
         <v>77</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -3084,7 +3080,7 @@
         <v>88</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
@@ -3097,10 +3093,10 @@
         <v>80</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
@@ -3112,15 +3108,15 @@
         <v>88</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>90</v>
@@ -3129,26 +3125,26 @@
         <v>88</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>86</v>
@@ -3157,71 +3153,71 @@
         <v>88</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
+        <v>123</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>92</v>
@@ -3230,10 +3226,10 @@
         <v>88</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
@@ -3241,125 +3237,125 @@
         <v>81</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>92</v>
@@ -3368,29 +3364,29 @@
         <v>88</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>93</v>
@@ -3399,35 +3395,35 @@
         <v>88</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
@@ -3435,27 +3431,27 @@
         <v>82</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>14</v>
@@ -3467,110 +3463,110 @@
         <v>88</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>92</v>
@@ -3579,29 +3575,29 @@
         <v>88</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>93</v>
@@ -3610,62 +3606,62 @@
         <v>88</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
+        <v>233</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
+        <v>235</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
+        <v>237</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="C148" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>85</v>
@@ -3679,7 +3675,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>85</v>
@@ -3693,46 +3689,46 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C150" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C153" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779848FD-4CBB-4B08-851A-96917585DDE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9FF47C-240B-493E-8C67-156803B7993D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="256">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교육이수번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,14 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAREER_START_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAREER_END_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경력시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ENTRUST_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위탁예정일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>법인소재지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>법인설립일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOD_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변경일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,10 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CORP_FOUND_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FILE_EXT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -563,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_file_attach_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CODE_MST_CD</t>
   </si>
   <si>
@@ -791,10 +759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LICENSE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAY_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -997,6 +961,64 @@
   </si>
   <si>
     <t>모집인변경이력시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_M_Z_ID_EDU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육수료대조(주민등록번호대체값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_lc_file01_seq</t>
+  </si>
+  <si>
+    <t>임시_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소(코드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인소재지(상세주소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAREER_START_DATE</t>
+  </si>
+  <si>
+    <t>CAREER_START_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAREER_END_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTRUST_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORP_FOUND_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOD_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE_LICENSE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_REG_STAT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,12 +1043,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1043,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,6 +1098,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1452,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H153"/>
+  <dimension ref="A2:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1467,29 +1516,30 @@
     <col min="5" max="5" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1498,39 +1548,39 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1538,10 +1588,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -1549,30 +1599,30 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1580,10 +1630,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -1594,10 +1644,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -1608,10 +1658,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
@@ -1622,13 +1672,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1636,10 +1686,10 @@
         <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>32</v>
@@ -1647,32 +1697,32 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
@@ -1682,152 +1732,152 @@
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -1835,50 +1885,50 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>169</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
@@ -1886,13 +1936,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>91</v>
+        <v>170</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>16</v>
@@ -1903,13 +1953,13 @@
         <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -1917,67 +1967,67 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C31" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>40</v>
@@ -1985,29 +2035,29 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C32" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C33" s="3" t="s">
-        <v>185</v>
+      <c r="C33" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>21</v>
@@ -2015,14 +2065,14 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C34" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>22</v>
@@ -2030,14 +2080,14 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>24</v>
@@ -2045,14 +2095,14 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C36" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>28</v>
@@ -2060,1675 +2110,1720 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C38" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>30</v>
+      <c r="C38" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C39" s="3" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C40" s="3" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>47</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C52" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>98</v>
+      <c r="C52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
-        <v>205</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="5" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C66" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C67" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="C68" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>98</v>
+        <v>201</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>88</v>
+        <v>185</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>98</v>
+        <v>169</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C72" s="3" t="s">
-        <v>189</v>
+      <c r="C72" t="s">
+        <v>56</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C73" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C74" t="s">
-        <v>45</v>
+      <c r="C74" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C75" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C76" t="s">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C77" t="s">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C78" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C80" t="s">
-        <v>193</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>98</v>
+        <v>218</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C81" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>98</v>
+        <v>198</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C82" t="s">
-        <v>211</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>88</v>
+        <v>185</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C83" t="s">
-        <v>68</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>98</v>
+        <v>169</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C84" s="3" t="s">
-        <v>189</v>
+      <c r="C84" t="s">
+        <v>202</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C86" t="s">
-        <v>45</v>
+      <c r="C86" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C87" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C88" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="C89" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
-        <v>193</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>98</v>
+        <v>218</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="C91" t="s">
-        <v>177</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>98</v>
+        <v>208</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
-        <v>211</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>88</v>
+        <v>185</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C93" t="s">
-        <v>70</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>98</v>
+        <v>169</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C94" s="3" t="s">
-        <v>189</v>
+      <c r="C94" t="s">
+        <v>202</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C95" t="s">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>71</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C96" t="s">
-        <v>221</v>
+      <c r="C96" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H97" s="2" t="s">
+      <c r="C98" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C98" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>98</v>
+      <c r="E98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C100" t="s">
-        <v>52</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>98</v>
+      <c r="C100" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>74</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="C101" t="s">
-        <v>248</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
-        <v>79</v>
+        <v>48</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C105" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
-        <v>116</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>219</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C110" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C112" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C113" t="s">
-        <v>230</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>134</v>
+        <v>113</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C114" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
-        <v>128</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>92</v>
+        <v>221</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>81</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="C116" t="s">
-        <v>137</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>75</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>82</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="C129" t="s">
-        <v>137</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C130" t="s">
-        <v>154</v>
-      </c>
-      <c r="D130" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C131" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C131" t="s">
-        <v>156</v>
-      </c>
       <c r="E131" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
-        <v>157</v>
+        <v>146</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C133" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>233</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>235</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C143" t="s">
+        <v>161</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C144" t="s">
+        <v>162</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C148" t="s">
-        <v>188</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H148" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>226</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>228</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C150" t="s">
+        <v>180</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C149" t="s">
-        <v>189</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C150" t="s">
-        <v>183</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C153" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C154" t="s">
+        <v>183</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C155" t="s">
+        <v>230</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9FF47C-240B-493E-8C67-156803B7993D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1C2CE2-FCE0-4772-83B8-005F67B4A23B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
     <sheet name="ERD" sheetId="2" r:id="rId2"/>
+    <sheet name="코드" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="264">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>취급상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,14 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분류(개인,법인 ..)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교육이수번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구분(신입/경력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CAREER_TYP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,18 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXP_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXC_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPER_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모집인단계이력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CORP_ADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FILE_EXT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -979,14 +948,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주소(코드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>법인소재지(상세주소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1019,6 +980,76 @@
   </si>
   <si>
     <t>PL_REG_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일시퀀스</t>
+  </si>
+  <si>
+    <t>대표이사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_CEO_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXC_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분(신규/경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융상품유형(취급상품)</t>
+  </si>
+  <si>
+    <t>금융상품유형(취급상품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집인상태(1.등록,2.정상해지,3.불법해지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류(개인/법인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLS001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_GRP_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일그룹시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본점소재지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소(법인등기부등본상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,7 +1074,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,6 +1093,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1077,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1113,6 +1150,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H155"/>
+  <dimension ref="A2:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1516,7 +1556,7 @@
     <col min="5" max="5" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1534,7 +1574,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
@@ -1548,39 +1588,39 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1588,10 +1628,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -1599,30 +1639,30 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1630,10 +1670,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -1644,10 +1684,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -1658,10 +1698,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
@@ -1672,212 +1712,212 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>102</v>
+      <c r="C13" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -1885,50 +1925,50 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
@@ -1936,13 +1976,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>16</v>
@@ -1950,16 +1990,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -1967,1863 +2007,1875 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C31" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C32" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>23</v>
+      <c r="C32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C33" s="7" t="s">
-        <v>255</v>
+      <c r="C33" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="3" t="s">
-        <v>178</v>
+      <c r="C34" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C36" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C38" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9" t="s">
-        <v>242</v>
+      <c r="C38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C39" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>30</v>
+      <c r="C39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C41" s="3" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C42" s="3" t="s">
-        <v>183</v>
+      <c r="C42" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>42</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C49" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C49" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C53" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C54" t="s">
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C55" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C56" t="s">
-        <v>254</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C57" t="s">
-        <v>189</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C60" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
-        <v>192</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C62" t="s">
-        <v>218</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C63" t="s">
-        <v>221</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="5" t="s">
-        <v>163</v>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="4"/>
+      <c r="C65" t="s">
+        <v>213</v>
+      </c>
       <c r="E65" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="G66" s="4"/>
-      <c r="H66" s="5"/>
+      <c r="H66" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="4"/>
+      <c r="E67" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="5"/>
+      <c r="H67" s="5" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
-        <v>185</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>92</v>
+        <v>194</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
-        <v>169</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>92</v>
+        <v>52</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C71" t="s">
-        <v>202</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>203</v>
+      <c r="C71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C72" t="s">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C73" t="s">
-        <v>64</v>
+      <c r="C73" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C74" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>26</v>
+      <c r="C74" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C75" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C76" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C77" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C78" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C79" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C80" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C82" t="s">
-        <v>185</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>92</v>
+        <v>194</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>16</v>
+      <c r="C83" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C85" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>25</v>
+      <c r="C85" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G85" s="8"/>
+      <c r="H85" s="9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C86" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C88" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C89" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
-        <v>185</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>92</v>
+        <v>194</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C93" t="s">
-        <v>169</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>92</v>
+        <v>254</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C94" t="s">
-        <v>202</v>
+      <c r="C94" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C95" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C96" s="3" t="s">
-        <v>181</v>
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" t="s">
+        <v>204</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>66</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C98" t="s">
-        <v>212</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>244</v>
+      <c r="C98" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C100" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C100" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>92</v>
+      <c r="F100" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="C101" t="s">
-        <v>253</v>
+        <v>231</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C105" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
-        <v>72</v>
+        <v>259</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>74</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="C109" t="s">
-        <v>219</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>243</v>
+        <v>116</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C110" t="s">
-        <v>125</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C112" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C113" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C114" t="s">
-        <v>116</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>111</v>
+        <v>213</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
-        <v>221</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>127</v>
+        <v>153</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C116" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>68</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="C117" t="s">
         <v>121</v>
       </c>
+      <c r="D117" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E117" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G117" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C118" t="s">
         <v>122</v>
       </c>
-      <c r="H117" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>75</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C118" t="s">
-        <v>129</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H125" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="C130" t="s">
-        <v>162</v>
+        <v>121</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="C131" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
-        <v>146</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C133" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H139" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C144" t="s">
-        <v>162</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>163</v>
+      <c r="A144" t="s">
+        <v>216</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>218</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>220</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C146" t="s">
+        <v>172</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C147" t="s">
+        <v>173</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
+      <c r="C148" t="s">
+        <v>167</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C149" t="s">
+        <v>168</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B148" s="1" t="s">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C150" t="s">
+        <v>175</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>226</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>228</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C150" t="s">
-        <v>180</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>181</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C152" t="s">
-        <v>175</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C153" t="s">
-        <v>176</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C154" t="s">
-        <v>183</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C155" t="s">
-        <v>230</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3847,4 +3899,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D04CA9-463C-43A9-950E-9BDD52A7EEB5}">
+  <dimension ref="B2:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1C2CE2-FCE0-4772-83B8-005F67B4A23B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D02705D-025F-43F7-ADF7-CA08869DF0D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="274">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,10 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,10 +740,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원사해지일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -948,108 +940,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CAREER_START_DATE</t>
+  </si>
+  <si>
+    <t>CAREER_START_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAREER_END_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTRUST_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORP_FOUND_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOD_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE_LICENSE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_REG_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일시퀀스</t>
+  </si>
+  <si>
+    <t>대표이사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_CEO_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXC_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분(신규/경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융상품유형(취급상품)</t>
+  </si>
+  <si>
+    <t>금융상품유형(취급상품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집인상태(1.등록,2.정상해지,3.불법해지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류(개인/법인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLS001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_GRP_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일그룹시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본점소재지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDR_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소(법인등기부등본상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_lc_grp_file01_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실무자확인여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHK_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집인업무분담정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_WORK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임원이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAREER_START_DATE</t>
-  </si>
-  <si>
-    <t>CAREER_START_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAREER_END_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENTRUST_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CORP_FOUND_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOD_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRE_LICENSE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL_REG_STAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일시퀀스</t>
-  </si>
-  <si>
-    <t>대표이사명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL_CEO_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXC_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분(신규/경력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금융상품유형(취급상품)</t>
-  </si>
-  <si>
-    <t>금융상품유형(취급상품)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모집인상태(1.등록,2.정상해지,3.불법해지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류(개인/법인)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLS001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE_GRP_SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일그룹시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본점소재지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDR_DETAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세주소(법인등기부등본상)</t>
+  </si>
+  <si>
+    <t>VARVARCHAR(2)</t>
+  </si>
+  <si>
+    <t>CI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,7 +1189,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1541,15 +1588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H151"/>
+  <dimension ref="A2:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.69921875" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="1"/>
@@ -1588,10 +1635,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -1603,15 +1650,15 @@
         <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>72</v>
@@ -1620,7 +1667,7 @@
         <v>75</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1639,7 +1686,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>80</v>
@@ -1648,21 +1695,21 @@
         <v>75</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1673,7 +1720,7 @@
         <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -1687,75 +1734,82 @@
         <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="F10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>91</v>
+      <c r="F11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
@@ -1766,7 +1820,7 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1791,7 +1845,7 @@
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -1804,13 +1858,13 @@
         <v>76</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -1823,52 +1877,52 @@
         <v>76</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="6" t="s">
-        <v>119</v>
+      <c r="E19" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
@@ -1880,16 +1934,16 @@
         <v>75</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -1900,13 +1954,13 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -1917,7 +1971,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -1925,10 +1979,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -1940,35 +1994,35 @@
         <v>75</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
@@ -1976,13 +2030,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>16</v>
@@ -1996,1144 +2050,1210 @@
         <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+      <c r="A28" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
         <v>165</v>
       </c>
-      <c r="C28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C29" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>75</v>
+      <c r="F30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C31" s="3" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9" t="s">
-        <v>250</v>
+      <c r="C32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="7" t="s">
-        <v>245</v>
+      <c r="C34" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>255</v>
+        <v>84</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C36" s="3" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>23</v>
+        <v>84</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C38" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C39" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8" t="s">
+      <c r="C39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9" t="s">
-        <v>234</v>
+      <c r="F39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C40" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>29</v>
+      <c r="C40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C41" s="3" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>261</v>
+        <v>84</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C42" s="12" t="s">
-        <v>262</v>
+      <c r="C42" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>263</v>
+        <v>84</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C49" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9" t="s">
-        <v>247</v>
+      <c r="C49" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C56" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" s="2" t="s">
+      <c r="F57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C55" t="s">
-        <v>178</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C56" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C57" t="s">
-        <v>180</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>36</v>
+      <c r="C60" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C64" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C65" t="s">
-        <v>213</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="5" t="s">
-        <v>110</v>
+        <v>181</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="5" t="s">
-        <v>155</v>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="5" t="s">
-        <v>156</v>
+      <c r="C67" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C68" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
-        <v>194</v>
-      </c>
-      <c r="E69" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C70" t="s">
-        <v>52</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>250</v>
+      <c r="F70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C71" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9" t="s">
-        <v>91</v>
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C72" t="s">
-        <v>249</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>24</v>
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C73" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" s="2" t="s">
+      <c r="F75" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C76" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C74" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C78" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C75" t="s">
+      <c r="F78" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C79" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C80" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C81" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C83" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C84" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="C85" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C76" t="s">
-        <v>238</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C77" t="s">
-        <v>240</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C78" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C79" t="s">
-        <v>55</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C80" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C81" t="s">
-        <v>190</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C82" t="s">
-        <v>194</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C83" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C84" t="s">
-        <v>253</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C85" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="9" t="s">
-        <v>252</v>
+      <c r="F85" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C86" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C87" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C88" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H86" s="2" t="s">
+      <c r="F88" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C89" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="H89" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C90" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C87" t="s">
-        <v>197</v>
-      </c>
-      <c r="E87" s="1" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C91" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H87" s="2" t="s">
+      <c r="F91" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C88" t="s">
-        <v>238</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H88" s="2" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C92" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C89" t="s">
-        <v>240</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H89" s="2" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C93" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="5" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C90" t="s">
-        <v>210</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91" t="s">
-        <v>200</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C92" t="s">
-        <v>194</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C93" t="s">
-        <v>254</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E94" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C97" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C95" t="s">
-        <v>210</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>59</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" t="s">
-        <v>204</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C97" t="s">
-        <v>194</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>195</v>
+      <c r="F97" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>85</v>
+        <v>172</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" t="s">
+        <v>208</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>61</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="C101" t="s">
-        <v>231</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>80</v>
@@ -3141,58 +3261,62 @@
       <c r="F101" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="H101" s="2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C102" t="s">
-        <v>66</v>
+      <c r="C102" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>62</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="C103" t="s">
-        <v>229</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>230</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C105" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -3204,26 +3328,26 @@
         <v>75</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
@@ -3235,647 +3359,709 @@
         <v>75</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
-        <v>259</v>
-      </c>
-      <c r="D108" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C109" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C109" t="s">
-        <v>117</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F109" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C110" t="s">
-        <v>101</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C111" t="s">
-        <v>120</v>
+        <v>209</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="G111" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="H111" s="2" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C112" t="s">
-        <v>105</v>
+        <v>256</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="G112" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="H112" s="2" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C113" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C114" t="s">
-        <v>213</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C116" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="H116" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>68</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C117" t="s">
-        <v>121</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C118" t="s">
-        <v>122</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>106</v>
+        <v>211</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C121" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="C130" t="s">
-        <v>121</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
-        <v>138</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C133" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>69</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C134" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
-        <v>125</v>
+        <v>137</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C144" t="s">
+        <v>211</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C145" t="s">
+        <v>186</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H143" s="2" t="s">
+      <c r="F145" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C146" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H146" s="2" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>216</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>218</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>220</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C146" t="s">
-        <v>172</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E147" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>214</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>216</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>218</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C150" t="s">
+        <v>171</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C148" t="s">
-        <v>167</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C149" t="s">
-        <v>168</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C150" t="s">
-        <v>175</v>
-      </c>
       <c r="F150" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
+        <v>172</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C152" t="s">
+        <v>166</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C153" t="s">
+        <v>167</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>226</v>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C154" t="s">
+        <v>174</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C155" t="s">
+        <v>220</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3913,16 +4099,16 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D02705D-025F-43F7-ADF7-CA08869DF0D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29165403-FD94-46CB-8D70-D24EE952D4FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="276">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부서명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1088,6 +1084,18 @@
   </si>
   <si>
     <t>CI값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTENSION_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내선번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1588,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H155"/>
+  <dimension ref="A2:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1618,10 +1626,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
@@ -1632,42 +1640,42 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1675,10 +1683,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -1686,30 +1694,30 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1717,184 +1725,183 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C13" s="3" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C14" s="3" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="5" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="H18" s="5" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1903,197 +1910,194 @@
         <v>152</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="12" t="s">
-        <v>118</v>
+      <c r="E19" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>194</v>
+        <v>158</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
       <c r="C29" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="9" t="s">
@@ -2101,645 +2105,647 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
         <v>164</v>
       </c>
-      <c r="C30" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C31" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>75</v>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C32" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C34" s="3" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>247</v>
+        <v>83</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C36" s="3" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="H37" s="5" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C38" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C39" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C41" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="5" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>271</v>
+        <v>71</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>258</v>
+        <v>83</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5" t="s">
-        <v>244</v>
+        <v>83</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C58" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>84</v>
+      <c r="C58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C60" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="8" t="s">
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C61" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>33</v>
+      <c r="H61" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C64" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C65" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C67" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="5" t="s">
-        <v>109</v>
+        <v>207</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
-        <v>80</v>
+      <c r="C70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -2749,1319 +2755,1337 @@
         <v>152</v>
       </c>
       <c r="D71" s="4"/>
-      <c r="E71" s="12" t="s">
-        <v>118</v>
+      <c r="E71" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
-        <v>80</v>
+      <c r="E72" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>234</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C73" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="H73" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C74" s="3" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C75" s="3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
-        <v>90</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C76" s="3" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>269</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C78" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="15" t="s">
-        <v>249</v>
+      <c r="C78" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C79" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="5" t="s">
-        <v>39</v>
+      <c r="C79" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C81" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C82" s="3" t="s">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C83" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>57</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="C85" s="3" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>234</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G85" s="4"/>
       <c r="H85" s="5" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C86" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G86" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="H86" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C87" s="3" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C88" s="3" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5" t="s">
-        <v>24</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C89" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G89" s="14"/>
-      <c r="H89" s="15" t="s">
+      <c r="C89" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C90" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="5" t="s">
-        <v>25</v>
+      <c r="C90" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C92" s="3" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C93" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>58</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="C95" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>234</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G95" s="4"/>
       <c r="H95" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C96" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G96" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="H96" s="5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>25</v>
+        <v>250</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C99" t="s">
-        <v>208</v>
+      <c r="C99" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>59</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" t="s">
         <v>201</v>
       </c>
-      <c r="C100" t="s">
+      <c r="E101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C101" t="s">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C102" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C102" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C103" t="s">
-        <v>240</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>84</v>
+      <c r="C103" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>61</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C105" t="s">
-        <v>229</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>230</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C106" t="s">
+        <v>228</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>61</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C109" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C111" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C107" t="s">
-        <v>227</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C108" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>64</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C109" t="s">
-        <v>225</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C110" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>67</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H112" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C112" t="s">
-        <v>256</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C113" t="s">
-        <v>116</v>
+        <v>255</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>114</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C114" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C116" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C118" t="s">
-        <v>211</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>118</v>
+        <v>106</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>152</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>118</v>
+        <v>210</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
+        <v>151</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C121" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>68</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C121" t="s">
-        <v>120</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H121" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C122" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C130" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C133" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C134" t="s">
+        <v>152</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H134" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>69</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C134" t="s">
-        <v>120</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>68</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H137" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C146" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>214</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>215</v>
+      <c r="C148" t="s">
+        <v>152</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C150" t="s">
-        <v>171</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C153" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C155" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C156" t="s">
+        <v>219</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4099,16 +4123,16 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29165403-FD94-46CB-8D70-D24EE952D4FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E60B8-F814-415A-9998-C4DC6F1D3802}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="281">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1096,6 +1096,26 @@
   </si>
   <si>
     <t>내선번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TERMS_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관동의일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TERMS_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1596,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H156"/>
+  <dimension ref="A2:H158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1813,430 +1833,428 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C15" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="4">
-        <v>0</v>
+      <c r="G16" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="5" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>75</v>
+      <c r="G18" s="4">
+        <v>0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="H19" s="5" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="12" t="s">
-        <v>117</v>
+      <c r="E20" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="H20" s="5" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>156</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>79</v>
+      <c r="E22" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="3" t="s">
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="4"/>
+      <c r="C25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5" t="s">
+      <c r="F25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>76</v>
+        <v>158</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="F30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9" t="s">
+      <c r="F31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9" t="s">
+      <c r="F32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C32" s="3" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C34" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C33" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>254</v>
+        <v>74</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C36" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="G36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
@@ -2246,79 +2264,83 @@
         <v>83</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C38" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="H38" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C39" s="3" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="H39" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C40" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C41" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C41" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
@@ -2329,28 +2351,28 @@
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C43" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C43" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
@@ -2361,87 +2383,92 @@
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>270</v>
+        <v>71</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="G45" s="4"/>
+      <c r="H45" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="G46" s="4"/>
+      <c r="H46" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="G47" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="H47" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
@@ -2451,12 +2478,12 @@
         <v>83</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
@@ -2466,58 +2493,57 @@
         <v>83</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="5" t="s">
-        <v>243</v>
+      <c r="H53" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
@@ -2526,104 +2552,103 @@
       <c r="F55" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>15</v>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C59" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="F60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C59" t="s">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H59" s="2" t="s">
+      <c r="F61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C60" t="s">
-        <v>177</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C61" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>82</v>
@@ -2632,26 +2657,30 @@
         <v>83</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C63" t="s">
-        <v>240</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>33</v>
+      <c r="C63" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>82</v>
@@ -2660,120 +2689,112 @@
         <v>83</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C65" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C67" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C72" t="s">
         <v>210</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="6" t="s">
         <v>117</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -2781,100 +2802,104 @@
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="3" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>233</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="D74" s="4"/>
-      <c r="E74" s="4" t="s">
-        <v>79</v>
+      <c r="E74" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C75" s="3" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="H75" s="5" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C76" s="3" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C78" s="3" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
@@ -2885,212 +2910,212 @@
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C79" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="15" t="s">
-        <v>248</v>
+      <c r="C79" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C81" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="5" t="s">
-        <v>40</v>
+      <c r="C81" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C82" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C83" s="3" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C85" s="3" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="C86" s="3" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>233</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="5" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C87" s="3" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C88" s="3" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G88" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="H88" s="5" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C89" s="3" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C90" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G90" s="14"/>
-      <c r="H90" s="15" t="s">
-        <v>248</v>
+      <c r="C90" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
@@ -3101,277 +3126,278 @@
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C92" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="5" t="s">
-        <v>38</v>
+      <c r="C92" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G92" s="14"/>
+      <c r="H92" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C93" s="3" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C95" s="3" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="5" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>57</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="C96" s="3" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>233</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G96" s="4"/>
       <c r="H96" s="5" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="C98" s="3" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G98" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="H98" s="5" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C100" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C101" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H99" s="2" t="s">
+      <c r="F101" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C100" t="s">
-        <v>207</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>58</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101" t="s">
-        <v>201</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C103" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>83</v>
+      <c r="A103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" t="s">
+        <v>201</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
+        <v>191</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C105" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C106" t="s">
         <v>239</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H104" s="2" t="s">
+      <c r="F106" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C105" t="s">
-        <v>44</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>60</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C106" t="s">
-        <v>228</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C107" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C108" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -3386,23 +3412,23 @@
         <v>233</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C109" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C110" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -3417,23 +3443,23 @@
         <v>233</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -3445,94 +3471,97 @@
         <v>74</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C113" t="s">
-        <v>255</v>
-      </c>
-      <c r="D113" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>66</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" t="s">
+        <v>208</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C114" t="s">
-        <v>115</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="F114" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
-        <v>99</v>
+        <v>255</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="G115" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="H115" s="2" t="s">
-        <v>100</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C116" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C118" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>101</v>
@@ -3541,108 +3570,108 @@
         <v>74</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>210</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
-        <v>111</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>78</v>
+        <v>210</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H121" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>67</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="C122" t="s">
-        <v>119</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>67</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C124" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>104</v>
@@ -3651,12 +3680,12 @@
         <v>83</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>104</v>
@@ -3665,12 +3694,12 @@
         <v>83</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>104</v>
@@ -3679,12 +3708,12 @@
         <v>83</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>104</v>
@@ -3693,12 +3722,12 @@
         <v>83</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>104</v>
@@ -3707,153 +3736,153 @@
         <v>83</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C130" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="G132" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="H132" s="2" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C133" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>68</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="C135" t="s">
-        <v>119</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>136</v>
-      </c>
-      <c r="D136" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" t="s">
+        <v>119</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C137" t="s">
-        <v>138</v>
-      </c>
       <c r="E137" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>104</v>
@@ -3862,12 +3891,12 @@
         <v>83</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>104</v>
@@ -3876,12 +3905,12 @@
         <v>83</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>104</v>
@@ -3890,12 +3919,12 @@
         <v>83</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>104</v>
@@ -3904,12 +3933,12 @@
         <v>83</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>104</v>
@@ -3918,173 +3947,201 @@
         <v>83</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C146" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="G146" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="H146" s="2" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H148" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C149" t="s">
+        <v>151</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C150" t="s">
+        <v>152</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>213</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>215</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
+        <v>213</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>215</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
         <v>217</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C153" t="s">
         <v>170</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H151" s="2" t="s">
+      <c r="F153" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C152" t="s">
-        <v>171</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C153" t="s">
-        <v>165</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C155" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C156" t="s">
+        <v>166</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C157" t="s">
+        <v>173</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C158" t="s">
         <v>219</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H156" s="2" t="s">
+      <c r="F158" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>223</v>
       </c>
     </row>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E60B8-F814-415A-9998-C4DC6F1D3802}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1A8C54-10E5-4D31-B466-FEE3625D1643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="284">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1117,6 +1117,15 @@
   <si>
     <t>TERMS_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_lc_mas01_imwon_seq</t>
+  </si>
+  <si>
+    <t>tb_lc_mas01_expert_seq</t>
+  </si>
+  <si>
+    <t>tb_lc_mas01_it_seq</t>
   </si>
 </sst>
 </file>
@@ -1618,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2859,7 +2868,7 @@
         <v>74</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>189</v>
@@ -2892,7 +2901,9 @@
       <c r="F77" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="H77" s="5" t="s">
         <v>246</v>
       </c>
@@ -3075,7 +3086,7 @@
         <v>74</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>188</v>
@@ -3172,7 +3183,9 @@
       <c r="F94" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="H94" s="5" t="s">
         <v>38</v>
       </c>
@@ -3243,7 +3256,7 @@
         <v>74</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>198</v>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1A8C54-10E5-4D31-B466-FEE3625D1643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87366FB-4CE9-44FF-B063-7F498C5A1A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="279">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>처리상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,22 +356,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자권한정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROLE_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>권한ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>권한명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,14 +379,6 @@
     <t>VARCHAR(10)</t>
   </si>
   <si>
-    <t>APPR_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승인여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>협회여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,13 +603,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_LC_MEMBER_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_lc_member_role_seq</t>
-  </si>
-  <si>
     <t>TB_LC_COMPANY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -989,10 +958,6 @@
     <t>금융상품유형(취급상품)</t>
   </si>
   <si>
-    <t>금융상품유형(취급상품)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXP_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1001,10 +966,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모집인상태(1.등록,2.정상해지,3.불법해지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1126,6 +1087,35 @@
   </si>
   <si>
     <t>tb_lc_mas01_it_seq</t>
+  </si>
+  <si>
+    <t>STS001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">처리상태
+		1. 미요청
+		2. 승인요청
+		3. 변경요청
+		4. 취소
+		5. 해지요청
+		6. 변경요청(보완)
+		7. 해지요청(보완)
+		8. 완료
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPR_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인상태(1. 미승인, 2. 가승인, 3. 승인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집인상태(1.승인완료,2.해지완료,3.자격취득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1149,7 +1139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,12 +1158,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1189,7 +1173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,14 +1213,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H158"/>
+  <dimension ref="A2:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1658,7 +1636,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
@@ -1672,39 +1650,39 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1712,10 +1690,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -1723,30 +1701,30 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1754,29 +1732,29 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C9" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9" t="s">
-        <v>275</v>
+      <c r="C9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1784,13 +1762,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1799,10 +1777,10 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5" t="s">
@@ -1815,137 +1793,132 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C14" s="7" t="s">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>112</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="9" t="s">
-        <v>278</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C15" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9" t="s">
-        <v>279</v>
+      <c r="C15" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C17" s="3" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1955,2207 +1928,2219 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="H20" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="H21" s="5" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="12" t="s">
-        <v>117</v>
+      <c r="E22" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="H24" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C25" s="3" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C34" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C36" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="174" x14ac:dyDescent="0.4">
       <c r="C38" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C39" s="3" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>269</v>
+        <v>70</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>263</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G39" s="4"/>
       <c r="H39" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C40" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>269</v>
+        <v>70</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C41" s="3" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C43" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C43" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="H45" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+        <v>249</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C59" s="3" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C60" s="3" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C61" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C62" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C63" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
+      <c r="F65" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C66" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C67" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C68" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C62" t="s">
-        <v>177</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C63" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8" t="s">
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C69" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C64" t="s">
-        <v>178</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C65" t="s">
-        <v>240</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C66" t="s">
-        <v>179</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C67" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C68" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C69" t="s">
-        <v>181</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C70" t="s">
-        <v>182</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C71" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C72" t="s">
-        <v>210</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>117</v>
+      <c r="F69" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C70" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C73" s="3" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="H73" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C74" s="3" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D74" s="4"/>
-      <c r="E74" s="12" t="s">
-        <v>117</v>
+      <c r="E74" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C75" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C76" s="3" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>261</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C78" s="3" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C79" s="3" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C81" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="15" t="s">
-        <v>248</v>
+      <c r="C81" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C82" s="3" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C83" s="3" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C85" s="3" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G85" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="H85" s="5" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C86" s="3" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C87" s="3" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="C88" s="3" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>282</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G88" s="4"/>
       <c r="H88" s="5" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C89" s="3" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C90" s="3" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G90" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="H90" s="5" t="s">
-        <v>246</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C92" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="15" t="s">
-        <v>248</v>
+      <c r="C92" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C93" s="3" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="C94" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C95" s="3" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="5" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C96" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G97" s="4"/>
-      <c r="H97" s="5" t="s">
-        <v>242</v>
+        <v>163</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
+      <c r="C98" t="s">
+        <v>199</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
         <v>57</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C99" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="5" t="s">
+      <c r="B99" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="C99" t="s">
+        <v>193</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C100" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G100" s="4"/>
-      <c r="H100" s="5" t="s">
-        <v>23</v>
+      <c r="C100" t="s">
+        <v>183</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C101" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>83</v>
+        <v>159</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>58</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="C103" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>220</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C105" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>20</v>
+      <c r="C105" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>218</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C107" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C109" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C110" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
-        <v>62</v>
+        <v>245</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>63</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="C112" t="s">
-        <v>224</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C113" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>66</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="C114" t="s">
-        <v>208</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
-        <v>255</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>256</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C116" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
-        <v>99</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>76</v>
+        <v>202</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C118" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C120" t="s">
-        <v>106</v>
+        <v>113</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
-        <v>210</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>67</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="C124" t="s">
-        <v>119</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C130" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C133" t="s">
-        <v>210</v>
+        <v>113</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>185</v>
+        <v>130</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>68</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="C137" t="s">
-        <v>119</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>136</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C146" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C147" t="s">
+      <c r="A147" t="s">
+        <v>205</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>207</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>209</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C148" t="s">
-        <v>185</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C149" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C150" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
+      <c r="C151" t="s">
+        <v>157</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C152" t="s">
+        <v>158</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B151" s="1" t="s">
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C153" t="s">
+        <v>165</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>215</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>217</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C153" t="s">
-        <v>170</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
-        <v>171</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C155" t="s">
-        <v>165</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C156" t="s">
-        <v>166</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C157" t="s">
-        <v>173</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C158" t="s">
-        <v>219</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4193,16 +4178,16 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87366FB-4CE9-44FF-B063-7F498C5A1A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48733032-8B3E-4687-8064-D3FBE86530BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="281">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,10 +775,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_STEP_SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모집인단계이력시퀀스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,10 +875,6 @@
   </si>
   <si>
     <t>결제내역시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_HIST_SEQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1115,6 +1107,20 @@
   </si>
   <si>
     <t>모집인상태(1.승인완료,2.해지완료,3.자격취득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_lc_mas01_step_seq</t>
+  </si>
+  <si>
+    <t>tb_lc_mas01_hist_seq</t>
+  </si>
+  <si>
+    <t>MASTER_STEP_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASTER_HIST_SEQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1605,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1743,7 +1749,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -1754,7 +1760,7 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1768,7 +1774,7 @@
         <v>82</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1837,7 +1843,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
@@ -1850,12 +1856,12 @@
         <v>106</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -1866,12 +1872,12 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C17" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -1882,13 +1888,13 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
@@ -1899,7 +1905,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2089,10 +2095,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>136</v>
@@ -2198,16 +2204,16 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -2216,16 +2222,16 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -2240,28 +2246,28 @@
         <v>82</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="174" x14ac:dyDescent="0.4">
@@ -2270,16 +2276,16 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2325,7 +2331,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C41" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
@@ -2336,7 +2342,7 @@
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -2363,7 +2369,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
@@ -2374,7 +2380,7 @@
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2405,16 +2411,16 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2422,7 +2428,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
@@ -2433,7 +2439,7 @@
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -2456,7 +2462,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
@@ -2471,7 +2477,7 @@
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
@@ -2486,7 +2492,7 @@
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
@@ -2531,7 +2537,7 @@
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
@@ -2542,7 +2548,7 @@
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.4">
@@ -2592,7 +2598,7 @@
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
@@ -2630,7 +2636,7 @@
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>82</v>
@@ -2660,7 +2666,7 @@
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C61" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
@@ -2673,7 +2679,7 @@
         <v>74</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I61" s="3"/>
     </row>
@@ -2696,7 +2702,7 @@
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C63" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
@@ -2798,7 +2804,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C69" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
@@ -2809,13 +2815,13 @@
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C70" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="12" t="s">
@@ -2885,7 +2891,7 @@
         <v>73</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>181</v>
@@ -2919,10 +2925,10 @@
         <v>82</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
@@ -2943,7 +2949,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
@@ -2954,7 +2960,7 @@
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
@@ -2991,7 +2997,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
@@ -3007,7 +3013,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C81" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
@@ -3055,7 +3061,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -3066,7 +3072,7 @@
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -3087,7 +3093,7 @@
         <v>73</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>180</v>
@@ -3122,12 +3128,12 @@
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C88" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
@@ -3169,7 +3175,7 @@
         <v>82</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>37</v>
@@ -3177,7 +3183,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
@@ -3193,7 +3199,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C92" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
@@ -3209,7 +3215,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C93" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
@@ -3220,7 +3226,7 @@
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
@@ -3241,7 +3247,7 @@
         <v>73</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>190</v>
@@ -3265,7 +3271,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C96" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
@@ -3295,7 +3301,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>78</v>
@@ -3304,7 +3310,7 @@
         <v>82</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
@@ -3314,8 +3320,8 @@
       <c r="B99" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C99" t="s">
-        <v>193</v>
+      <c r="C99" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>78</v>
@@ -3324,10 +3330,10 @@
         <v>73</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
@@ -3361,7 +3367,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>81</v>
@@ -3392,10 +3398,10 @@
         <v>59</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C104" t="s">
-        <v>220</v>
+        <v>194</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -3407,10 +3413,10 @@
         <v>73</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
@@ -3423,10 +3429,10 @@
         <v>60</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -3438,10 +3444,10 @@
         <v>73</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
@@ -3454,10 +3460,10 @@
         <v>62</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -3469,10 +3475,10 @@
         <v>73</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
@@ -3485,10 +3491,10 @@
         <v>65</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -3500,15 +3506,15 @@
         <v>73</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
@@ -3520,10 +3526,10 @@
         <v>73</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
@@ -3601,7 +3607,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>111</v>
@@ -3649,7 +3655,7 @@
         <v>66</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C120" t="s">
         <v>113</v>
@@ -3784,7 +3790,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>110</v>
@@ -3843,7 +3849,7 @@
         <v>67</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C133" t="s">
         <v>113</v>
@@ -3995,7 +4001,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>110</v>
@@ -4051,26 +4057,26 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
+        <v>204</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
+        <v>208</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C149" t="s">
         <v>162</v>
@@ -4103,44 +4109,56 @@
       <c r="C151" t="s">
         <v>157</v>
       </c>
+      <c r="E151" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="F151" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
         <v>158</v>
       </c>
+      <c r="E152" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="F152" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C153" t="s">
         <v>165</v>
       </c>
+      <c r="E153" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F153" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4187,7 +4205,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48733032-8B3E-4687-8064-D3FBE86530BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8564C9A-7D09-42A9-A8BD-550C99A105CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="295">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1121,6 +1121,61 @@
   </si>
   <si>
     <t>MASTER_HIST_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTICE_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIEW_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEL_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_lc_notice_seq</t>
+  </si>
+  <si>
+    <t>TB_LC_NOTICE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,6 +1276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K154"/>
+  <dimension ref="A2:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4057,107 +4115,265 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
+        <v>281</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C148" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C149" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H149" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C150" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C151" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C152" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C153" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C154" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C155" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C156" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
         <v>204</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
         <v>206</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
         <v>208</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C164" t="s">
         <v>162</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H149" s="2" t="s">
+      <c r="F164" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H164" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C150" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C165" t="s">
         <v>163</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H150" s="2" t="s">
+      <c r="F165" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H165" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C151" t="s">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C166" t="s">
         <v>157</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E166" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H151" s="2" t="s">
+      <c r="F166" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C152" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C167" t="s">
         <v>158</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E167" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H152" s="2" t="s">
+      <c r="F167" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H167" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C153" t="s">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C168" t="s">
         <v>165</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H153" s="2" t="s">
+      <c r="F168" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H168" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C154" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C169" t="s">
         <v>210</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H154" s="2" t="s">
+      <c r="F169" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H169" s="2" t="s">
         <v>214</v>
       </c>
     </row>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8564C9A-7D09-42A9-A8BD-550C99A105CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC775F45-B124-47F6-A170-2153944A6328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="297">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,22 +225,6 @@
   </si>
   <si>
     <t>CAREER_TYP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FULL_TM_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상근여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPERT_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문인력여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1177,6 +1161,28 @@
   <si>
     <t>TB_LC_NOTICE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상근상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_TM_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPERT_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문인력상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTM001</t>
+  </si>
+  <si>
+    <t>EXP001</t>
   </si>
 </sst>
 </file>
@@ -1669,23 +1675,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="1"/>
-    <col min="5" max="5" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1"/>
+    <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="39" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -1700,7 +1706,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
@@ -1709,431 +1715,431 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C25" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3" t="s">
@@ -2141,224 +2147,224 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C35" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="174" x14ac:dyDescent="0.4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="165" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="5" t="s">
@@ -2368,16 +2374,16 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5" t="s">
@@ -2387,35 +2393,35 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C41" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C42" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5" t="s">
@@ -2425,35 +2431,35 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C43" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C44" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5" t="s">
@@ -2463,207 +2469,207 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C45" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C46" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C47" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C48" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C49" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C50" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C51" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C52" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C53" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C54" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C55" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C57" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="5" t="s">
@@ -2671,16 +2677,16 @@
       </c>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C58" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5" t="s">
@@ -2688,16 +2694,16 @@
       </c>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C59" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="5" t="s">
@@ -2705,16 +2711,16 @@
       </c>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C60" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5" t="s">
@@ -2722,35 +2728,35 @@
       </c>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C61" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C62" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5" t="s">
@@ -2758,16 +2764,16 @@
       </c>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C63" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5" t="s">
@@ -2775,16 +2781,16 @@
       </c>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C64" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5" t="s">
@@ -2792,16 +2798,16 @@
       </c>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C65" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5" t="s">
@@ -2809,16 +2815,16 @@
       </c>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C66" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="5" t="s">
@@ -2826,1555 +2832,1559 @@
       </c>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C67" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C68" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C69" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C70" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>49</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C74" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C75" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C77" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C78" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C79" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C80" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C81" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C82" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C83" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C82" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C83" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C84" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C86" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C87" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C88" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C89" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C90" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C91" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C92" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C93" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C95" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C96" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C97" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C101" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>43</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C110" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>105</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>89</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>93</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>197</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>141</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>101</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C112" t="s">
+      <c r="F119" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" t="s">
         <v>109</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C113" t="s">
-        <v>93</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C114" t="s">
-        <v>112</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C115" t="s">
-        <v>97</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C116" t="s">
-        <v>100</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C117" t="s">
-        <v>201</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C118" t="s">
-        <v>145</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C119" t="s">
-        <v>105</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>66</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C120" t="s">
-        <v>113</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>113</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>114</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>115</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>116</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>100</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H120" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C121" t="s">
-        <v>114</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="F128" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>197</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H129" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C122" t="s">
-        <v>115</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C123" t="s">
-        <v>116</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C124" t="s">
-        <v>117</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C125" t="s">
-        <v>118</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C126" t="s">
-        <v>119</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C127" t="s">
-        <v>120</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C128" t="s">
-        <v>104</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G128" s="1" t="s">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>173</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>141</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H128" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C129" t="s">
-        <v>201</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C130" t="s">
-        <v>177</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C131" t="s">
-        <v>145</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F131" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C133" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>129</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>112</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>113</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>114</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>115</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>116</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>100</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H134" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C135" t="s">
-        <v>132</v>
-      </c>
-      <c r="E135" s="1" t="s">
+      <c r="F142" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>197</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C136" t="s">
-        <v>133</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C137" t="s">
-        <v>116</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C138" t="s">
-        <v>117</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C139" t="s">
-        <v>118</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C140" t="s">
-        <v>119</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C141" t="s">
-        <v>120</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C142" t="s">
-        <v>104</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G142" s="1" t="s">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>173</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>141</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H142" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C143" t="s">
-        <v>201</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C144" t="s">
-        <v>177</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C145" t="s">
-        <v>145</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F145" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H147" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C148" s="14" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C148" s="14" t="s">
-        <v>287</v>
-      </c>
       <c r="E148" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H148" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C149" s="14" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C149" s="14" t="s">
-        <v>288</v>
-      </c>
       <c r="E149" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H149" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C150" s="14" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C150" s="14" t="s">
-        <v>289</v>
-      </c>
       <c r="E150" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G150" s="1">
         <v>0</v>
       </c>
       <c r="H150" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C151" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H151" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C152" s="14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G152" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C153" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C154" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H152" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C153" s="14" t="s">
+      <c r="F154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C155" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C156" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H153" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C154" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H154" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C155" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H155" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C156" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H156" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>202</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>204</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
-        <v>206</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
-        <v>208</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="C164" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
+        <v>206</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H169" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4392,7 +4402,7 @@
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4408,20 +4418,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC775F45-B124-47F6-A170-2153944A6328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CF2801-7F25-4518-82C1-58DEBF420E51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="298">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1086,10 +1086,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승인상태(1. 미승인, 2. 가승인, 3. 승인)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모집인상태(1.승인완료,2.해지완료,3.자격취득)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1183,6 +1179,14 @@
   </si>
   <si>
     <t>EXP001</t>
+  </si>
+  <si>
+    <t>MEM001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인상태(1. 승인요청, 2. 가승인, 3. 승인완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1673,25 +1677,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K169"/>
+  <dimension ref="A2:K174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1"/>
-    <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="1"/>
+    <col min="5" max="5" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="39" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -1715,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>135</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>136</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>140</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
         <v>258</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -1841,7 +1845,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1873,7 +1877,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C14" s="7" t="s">
         <v>79</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
         <v>261</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
         <v>264</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C17" s="3" t="s">
         <v>270</v>
       </c>
@@ -1950,12 +1954,14 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="H17" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>195</v>
@@ -1972,7 +1978,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>64</v>
@@ -1991,7 +1997,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
         <v>86</v>
@@ -2010,7 +2016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
         <v>82</v>
@@ -2029,7 +2035,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
         <v>142</v>
@@ -2046,7 +2052,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
         <v>141</v>
@@ -2063,7 +2069,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2089,7 +2095,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C25" s="3" t="s">
         <v>146</v>
       </c>
@@ -2105,7 +2111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" s="3" t="s">
         <v>147</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
@@ -2139,7 +2145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3" t="s">
@@ -2157,302 +2163,291 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>251</v>
-      </c>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H29" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="C30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="D34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="F34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E35" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="C36" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E36" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="3" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>247</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G37" s="4"/>
       <c r="H37" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="165" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="3" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C39" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C40" s="3" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="H40" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C41" s="3" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="H41" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="H42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="174" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="5" t="s">
-        <v>217</v>
+      <c r="G43" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
@@ -2463,293 +2458,301 @@
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>260</v>
-      </c>
+      <c r="G45" s="4"/>
       <c r="H45" s="5" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G47" s="4"/>
+      <c r="H47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G48" s="4"/>
+      <c r="H48" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G49" s="4"/>
+      <c r="H49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G51" s="4"/>
+      <c r="H51" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C59" s="3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H59" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C60" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C61" s="3" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C62" s="3" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
@@ -2760,81 +2763,83 @@
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C63" s="3" t="s">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C64" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C65" s="3" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C66" s="3" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H66" s="5" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C67" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
@@ -2845,13 +2850,13 @@
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C68" s="3" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
@@ -2862,274 +2867,275 @@
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C69" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C70" s="3" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="D70" s="4"/>
-      <c r="E70" s="12" t="s">
-        <v>107</v>
+      <c r="E70" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C71" s="3" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C72" s="3" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="12" t="s">
-        <v>107</v>
+      <c r="E72" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>49</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C73" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>265</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C74" s="3" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C75" s="3" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="D75" s="4"/>
-      <c r="E75" s="4" t="s">
-        <v>73</v>
+      <c r="E75" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>245</v>
-      </c>
+      <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="3" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="3" t="s">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="4" t="s">
-        <v>66</v>
+      <c r="E77" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C78" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G78" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="H78" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C79" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="H80" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C81" s="3" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C82" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C83" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C82" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C83" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -3140,339 +3146,340 @@
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>51</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C85" s="3" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G85" s="4"/>
       <c r="H85" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C86" s="3" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C87" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C87" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C88" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F87" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C88" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C89" s="3" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C90" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C92" s="3" t="s">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C93" s="3" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>52</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>267</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G94" s="4"/>
       <c r="H94" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C95" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G95" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="H95" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C96" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C98" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H98" s="2" t="s">
+      <c r="F98" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E99" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
+      <c r="F99" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C100" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="D100" s="4"/>
+      <c r="E100" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H100" s="2" t="s">
+      <c r="F100" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C101" s="3" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
-        <v>225</v>
+      <c r="G101" s="4"/>
+      <c r="H101" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C102" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C103" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>74</v>
@@ -3481,108 +3488,109 @@
         <v>69</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H104" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C105" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C106" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C105" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
         <v>56</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C111" t="s">
         <v>213</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C108" t="s">
-        <v>211</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>61</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C110" t="s">
-        <v>195</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
-        <v>239</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
@@ -3594,226 +3602,238 @@
         <v>69</v>
       </c>
       <c r="G111" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" t="s">
+        <v>211</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C115" t="s">
+        <v>195</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C116" t="s">
+        <v>239</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C117" t="s">
         <v>105</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="F117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C113" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C118" t="s">
         <v>89</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H113" s="2" t="s">
+      <c r="F118" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C119" t="s">
         <v>108</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H114" s="2" t="s">
+      <c r="F119" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C115" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C120" t="s">
         <v>93</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H115" s="2" t="s">
+      <c r="F120" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C116" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C121" t="s">
         <v>96</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H116" s="2" t="s">
+      <c r="F121" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H121" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C117" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C122" t="s">
         <v>197</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E122" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H117" s="2" t="s">
+      <c r="F122" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H122" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C118" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C123" t="s">
         <v>141</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H118" s="2" t="s">
+      <c r="F123" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C119" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C124" t="s">
         <v>101</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G119" s="1" t="s">
+      <c r="F124" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C125" t="s">
         <v>109</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H120" s="2" t="s">
+      <c r="F125" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C126" t="s">
         <v>110</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C122" t="s">
-        <v>111</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C123" t="s">
-        <v>112</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C124" t="s">
-        <v>113</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C125" t="s">
-        <v>114</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C126" t="s">
-        <v>115</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>94</v>
@@ -3822,12 +3842,12 @@
         <v>78</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>94</v>
@@ -3836,195 +3856,195 @@
         <v>78</v>
       </c>
       <c r="H127" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C128" t="s">
+        <v>112</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C129" t="s">
+        <v>113</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C130" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C131" t="s">
+        <v>115</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C132" t="s">
+        <v>116</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H132" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C128" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C133" t="s">
         <v>100</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G128" s="1" t="s">
+      <c r="F133" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C129" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C134" t="s">
         <v>197</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H129" s="2" t="s">
+      <c r="F134" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H134" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C130" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C135" t="s">
         <v>173</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H130" s="2" t="s">
+      <c r="F135" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C131" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C136" t="s">
         <v>141</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H131" s="2" t="s">
+      <c r="F136" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C132" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C137" t="s">
         <v>142</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H132" s="2" t="s">
+      <c r="F137" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H137" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
         <v>63</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C138" t="s">
         <v>109</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H133" s="2" t="s">
+      <c r="F138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C134" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C139" t="s">
         <v>126</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H134" s="2" t="s">
+      <c r="F139" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H139" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C135" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C140" t="s">
         <v>128</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C136" t="s">
-        <v>129</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C137" t="s">
-        <v>112</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C138" t="s">
-        <v>113</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C139" t="s">
-        <v>114</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C140" t="s">
-        <v>115</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>94</v>
@@ -4033,12 +4053,12 @@
         <v>78</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>94</v>
@@ -4047,156 +4067,141 @@
         <v>78</v>
       </c>
       <c r="H141" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C142" t="s">
+        <v>112</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C143" t="s">
+        <v>113</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C144" t="s">
+        <v>114</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C145" t="s">
+        <v>115</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C146" t="s">
+        <v>116</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H146" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C142" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C147" t="s">
         <v>100</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G142" s="1" t="s">
+      <c r="F147" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="H147" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C143" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C148" t="s">
         <v>197</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H143" s="2" t="s">
+      <c r="F148" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C144" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C149" t="s">
         <v>173</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H144" s="2" t="s">
+      <c r="F149" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C145" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C150" t="s">
         <v>141</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H145" s="2" t="s">
+      <c r="F150" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C146" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C151" t="s">
         <v>142</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>277</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H147" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C148" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H148" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C149" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H149" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C150" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G150" s="1">
-        <v>0</v>
-      </c>
-      <c r="H150" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C151" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>74</v>
@@ -4204,72 +4209,84 @@
       <c r="F151" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H151" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H151" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>276</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C152" s="14" t="s">
-        <v>287</v>
+        <v>277</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>70</v>
+        <v>288</v>
       </c>
       <c r="H152" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C153" s="14" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H153" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C154" s="14" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C155" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H154" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C155" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F155" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C156" s="14" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>74</v>
@@ -4278,112 +4295,185 @@
         <v>78</v>
       </c>
       <c r="H156" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C157" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C158" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C159" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H159" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C160" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C161" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H161" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
         <v>200</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
         <v>202</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
         <v>204</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C169" t="s">
         <v>158</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H164" s="2" t="s">
+      <c r="F169" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H169" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C165" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C170" t="s">
         <v>159</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H165" s="2" t="s">
+      <c r="F170" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H170" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C166" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C171" t="s">
         <v>153</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="E171" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H166" s="2" t="s">
+      <c r="F171" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H171" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C167" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C172" t="s">
         <v>154</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="E172" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H167" s="2" t="s">
+      <c r="F172" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H172" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C168" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C173" t="s">
         <v>161</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H168" s="2" t="s">
+      <c r="F173" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H173" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C174" t="s">
         <v>206</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H169" s="2" t="s">
+      <c r="F174" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H174" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4402,7 +4492,7 @@
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4418,9 +4508,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>117</v>
       </c>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CF2801-7F25-4518-82C1-58DEBF420E51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5997CD83-64EB-44D9-867A-B285E46A5A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="300">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1186,6 +1186,14 @@
   </si>
   <si>
     <t>승인상태(1. 승인요청, 2. 가승인, 3. 승인완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협회그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE_GRP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1677,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K174"/>
+  <dimension ref="A2:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1894,18 +1902,18 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9" t="s">
+      <c r="F14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2018,264 +2026,261 @@
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>83</v>
+      <c r="F21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H22" s="5" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="12" t="s">
-        <v>107</v>
+      <c r="E23" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="F25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C25" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="5" t="s">
-        <v>287</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
-      <c r="C30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>98</v>
+      <c r="C30" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>13</v>
@@ -2288,18 +2293,14 @@
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -2310,36 +2311,42 @@
       <c r="F36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="5" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E37" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="H37" s="5" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
@@ -2348,31 +2355,31 @@
       <c r="F38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>138</v>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="3" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>238</v>
+        <v>69</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C40" s="3" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
@@ -2381,52 +2388,52 @@
       <c r="F40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>232</v>
+      <c r="G40" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C41" s="3" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="174" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
@@ -2436,29 +2443,28 @@
         <v>78</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="174" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="5" t="s">
-        <v>21</v>
+      <c r="G44" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -2466,7 +2472,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
@@ -2477,7 +2483,7 @@
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2485,18 +2491,18 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -2504,18 +2510,18 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="5" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2523,7 +2529,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
@@ -2534,7 +2540,7 @@
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5" t="s">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2542,7 +2548,7 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
@@ -2553,7 +2559,7 @@
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="5" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -2561,20 +2567,18 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>260</v>
-      </c>
+      <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2582,18 +2586,20 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="H51" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2601,37 +2607,41 @@
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
@@ -2641,12 +2651,12 @@
         <v>78</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
@@ -2656,12 +2666,12 @@
         <v>78</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
@@ -2671,192 +2681,190 @@
         <v>78</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="5" t="s">
-        <v>229</v>
+      <c r="H58" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C59" s="3" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>14</v>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C60" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C61" s="3" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C62" s="3" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I62" s="3"/>
+      <c r="H62" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C63" s="3" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C64" s="3" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C65" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C66" s="3" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="5" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C67" s="3" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H67" s="5" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C68" s="3" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
@@ -2867,13 +2875,13 @@
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C69" s="3" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
@@ -2884,30 +2892,30 @@
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C70" s="3" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C71" s="3" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
@@ -2918,30 +2926,30 @@
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C72" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C73" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
@@ -2952,60 +2960,58 @@
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C74" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C75" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D75" s="4"/>
-      <c r="E75" s="12" t="s">
-        <v>107</v>
+      <c r="E75" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
       <c r="C76" s="3" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="D76" s="4"/>
-      <c r="E76" s="4" t="s">
-        <v>74</v>
+      <c r="E76" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="I76" s="3"/>
     </row>
@@ -3013,47 +3019,48 @@
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="12" t="s">
-        <v>107</v>
+      <c r="E77" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C79" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
@@ -3062,48 +3069,50 @@
       <c r="F79" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="H79" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="5" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C81" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="H81" s="5" t="s">
-        <v>81</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C82" s="3" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
@@ -3114,12 +3123,12 @@
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C83" s="3" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
@@ -3130,44 +3139,44 @@
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C85" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C86" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
@@ -3178,30 +3187,28 @@
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C87" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C87" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C88" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8" t="s">
@@ -3211,55 +3218,55 @@
         <v>78</v>
       </c>
       <c r="G88" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C89" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="H89" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C89" s="3" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C90" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G90" s="4"/>
       <c r="H90" s="5" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C91" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
@@ -3268,46 +3275,48 @@
       <c r="F91" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="H91" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C92" s="3" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="5" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C93" s="3" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
@@ -3318,46 +3327,46 @@
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C95" s="3" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>245</v>
-      </c>
+      <c r="G95" s="4"/>
       <c r="H95" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C96" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="H96" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
@@ -3368,52 +3377,50 @@
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>52</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C99" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>267</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G99" s="4"/>
       <c r="H99" s="5" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C100" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
@@ -3422,81 +3429,82 @@
       <c r="F100" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="4"/>
+      <c r="G100" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="H100" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C101" s="3" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="5" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G102" s="4"/>
+      <c r="H102" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C103" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H102" s="2" t="s">
+      <c r="F103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C103" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
         <v>194</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>53</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C105" t="s">
-        <v>179</v>
+      <c r="A105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>74</v>
@@ -3504,175 +3512,172 @@
       <c r="F105" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G105" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="H105" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C106" t="s">
+        <v>179</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C106" s="3" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C107" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4" t="s">
+      <c r="D107" s="4"/>
+      <c r="E107" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H106" s="2" t="s">
+      <c r="F107" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C107" t="s">
-        <v>225</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
+        <v>225</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C109" t="s">
         <v>43</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H108" s="2" t="s">
+      <c r="F109" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
         <v>55</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G109" s="1" t="s">
+      <c r="F110" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C110" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C111" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
         <v>56</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>213</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G111" s="1" t="s">
+      <c r="F112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C112" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C113" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>211</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G113" s="1" t="s">
+      <c r="F114" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C114" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C115" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
         <v>61</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>195</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C116" t="s">
-        <v>239</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
@@ -3684,170 +3689,176 @@
         <v>69</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
-        <v>105</v>
+        <v>239</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>103</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C118" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
-        <v>197</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>141</v>
-      </c>
-      <c r="E123" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
+        <v>141</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C125" t="s">
         <v>101</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G124" s="1" t="s">
+      <c r="F125" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
         <v>62</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>109</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H125" s="2" t="s">
+      <c r="F126" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H126" s="2" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C126" t="s">
-        <v>110</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>94</v>
@@ -3856,12 +3867,12 @@
         <v>78</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>94</v>
@@ -3870,12 +3881,12 @@
         <v>78</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>94</v>
@@ -3884,12 +3895,12 @@
         <v>78</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C130" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>94</v>
@@ -3898,12 +3909,12 @@
         <v>78</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>94</v>
@@ -3912,12 +3923,12 @@
         <v>78</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>94</v>
@@ -3926,139 +3937,139 @@
         <v>78</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C133" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G134" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="H134" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C138" t="s">
         <v>142</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H137" s="2" t="s">
+      <c r="F138" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
         <v>63</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>109</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C139" t="s">
-        <v>126</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>94</v>
@@ -4067,12 +4078,12 @@
         <v>78</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>94</v>
@@ -4081,12 +4092,12 @@
         <v>78</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>94</v>
@@ -4095,12 +4106,12 @@
         <v>78</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>94</v>
@@ -4109,12 +4120,12 @@
         <v>78</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>94</v>
@@ -4123,12 +4134,12 @@
         <v>78</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C146" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>94</v>
@@ -4137,279 +4148,279 @@
         <v>78</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G148" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="H148" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C149" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C150" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
+        <v>141</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C152" t="s">
         <v>142</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>276</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G152" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>276</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H152" s="14" t="s">
+      <c r="H153" s="14" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C153" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H153" s="14" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C154" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H154" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C155" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G155" s="1">
-        <v>0</v>
-      </c>
       <c r="H155" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C156" s="14" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0</v>
       </c>
       <c r="H156" s="14" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C157" s="14" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C158" s="14" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G158" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="H158" s="14" t="s">
-        <v>98</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C159" s="14" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C160" s="14" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C161" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C162" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H161" s="14" t="s">
+      <c r="F162" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H162" s="14" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
+        <v>202</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
         <v>204</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>158</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C170" t="s">
-        <v>159</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>66</v>
@@ -4418,62 +4429,76 @@
         <v>69</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C171" t="s">
-        <v>153</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>253</v>
+        <v>159</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C172" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C173" t="s">
-        <v>161</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>74</v>
+        <v>154</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C174" t="s">
+        <v>161</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C175" t="s">
         <v>206</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H174" s="2" t="s">
+      <c r="F175" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H175" s="2" t="s">
         <v>210</v>
       </c>
     </row>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5997CD83-64EB-44D9-867A-B285E46A5A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75416C68-6A2D-4955-9174-41C81B87B410}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2629,8 +2629,8 @@
         <v>161</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>74</v>
+      <c r="E53" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>78</v>
@@ -3163,8 +3163,8 @@
         <v>182</v>
       </c>
       <c r="D85" s="4"/>
-      <c r="E85" s="4" t="s">
-        <v>74</v>
+      <c r="E85" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>78</v>
@@ -3351,8 +3351,8 @@
         <v>182</v>
       </c>
       <c r="D96" s="4"/>
-      <c r="E96" s="4" t="s">
-        <v>74</v>
+      <c r="E96" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>78</v>
@@ -4478,8 +4478,8 @@
       <c r="C174" t="s">
         <v>161</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>74</v>
+      <c r="E174" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>69</v>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75416C68-6A2D-4955-9174-41C81B87B410}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F358FF9-BC12-44CC-B983-0426C9224069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="314">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1194,6 +1194,54 @@
   </si>
   <si>
     <t>CRE_GRP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_CORP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORP_SEQ</t>
+  </si>
+  <si>
+    <t>PL_MERCHANT_NAME</t>
+  </si>
+  <si>
+    <t>PL_MERCHANT_NO</t>
+  </si>
+  <si>
+    <t>PATH_TYP</t>
+  </si>
+  <si>
+    <t>REG_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>REG_SEQ</t>
+  </si>
+  <si>
+    <t>UPD_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>UPD_SEQ</t>
+  </si>
+  <si>
+    <t>tb_lc_corp_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1685,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K175"/>
+  <dimension ref="A2:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4451,7 +4499,7 @@
         <v>153</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>69</v>
@@ -4500,6 +4548,150 @@
       </c>
       <c r="H175" s="2" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>300</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C176" t="s">
+        <v>302</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H176" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C177" t="s">
+        <v>303</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C178" t="s">
+        <v>304</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C179" t="s">
+        <v>305</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G179" s="1">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C180" t="s">
+        <v>100</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C181" t="s">
+        <v>306</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C182" t="s">
+        <v>307</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C183" t="s">
+        <v>308</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H183" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C184" t="s">
+        <v>309</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H184" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F358FF9-BC12-44CC-B983-0426C9224069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED9EC79-225C-4838-992A-A775F9191EF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
@@ -1736,7 +1736,7 @@
   <dimension ref="A2:K184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H181" sqref="H181"/>
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4646,7 +4646,7 @@
         <v>106</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H181" s="14" t="s">
         <v>98</v>
@@ -4660,7 +4660,7 @@
         <v>74</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H182" s="14" t="s">
         <v>174</v>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED9EC79-225C-4838-992A-A775F9191EF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC9954-9A52-4FF0-B2BA-8B8D9EED18DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="315">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1242,6 +1242,10 @@
   </si>
   <si>
     <t>등록경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가승인사유</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1733,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K184"/>
+  <dimension ref="A2:K185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2017,27 +2021,26 @@
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5" t="s">
-        <v>196</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -2046,309 +2049,306 @@
       <c r="F19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>70</v>
+      <c r="G20" s="4">
+        <v>0</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
-      <c r="C21" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9" t="s">
-        <v>298</v>
+      <c r="F21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="C22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>83</v>
+      <c r="F22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H23" s="5" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="12" t="s">
-        <v>107</v>
+      <c r="E24" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="4"/>
+      <c r="C25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="F26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C26" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C27" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
       <c r="C28" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="5" t="s">
-        <v>287</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
-      <c r="C31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>98</v>
+      <c r="C31" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="F35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -2361,18 +2361,14 @@
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
@@ -2383,36 +2379,42 @@
       <c r="F37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="G37" s="4"/>
       <c r="H37" s="5" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E38" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="H38" s="5" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
@@ -2421,31 +2423,31 @@
       <c r="F39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>138</v>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="3" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>238</v>
+        <v>69</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C41" s="3" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
@@ -2454,52 +2456,52 @@
       <c r="F41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>232</v>
+      <c r="G41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="174" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
@@ -2509,29 +2511,28 @@
         <v>78</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="174" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="5" t="s">
-        <v>21</v>
+      <c r="G45" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2539,7 +2540,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
@@ -2550,7 +2551,7 @@
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -2558,18 +2559,18 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="5" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2577,18 +2578,18 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2596,7 +2597,7 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
@@ -2607,7 +2608,7 @@
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="5" t="s">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -2615,7 +2616,7 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
@@ -2626,7 +2627,7 @@
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2634,20 +2635,18 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>260</v>
-      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="5" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2655,18 +2654,20 @@
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="H52" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2674,37 +2675,41 @@
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="8" t="s">
-        <v>66</v>
+      <c r="E53" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>77</v>
+      <c r="E54" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
@@ -2714,12 +2719,12 @@
         <v>78</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
@@ -2729,12 +2734,12 @@
         <v>78</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
@@ -2744,192 +2749,190 @@
         <v>78</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C59" s="3" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="5" t="s">
-        <v>229</v>
+      <c r="H59" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C60" s="3" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>14</v>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C61" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C62" s="3" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C63" s="3" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I63" s="3"/>
+      <c r="H63" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C64" s="3" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C65" s="3" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C66" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C67" s="3" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="5" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C68" s="3" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H68" s="5" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C69" s="3" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
@@ -2940,13 +2943,13 @@
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C70" s="3" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
@@ -2957,30 +2960,30 @@
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C71" s="3" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C72" s="3" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
@@ -2991,30 +2994,30 @@
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C73" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C74" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
@@ -3025,60 +3028,58 @@
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C75" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C76" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D76" s="4"/>
-      <c r="E76" s="12" t="s">
-        <v>107</v>
+      <c r="E76" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
       <c r="C77" s="3" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="4" t="s">
-        <v>74</v>
+      <c r="E77" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="I77" s="3"/>
     </row>
@@ -3086,47 +3087,48 @@
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D78" s="4"/>
-      <c r="E78" s="12" t="s">
-        <v>107</v>
+      <c r="E78" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>49</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C80" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
@@ -3135,48 +3137,50 @@
       <c r="F80" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="H80" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C81" s="3" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C82" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G82" s="4"/>
+      <c r="G82" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="H82" s="5" t="s">
-        <v>81</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C83" s="3" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
@@ -3187,12 +3191,12 @@
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -3203,15 +3207,15 @@
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C85" s="3" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D85" s="4"/>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F85" s="4" t="s">
@@ -3219,28 +3223,28 @@
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C86" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
-        <v>77</v>
+      <c r="E86" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C87" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
@@ -3251,30 +3255,28 @@
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C88" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C88" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C89" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8" t="s">
@@ -3284,55 +3286,55 @@
         <v>78</v>
       </c>
       <c r="G89" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C90" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H90" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C90" s="3" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C91" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C92" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
@@ -3341,46 +3343,48 @@
       <c r="F92" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="H92" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C93" s="3" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C95" s="3" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
@@ -3391,46 +3395,46 @@
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C96" s="3" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D96" s="4"/>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>245</v>
-      </c>
+      <c r="G96" s="4"/>
       <c r="H96" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="D97" s="4"/>
-      <c r="E97" s="4" t="s">
-        <v>77</v>
+      <c r="E97" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G97" s="4"/>
+      <c r="G97" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="H97" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
@@ -3441,52 +3445,50 @@
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>52</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C100" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>267</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G100" s="4"/>
       <c r="H100" s="5" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C101" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
@@ -3495,81 +3497,82 @@
       <c r="F101" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="H101" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" s="3" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C103" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C104" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H103" s="2" t="s">
+      <c r="F104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C104" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C105" t="s">
         <v>194</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>53</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C106" t="s">
-        <v>179</v>
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>74</v>
@@ -3577,175 +3580,172 @@
       <c r="F106" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G106" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="H106" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>179</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C107" s="3" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C108" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4" t="s">
+      <c r="D108" s="4"/>
+      <c r="E108" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H107" s="2" t="s">
+      <c r="F108" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C108" t="s">
-        <v>225</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C109" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
         <v>43</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H109" s="2" t="s">
+      <c r="F110" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H110" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
         <v>55</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C111" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G110" s="1" t="s">
+      <c r="F111" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C111" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C112" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
         <v>56</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>213</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="F113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C113" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C114" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
         <v>58</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>211</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G114" s="1" t="s">
+      <c r="F115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C115" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C116" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
         <v>61</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>195</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C117" t="s">
-        <v>239</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>13</v>
@@ -3757,170 +3757,176 @@
         <v>69</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C118" t="s">
-        <v>105</v>
+        <v>239</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>103</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>197</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>141</v>
-      </c>
-      <c r="E124" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
+        <v>141</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C126" t="s">
         <v>101</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G125" s="1" t="s">
+      <c r="F126" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
         <v>62</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>109</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H126" s="2" t="s">
+      <c r="F127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H127" s="2" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C127" t="s">
-        <v>110</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>94</v>
@@ -3929,12 +3935,12 @@
         <v>78</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>94</v>
@@ -3943,12 +3949,12 @@
         <v>78</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>94</v>
@@ -3957,12 +3963,12 @@
         <v>78</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>94</v>
@@ -3971,12 +3977,12 @@
         <v>78</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>94</v>
@@ -3985,12 +3991,12 @@
         <v>78</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>94</v>
@@ -3999,139 +4005,139 @@
         <v>78</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G135" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="H135" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
+        <v>141</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C139" t="s">
         <v>142</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H138" s="2" t="s">
+      <c r="F139" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H139" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
         <v>63</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>109</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C140" t="s">
-        <v>126</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>94</v>
@@ -4140,12 +4146,12 @@
         <v>78</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>94</v>
@@ -4154,12 +4160,12 @@
         <v>78</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>94</v>
@@ -4168,12 +4174,12 @@
         <v>78</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>94</v>
@@ -4182,12 +4188,12 @@
         <v>78</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C146" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>94</v>
@@ -4196,12 +4202,12 @@
         <v>78</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>94</v>
@@ -4210,279 +4216,279 @@
         <v>78</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C149" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G149" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="H149" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C150" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
+        <v>141</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C153" t="s">
         <v>142</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>276</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G153" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>276</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H153" s="14" t="s">
+      <c r="H154" s="14" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C154" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H154" s="14" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C155" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C156" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G156" s="1">
-        <v>0</v>
-      </c>
       <c r="H156" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C157" s="14" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C158" s="14" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C159" s="14" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G159" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="H159" s="14" t="s">
-        <v>98</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C160" s="14" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C161" s="14" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C162" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H162" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C163" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H162" s="14" t="s">
+      <c r="F163" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H163" s="14" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
-        <v>200</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
+        <v>202</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
         <v>204</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>158</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C171" t="s">
-        <v>159</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>66</v>
@@ -4491,139 +4497,136 @@
         <v>69</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C172" t="s">
-        <v>153</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>312</v>
+        <v>159</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C173" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C174" t="s">
-        <v>161</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>66</v>
+        <v>154</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C175" t="s">
+        <v>161</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C176" t="s">
         <v>206</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H175" s="2" t="s">
+      <c r="F176" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H176" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
         <v>300</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>302</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G176" s="1" t="s">
+      <c r="F177" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H176" s="14" t="s">
+      <c r="H177" s="14" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="177" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C177" t="s">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C178" t="s">
         <v>303</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H177" s="2" t="s">
+      <c r="F178" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H178" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C178" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C179" t="s">
         <v>304</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H178" s="2" t="s">
+      <c r="F179" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C179" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C180" t="s">
         <v>305</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G179" s="1">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="180" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C180" t="s">
-        <v>100</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>73</v>
@@ -4631,66 +4634,83 @@
       <c r="F180" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G180" s="1">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C181" t="s">
+        <v>100</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H180" s="2" t="s">
+      <c r="H181" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="181" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C181" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C182" t="s">
         <v>306</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H181" s="14" t="s">
+      <c r="F182" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H182" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="182" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C182" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C183" t="s">
         <v>307</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H182" s="14" t="s">
+      <c r="F183" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H183" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="183" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C183" t="s">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C184" t="s">
         <v>308</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H183" s="14" t="s">
+      <c r="F184" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H184" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="184" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C184" t="s">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C185" t="s">
         <v>309</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H184" s="14" t="s">
+      <c r="F185" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H185" s="14" t="s">
         <v>143</v>
       </c>
     </row>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC9954-9A52-4FF0-B2BA-8B8D9EED18DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249EBEDC-59F7-4D1B-AD69-B93DC8B2765D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="314">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,10 +625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PL_REG_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PL_STAT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -897,10 +893,6 @@
   </si>
   <si>
     <t>CORP_FOUND_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOD_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1246,6 +1238,10 @@
   </si>
   <si>
     <t>가승인사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,7 +1300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,6 +1345,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1737,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K185"/>
+  <dimension ref="A2:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1877,7 +1876,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -1888,7 +1887,7 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1902,7 +1901,7 @@
         <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1971,7 +1970,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
@@ -1984,12 +1983,12 @@
         <v>102</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -2000,12 +1999,12 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C17" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -2015,10 +2014,10 @@
         <v>69</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2034,13 +2033,13 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -2051,7 +2050,7 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2095,7 +2094,7 @@
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
@@ -2106,7 +2105,7 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2210,7 +2209,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>78</v>
@@ -2260,7 +2259,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
@@ -2273,14 +2272,14 @@
         <v>70</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>106</v>
@@ -2296,7 +2295,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>74</v>
@@ -2305,7 +2304,7 @@
         <v>69</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -2342,10 +2341,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>132</v>
@@ -2407,7 +2406,7 @@
         <v>150</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -2451,16 +2450,16 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2469,16 +2468,16 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2493,46 +2492,46 @@
         <v>78</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="174" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2540,7 +2539,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
@@ -2559,7 +2558,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
@@ -2578,7 +2577,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
@@ -2589,7 +2588,7 @@
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2597,7 +2596,7 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
@@ -2616,7 +2615,7 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
@@ -2627,7 +2626,7 @@
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2635,7 +2634,7 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
@@ -2658,16 +2657,16 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2675,7 +2674,7 @@
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
@@ -2686,7 +2685,7 @@
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2694,7 +2693,7 @@
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="8" t="s">
@@ -2709,7 +2708,7 @@
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
@@ -2724,7 +2723,7 @@
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
@@ -2739,7 +2738,7 @@
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
@@ -2754,7 +2753,7 @@
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
@@ -2769,7 +2768,7 @@
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C59" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
@@ -2784,7 +2783,7 @@
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C60" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
@@ -2795,7 +2794,7 @@
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.4">
@@ -2804,7 +2803,7 @@
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>78</v>
@@ -2845,7 +2844,7 @@
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C64" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
@@ -2879,11 +2878,11 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C66" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>78</v>
@@ -2896,7 +2895,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C67" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
@@ -2913,7 +2912,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C68" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
@@ -2926,13 +2925,13 @@
         <v>70</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C69" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
@@ -2949,7 +2948,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C70" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
@@ -2966,7 +2965,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C71" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
@@ -3000,7 +2999,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C73" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
@@ -3017,7 +3016,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C74" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
@@ -3028,13 +3027,13 @@
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C75" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
@@ -3045,13 +3044,13 @@
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C76" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
@@ -3062,13 +3061,13 @@
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="12" t="s">
@@ -3125,10 +3124,10 @@
         <v>49</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
@@ -3138,15 +3137,15 @@
         <v>69</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C81" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
@@ -3157,7 +3156,7 @@
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -3172,10 +3171,10 @@
         <v>78</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -3196,7 +3195,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -3207,12 +3206,12 @@
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C85" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
@@ -3228,7 +3227,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C86" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="8" t="s">
@@ -3244,7 +3243,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C87" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
@@ -3260,7 +3259,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C88" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
@@ -3276,7 +3275,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C89" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8" t="s">
@@ -3286,15 +3285,15 @@
         <v>78</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C90" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8" t="s">
@@ -3304,15 +3303,15 @@
         <v>78</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
@@ -3323,7 +3322,7 @@
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -3331,10 +3330,10 @@
         <v>51</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
@@ -3344,15 +3343,15 @@
         <v>69</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C93" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
@@ -3363,7 +3362,7 @@
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
@@ -3379,12 +3378,12 @@
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C95" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
@@ -3400,7 +3399,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C96" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
@@ -3416,7 +3415,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="8" t="s">
@@ -3426,7 +3425,7 @@
         <v>78</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>37</v>
@@ -3434,7 +3433,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
@@ -3450,7 +3449,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
@@ -3466,7 +3465,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C100" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
@@ -3477,7 +3476,7 @@
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -3485,10 +3484,10 @@
         <v>52</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
@@ -3498,15 +3497,15 @@
         <v>69</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
@@ -3517,12 +3516,12 @@
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C103" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
@@ -3538,7 +3537,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C104" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>66</v>
@@ -3552,7 +3551,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>74</v>
@@ -3561,7 +3560,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
@@ -3569,10 +3568,10 @@
         <v>53</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>74</v>
@@ -3581,15 +3580,15 @@
         <v>69</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>74</v>
@@ -3598,16 +3597,16 @@
         <v>69</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C108" s="3" t="s">
-        <v>155</v>
+      <c r="C108" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>78</v>
@@ -3617,22 +3616,22 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C109" t="s">
-        <v>225</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>54</v>
+      <c r="C109" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C110" t="s">
-        <v>43</v>
+      <c r="C110" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>75</v>
@@ -3645,127 +3644,121 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
+      <c r="C111" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
         <v>55</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C114" t="s">
+        <v>212</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C112" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>56</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="F114" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C113" t="s">
-        <v>213</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="C116" t="s">
+        <v>210</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C114" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>58</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="F116" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C115" t="s">
-        <v>211</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C116" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>61</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C117" t="s">
-        <v>195</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C118" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>13</v>
@@ -3777,170 +3770,176 @@
         <v>69</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>105</v>
+        <v>237</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C120" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>197</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>141</v>
-      </c>
-      <c r="E125" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
+        <v>141</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C127" t="s">
         <v>101</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G126" s="1" t="s">
+      <c r="F127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
         <v>62</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" t="s">
         <v>109</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H127" s="2" t="s">
+      <c r="F128" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H128" s="2" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C128" t="s">
-        <v>110</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>94</v>
@@ -3949,12 +3948,12 @@
         <v>78</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C130" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>94</v>
@@ -3963,12 +3962,12 @@
         <v>78</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>94</v>
@@ -3977,12 +3976,12 @@
         <v>78</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>94</v>
@@ -3991,12 +3990,12 @@
         <v>78</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>94</v>
@@ -4005,12 +4004,12 @@
         <v>78</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>94</v>
@@ -4019,139 +4018,139 @@
         <v>78</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G136" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="H136" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
+        <v>141</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C140" t="s">
         <v>142</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H139" s="2" t="s">
+      <c r="F140" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H140" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
         <v>63</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B141" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C141" t="s">
         <v>109</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C141" t="s">
-        <v>126</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>94</v>
@@ -4160,12 +4159,12 @@
         <v>78</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>94</v>
@@ -4174,12 +4173,12 @@
         <v>78</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>94</v>
@@ -4188,12 +4187,12 @@
         <v>78</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C146" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>94</v>
@@ -4202,12 +4201,12 @@
         <v>78</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>94</v>
@@ -4216,12 +4215,12 @@
         <v>78</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>94</v>
@@ -4230,279 +4229,279 @@
         <v>78</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C149" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C150" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G150" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="H150" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C153" t="s">
+        <v>141</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C154" t="s">
         <v>142</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>276</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H154" s="14" t="s">
-        <v>278</v>
+        <v>78</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="C155" s="14" t="s">
-        <v>282</v>
+        <v>275</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G155" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="H155" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C156" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H156" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C157" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G157" s="1">
-        <v>0</v>
-      </c>
       <c r="H157" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C158" s="14" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C159" s="14" t="s">
-        <v>286</v>
+        <v>193</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C160" s="14" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G160" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="H160" s="14" t="s">
-        <v>98</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C161" s="14" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C162" s="14" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C163" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H163" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C164" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H163" s="14" t="s">
+      <c r="F164" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H164" s="14" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
-        <v>200</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
+        <v>201</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>203</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C171" t="s">
-        <v>158</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C172" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>66</v>
@@ -4511,139 +4510,136 @@
         <v>69</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C173" t="s">
-        <v>153</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>312</v>
+        <v>158</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C174" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C175" t="s">
-        <v>161</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>66</v>
+        <v>154</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C176" t="s">
-        <v>206</v>
-      </c>
-      <c r="E176" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C177" t="s">
+        <v>205</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
+      <c r="F177" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>298</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C178" t="s">
         <v>300</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C177" t="s">
-        <v>302</v>
-      </c>
-      <c r="D177" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H177" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C178" t="s">
-        <v>303</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F178" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H178" s="2" t="s">
-        <v>24</v>
+      <c r="G178" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H178" s="14" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C179" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C180" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G180" s="1">
-        <v>1</v>
-      </c>
       <c r="H180" s="2" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C181" t="s">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>73</v>
@@ -4651,66 +4647,83 @@
       <c r="F181" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>102</v>
+      <c r="G181" s="1">
+        <v>1</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C182" t="s">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H182" s="14" t="s">
-        <v>98</v>
+        <v>69</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C183" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H183" s="14" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C184" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H184" s="14" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C185" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H185" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C186" t="s">
+        <v>307</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H185" s="14" t="s">
+      <c r="F186" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H186" s="14" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4758,7 +4771,7 @@
         <v>119</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249EBEDC-59F7-4D1B-AD69-B93DC8B2765D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E904A586-1AB8-40AF-8D4F-D53F82F1AAF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,10 +755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모집인단계이력시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_LC_MAS01_HIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1242,6 +1238,10 @@
   </si>
   <si>
     <t>처리상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계이력시퀀스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1901,7 +1901,7 @@
         <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1970,7 +1970,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
@@ -1983,12 +1983,12 @@
         <v>102</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C17" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -2014,10 +2014,10 @@
         <v>69</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2033,13 +2033,13 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2094,7 +2094,7 @@
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2259,7 +2259,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
@@ -2272,14 +2272,14 @@
         <v>70</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>106</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>132</v>
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2468,16 +2468,16 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2492,28 +2492,28 @@
         <v>78</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="174" x14ac:dyDescent="0.4">
@@ -2522,16 +2522,16 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G45" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2657,16 +2657,16 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
@@ -2723,7 +2723,7 @@
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
@@ -2738,7 +2738,7 @@
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
@@ -2783,7 +2783,7 @@
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C60" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.4">
@@ -2844,7 +2844,7 @@
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C64" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>78</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C68" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
@@ -2925,7 +2925,7 @@
         <v>70</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I68" s="3"/>
     </row>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C70" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
@@ -3050,7 +3050,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C76" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
@@ -3061,13 +3061,13 @@
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="12" t="s">
@@ -3137,7 +3137,7 @@
         <v>69</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>176</v>
@@ -3171,10 +3171,10 @@
         <v>78</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -3195,7 +3195,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -3243,7 +3243,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C87" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
@@ -3259,7 +3259,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C88" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
@@ -3275,7 +3275,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C89" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8" t="s">
@@ -3285,15 +3285,15 @@
         <v>78</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C90" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8" t="s">
@@ -3303,15 +3303,15 @@
         <v>78</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -3343,7 +3343,7 @@
         <v>69</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>175</v>
@@ -3378,12 +3378,12 @@
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C95" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
@@ -3425,7 +3425,7 @@
         <v>78</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>37</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
@@ -3449,7 +3449,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
@@ -3465,7 +3465,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C100" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -3497,7 +3497,7 @@
         <v>69</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>185</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C103" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
@@ -3551,7 +3551,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>74</v>
@@ -3560,7 +3560,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
@@ -3571,7 +3571,7 @@
         <v>187</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>74</v>
@@ -3580,10 +3580,10 @@
         <v>69</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>188</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
@@ -3602,11 +3602,11 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C108" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>78</v>
@@ -3620,13 +3620,13 @@
         <v>155</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
@@ -3662,10 +3662,10 @@
         <v>55</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -3677,10 +3677,10 @@
         <v>69</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
@@ -3693,10 +3693,10 @@
         <v>56</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>13</v>
@@ -3708,10 +3708,10 @@
         <v>69</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
@@ -3724,10 +3724,10 @@
         <v>58</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C116" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
@@ -3739,10 +3739,10 @@
         <v>69</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
@@ -3755,10 +3755,10 @@
         <v>61</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C118" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>13</v>
@@ -3770,15 +3770,15 @@
         <v>69</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>13</v>
@@ -3790,10 +3790,10 @@
         <v>69</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
@@ -3871,7 +3871,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>107</v>
@@ -3919,7 +3919,7 @@
         <v>62</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C128" t="s">
         <v>109</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>106</v>
@@ -4113,7 +4113,7 @@
         <v>63</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C141" t="s">
         <v>109</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>106</v>
@@ -4321,13 +4321,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
+        <v>273</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C155" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>275</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>13</v>
@@ -4339,15 +4339,15 @@
         <v>69</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C156" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>67</v>
@@ -4356,26 +4356,26 @@
         <v>69</v>
       </c>
       <c r="H156" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C157" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C158" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>74</v>
@@ -4387,12 +4387,12 @@
         <v>0</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C159" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>74</v>
@@ -4401,12 +4401,12 @@
         <v>78</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C160" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>73</v>
@@ -4418,12 +4418,12 @@
         <v>70</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C161" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>106</v>
@@ -4479,26 +4479,26 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
+        <v>198</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
+        <v>200</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
+        <v>202</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C172" t="s">
         <v>157</v>
@@ -4532,13 +4532,13 @@
         <v>153</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
@@ -4552,7 +4552,7 @@
         <v>69</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
@@ -4566,12 +4566,12 @@
         <v>69</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C177" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>77</v>
@@ -4580,18 +4580,18 @@
         <v>69</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
+        <v>297</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" t="s">
         <v>299</v>
-      </c>
-      <c r="C178" t="s">
-        <v>300</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>13</v>
@@ -4603,15 +4603,15 @@
         <v>69</v>
       </c>
       <c r="G178" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H178" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="H178" s="14" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C179" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>72</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C180" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>180</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C181" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>73</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.4">
@@ -4673,7 +4673,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C183" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>106</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C184" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>74</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C185" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>106</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C186" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>74</v>
@@ -4771,7 +4771,7 @@
         <v>119</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249EBEDC-59F7-4D1B-AD69-B93DC8B2765D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04019360-0CA3-4DDE-B2EC-B5F2E24054E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="321">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1244,12 +1244,40 @@
     <t>처리상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>위반이력정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIOLATION_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위반이력정보시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_VIOLATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIOLATION_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위반이력코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_lc_violation_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,6 +1292,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1300,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1348,6 +1382,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1736,13 +1773,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K186"/>
+  <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -1754,7 +1791,7 @@
     <col min="8" max="8" width="39" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -1778,7 +1815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1804,7 +1841,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="C4" t="s">
         <v>135</v>
       </c>
@@ -1818,7 +1855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="C6" t="s">
         <v>136</v>
       </c>
@@ -1846,7 +1883,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="C7" t="s">
         <v>140</v>
       </c>
@@ -1860,7 +1897,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -1874,7 +1911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="C9" s="3" t="s">
         <v>256</v>
       </c>
@@ -1890,7 +1927,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -1904,7 +1941,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1920,7 +1957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1936,7 +1973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1952,7 +1989,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="C14" s="3" t="s">
         <v>79</v>
       </c>
@@ -1968,7 +2005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="C15" s="3" t="s">
         <v>259</v>
       </c>
@@ -1986,7 +2023,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="C16" s="3" t="s">
         <v>262</v>
       </c>
@@ -2002,7 +2039,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="C17" s="3" t="s">
         <v>268</v>
       </c>
@@ -2020,7 +2057,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
@@ -2036,7 +2073,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>194</v>
@@ -2053,7 +2090,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="3" customFormat="1">
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
         <v>64</v>
@@ -2072,7 +2109,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
         <v>86</v>
@@ -2091,7 +2128,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="3" customFormat="1">
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
         <v>297</v>
@@ -2108,7 +2145,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
         <v>82</v>
@@ -2127,7 +2164,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" s="3" customFormat="1">
       <c r="B24" s="4"/>
       <c r="C24" s="3" t="s">
         <v>142</v>
@@ -2144,7 +2181,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
         <v>141</v>
@@ -2161,7 +2198,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2187,7 +2224,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8">
       <c r="C27" s="3" t="s">
         <v>146</v>
       </c>
@@ -2203,7 +2240,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8">
       <c r="C28" s="3" t="s">
         <v>147</v>
       </c>
@@ -2219,7 +2256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
@@ -2237,7 +2274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3" t="s">
@@ -2255,7 +2292,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
@@ -2275,7 +2312,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
@@ -2291,7 +2328,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" t="s">
@@ -2307,7 +2344,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
@@ -2323,7 +2360,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
@@ -2339,7 +2376,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11">
       <c r="A36" s="3" t="s">
         <v>248</v>
       </c>
@@ -2363,7 +2400,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3" t="s">
@@ -2383,7 +2420,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -2409,7 +2446,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3" t="s">
@@ -2427,7 +2464,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3" t="s">
@@ -2444,7 +2481,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11">
       <c r="C41" s="3" t="s">
         <v>153</v>
       </c>
@@ -2462,7 +2499,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11">
       <c r="C42" s="3" t="s">
         <v>50</v>
       </c>
@@ -2480,7 +2517,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11">
       <c r="C43" s="3" t="s">
         <v>154</v>
       </c>
@@ -2498,7 +2535,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11">
       <c r="C44" s="3" t="s">
         <v>225</v>
       </c>
@@ -2516,7 +2553,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="174" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="174">
       <c r="C45" s="3" t="s">
         <v>155</v>
       </c>
@@ -2537,7 +2574,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11">
       <c r="C46" s="3" t="s">
         <v>156</v>
       </c>
@@ -2556,7 +2593,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11">
       <c r="C47" s="3" t="s">
         <v>157</v>
       </c>
@@ -2575,7 +2612,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11">
       <c r="C48" s="3" t="s">
         <v>253</v>
       </c>
@@ -2594,7 +2631,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:11">
       <c r="C49" s="3" t="s">
         <v>158</v>
       </c>
@@ -2613,7 +2650,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:11">
       <c r="C50" s="3" t="s">
         <v>215</v>
       </c>
@@ -2632,7 +2669,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:11">
       <c r="C51" s="3" t="s">
         <v>159</v>
       </c>
@@ -2651,7 +2688,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:11">
       <c r="C52" s="3" t="s">
         <v>38</v>
       </c>
@@ -2672,7 +2709,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:11">
       <c r="C53" s="3" t="s">
         <v>240</v>
       </c>
@@ -2691,7 +2728,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:11">
       <c r="C54" s="3" t="s">
         <v>160</v>
       </c>
@@ -2706,7 +2743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:11">
       <c r="C55" s="3" t="s">
         <v>220</v>
       </c>
@@ -2721,7 +2758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:11">
       <c r="C56" s="3" t="s">
         <v>221</v>
       </c>
@@ -2736,7 +2773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:11">
       <c r="C57" s="3" t="s">
         <v>222</v>
       </c>
@@ -2751,7 +2788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:11">
       <c r="C58" s="3" t="s">
         <v>161</v>
       </c>
@@ -2766,7 +2803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:11">
       <c r="C59" s="3" t="s">
         <v>162</v>
       </c>
@@ -2781,7 +2818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:11">
       <c r="C60" s="3" t="s">
         <v>228</v>
       </c>
@@ -2797,7 +2834,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:11">
       <c r="C61" s="3" t="s">
         <v>147</v>
       </c>
@@ -2812,7 +2849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:11">
       <c r="C62" s="3" t="s">
         <v>148</v>
       </c>
@@ -2827,7 +2864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:11">
       <c r="C63" s="3" t="s">
         <v>35</v>
       </c>
@@ -2842,7 +2879,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:11">
       <c r="C64" s="3" t="s">
         <v>223</v>
       </c>
@@ -2859,7 +2896,7 @@
       </c>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9">
       <c r="C65" s="3" t="s">
         <v>47</v>
       </c>
@@ -2876,7 +2913,7 @@
       </c>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9">
       <c r="C66" s="3" t="s">
         <v>163</v>
       </c>
@@ -2893,7 +2930,7 @@
       </c>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9">
       <c r="C67" s="3" t="s">
         <v>164</v>
       </c>
@@ -2910,7 +2947,7 @@
       </c>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9">
       <c r="C68" s="3" t="s">
         <v>247</v>
       </c>
@@ -2929,7 +2966,7 @@
       </c>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9">
       <c r="C69" s="3" t="s">
         <v>165</v>
       </c>
@@ -2946,7 +2983,7 @@
       </c>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9">
       <c r="C70" s="3" t="s">
         <v>224</v>
       </c>
@@ -2963,7 +3000,7 @@
       </c>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9">
       <c r="C71" s="3" t="s">
         <v>166</v>
       </c>
@@ -2980,7 +3017,7 @@
       </c>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9">
       <c r="C72" s="3" t="s">
         <v>44</v>
       </c>
@@ -2997,7 +3034,7 @@
       </c>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9">
       <c r="C73" s="3" t="s">
         <v>167</v>
       </c>
@@ -3014,7 +3051,7 @@
       </c>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9">
       <c r="C74" s="3" t="s">
         <v>168</v>
       </c>
@@ -3031,7 +3068,7 @@
       </c>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9">
       <c r="C75" s="3" t="s">
         <v>169</v>
       </c>
@@ -3048,7 +3085,7 @@
       </c>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9">
       <c r="C76" s="3" t="s">
         <v>193</v>
       </c>
@@ -3065,7 +3102,7 @@
       </c>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9">
       <c r="C77" s="3" t="s">
         <v>196</v>
       </c>
@@ -3082,7 +3119,7 @@
       </c>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="3" t="s">
@@ -3101,7 +3138,7 @@
       </c>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="3" t="s">
@@ -3119,7 +3156,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>49</v>
       </c>
@@ -3143,7 +3180,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8">
       <c r="C81" s="3" t="s">
         <v>178</v>
       </c>
@@ -3159,7 +3196,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8">
       <c r="C82" s="3" t="s">
         <v>50</v>
       </c>
@@ -3177,7 +3214,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8">
       <c r="C83" s="3" t="s">
         <v>9</v>
       </c>
@@ -3193,7 +3230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8">
       <c r="C84" s="3" t="s">
         <v>229</v>
       </c>
@@ -3209,7 +3246,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8">
       <c r="C85" s="3" t="s">
         <v>158</v>
       </c>
@@ -3225,7 +3262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8">
       <c r="C86" s="3" t="s">
         <v>181</v>
       </c>
@@ -3241,7 +3278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8">
       <c r="C87" s="3" t="s">
         <v>219</v>
       </c>
@@ -3257,7 +3294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8">
       <c r="C88" s="3" t="s">
         <v>221</v>
       </c>
@@ -3273,7 +3310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8">
       <c r="C89" s="7" t="s">
         <v>289</v>
       </c>
@@ -3291,7 +3328,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8">
       <c r="C90" s="7" t="s">
         <v>290</v>
       </c>
@@ -3309,7 +3346,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8">
       <c r="C91" s="3" t="s">
         <v>193</v>
       </c>
@@ -3325,7 +3362,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -3349,7 +3386,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8">
       <c r="C93" s="3" t="s">
         <v>178</v>
       </c>
@@ -3365,7 +3402,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8">
       <c r="C94" s="3" t="s">
         <v>50</v>
       </c>
@@ -3381,7 +3418,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8">
       <c r="C95" s="3" t="s">
         <v>232</v>
       </c>
@@ -3397,7 +3434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8">
       <c r="C96" s="3" t="s">
         <v>158</v>
       </c>
@@ -3413,7 +3450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8">
       <c r="C97" s="3" t="s">
         <v>181</v>
       </c>
@@ -3431,7 +3468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8">
       <c r="C98" s="3" t="s">
         <v>219</v>
       </c>
@@ -3447,7 +3484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8">
       <c r="C99" s="3" t="s">
         <v>221</v>
       </c>
@@ -3463,7 +3500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8">
       <c r="C100" s="3" t="s">
         <v>193</v>
       </c>
@@ -3479,7 +3516,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>52</v>
       </c>
@@ -3503,7 +3540,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8">
       <c r="C102" s="3" t="s">
         <v>178</v>
       </c>
@@ -3519,7 +3556,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8">
       <c r="C103" s="3" t="s">
         <v>233</v>
       </c>
@@ -3535,7 +3572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8">
       <c r="C104" s="3" t="s">
         <v>158</v>
       </c>
@@ -3549,7 +3586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8">
       <c r="C105" t="s">
         <v>193</v>
       </c>
@@ -3563,7 +3600,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>53</v>
       </c>
@@ -3586,7 +3623,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8">
       <c r="C107" t="s">
         <v>178</v>
       </c>
@@ -3600,7 +3637,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8">
       <c r="C108" s="7" t="s">
         <v>225</v>
       </c>
@@ -3615,7 +3652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8">
       <c r="C109" s="7" t="s">
         <v>155</v>
       </c>
@@ -3629,7 +3666,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8">
       <c r="C110" s="7" t="s">
         <v>44</v>
       </c>
@@ -3643,7 +3680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8">
       <c r="C111" s="7" t="s">
         <v>141</v>
       </c>
@@ -3657,7 +3694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>55</v>
       </c>
@@ -3683,12 +3720,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8">
       <c r="C113" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>56</v>
       </c>
@@ -3714,12 +3751,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8">
       <c r="C115" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -3745,12 +3782,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8">
       <c r="C117" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -3776,7 +3813,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8">
       <c r="C119" t="s">
         <v>237</v>
       </c>
@@ -3796,7 +3833,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8">
       <c r="C120" t="s">
         <v>105</v>
       </c>
@@ -3813,7 +3850,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8">
       <c r="C121" t="s">
         <v>89</v>
       </c>
@@ -3827,7 +3864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8">
       <c r="C122" t="s">
         <v>108</v>
       </c>
@@ -3841,7 +3878,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8">
       <c r="C123" t="s">
         <v>93</v>
       </c>
@@ -3855,7 +3892,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8">
       <c r="C124" t="s">
         <v>96</v>
       </c>
@@ -3869,7 +3906,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8">
       <c r="C125" t="s">
         <v>196</v>
       </c>
@@ -3883,7 +3920,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8">
       <c r="C126" t="s">
         <v>141</v>
       </c>
@@ -3897,7 +3934,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8">
       <c r="C127" t="s">
         <v>101</v>
       </c>
@@ -3914,7 +3951,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>62</v>
       </c>
@@ -3937,7 +3974,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8">
       <c r="C129" t="s">
         <v>110</v>
       </c>
@@ -3951,7 +3988,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8">
       <c r="C130" t="s">
         <v>111</v>
       </c>
@@ -3965,7 +4002,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8">
       <c r="C131" t="s">
         <v>112</v>
       </c>
@@ -3979,7 +4016,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8">
       <c r="C132" t="s">
         <v>113</v>
       </c>
@@ -3993,7 +4030,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8">
       <c r="C133" t="s">
         <v>114</v>
       </c>
@@ -4007,7 +4044,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8">
       <c r="C134" t="s">
         <v>115</v>
       </c>
@@ -4021,7 +4058,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8">
       <c r="C135" t="s">
         <v>116</v>
       </c>
@@ -4035,7 +4072,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8">
       <c r="C136" t="s">
         <v>100</v>
       </c>
@@ -4052,7 +4089,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8">
       <c r="C137" t="s">
         <v>196</v>
       </c>
@@ -4066,7 +4103,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8">
       <c r="C138" t="s">
         <v>172</v>
       </c>
@@ -4080,7 +4117,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8">
       <c r="C139" t="s">
         <v>141</v>
       </c>
@@ -4094,7 +4131,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8">
       <c r="C140" t="s">
         <v>142</v>
       </c>
@@ -4108,7 +4145,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>63</v>
       </c>
@@ -4131,7 +4168,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8">
       <c r="C142" t="s">
         <v>126</v>
       </c>
@@ -4148,7 +4185,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8">
       <c r="C143" t="s">
         <v>128</v>
       </c>
@@ -4162,7 +4199,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8">
       <c r="C144" t="s">
         <v>129</v>
       </c>
@@ -4176,7 +4213,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8">
       <c r="C145" t="s">
         <v>112</v>
       </c>
@@ -4190,7 +4227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8">
       <c r="C146" t="s">
         <v>113</v>
       </c>
@@ -4204,7 +4241,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8">
       <c r="C147" t="s">
         <v>114</v>
       </c>
@@ -4218,7 +4255,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8">
       <c r="C148" t="s">
         <v>115</v>
       </c>
@@ -4232,7 +4269,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8">
       <c r="C149" t="s">
         <v>116</v>
       </c>
@@ -4246,7 +4283,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8">
       <c r="C150" t="s">
         <v>100</v>
       </c>
@@ -4263,7 +4300,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8">
       <c r="C151" t="s">
         <v>196</v>
       </c>
@@ -4277,7 +4314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8">
       <c r="C152" t="s">
         <v>172</v>
       </c>
@@ -4291,7 +4328,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:8">
       <c r="C153" t="s">
         <v>141</v>
       </c>
@@ -4305,7 +4342,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8">
       <c r="C154" t="s">
         <v>142</v>
       </c>
@@ -4319,7 +4356,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>274</v>
       </c>
@@ -4345,7 +4382,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8">
       <c r="C156" s="14" t="s">
         <v>280</v>
       </c>
@@ -4359,7 +4396,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8">
       <c r="C157" s="14" t="s">
         <v>281</v>
       </c>
@@ -4373,7 +4410,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:8">
       <c r="C158" s="14" t="s">
         <v>282</v>
       </c>
@@ -4390,7 +4427,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8">
       <c r="C159" s="14" t="s">
         <v>193</v>
       </c>
@@ -4404,7 +4441,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8">
       <c r="C160" s="14" t="s">
         <v>284</v>
       </c>
@@ -4421,7 +4458,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:8">
       <c r="C161" s="14" t="s">
         <v>196</v>
       </c>
@@ -4435,7 +4472,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8">
       <c r="C162" s="14" t="s">
         <v>172</v>
       </c>
@@ -4449,7 +4486,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:8">
       <c r="C163" s="14" t="s">
         <v>141</v>
       </c>
@@ -4463,7 +4500,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8">
       <c r="C164" s="14" t="s">
         <v>142</v>
       </c>
@@ -4477,7 +4514,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>199</v>
       </c>
@@ -4485,7 +4522,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>201</v>
       </c>
@@ -4493,7 +4530,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>203</v>
       </c>
@@ -4513,7 +4550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8">
       <c r="C173" t="s">
         <v>158</v>
       </c>
@@ -4527,7 +4564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8">
       <c r="C174" t="s">
         <v>153</v>
       </c>
@@ -4541,7 +4578,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8">
       <c r="C175" t="s">
         <v>154</v>
       </c>
@@ -4555,7 +4592,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:8">
       <c r="C176" t="s">
         <v>160</v>
       </c>
@@ -4569,7 +4606,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:8">
       <c r="C177" t="s">
         <v>205</v>
       </c>
@@ -4583,7 +4620,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>298</v>
       </c>
@@ -4609,7 +4646,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8">
       <c r="C179" t="s">
         <v>301</v>
       </c>
@@ -4623,7 +4660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8">
       <c r="C180" t="s">
         <v>302</v>
       </c>
@@ -4637,7 +4674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8">
       <c r="C181" t="s">
         <v>303</v>
       </c>
@@ -4654,7 +4691,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8">
       <c r="C182" t="s">
         <v>100</v>
       </c>
@@ -4671,7 +4708,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8">
       <c r="C183" t="s">
         <v>304</v>
       </c>
@@ -4685,7 +4722,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8">
       <c r="C184" t="s">
         <v>305</v>
       </c>
@@ -4699,7 +4736,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8">
       <c r="C185" t="s">
         <v>306</v>
       </c>
@@ -4713,7 +4750,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:8">
       <c r="C186" t="s">
         <v>307</v>
       </c>
@@ -4726,6 +4763,97 @@
       <c r="H186" s="14" t="s">
         <v>143</v>
       </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>314</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="C188" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G188" s="8"/>
+      <c r="H188" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="C189" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G189" s="8"/>
+      <c r="H189" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="C190" t="s">
+        <v>304</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H190" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="C191" t="s">
+        <v>305</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H191" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" ht="21">
+      <c r="C195" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4742,7 +4870,7 @@
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4758,9 +4886,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7">
       <c r="B2" s="11" t="s">
         <v>117</v>
       </c>
@@ -4779,5 +4907,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04019360-0CA3-4DDE-B2EC-B5F2E24054E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA85D33-8AE1-40ED-8C46-D953A7E1BF5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="327">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해지사유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MSG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,6 +621,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PL_REG_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PL_STAT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -896,6 +896,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MOD_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CRE_LICENSE_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1061,27 +1065,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">처리상태
-		1. 미요청
-		2. 승인요청
-		3. 변경요청
-		4. 취소
-		5. 해지요청
-		6. 변경요청(보완)
-		7. 해지요청(보완)
-		8. 완료
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>APPR_STAT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모집인상태(1.승인완료,2.해지완료,3.자격취득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tb_lc_mas01_step_seq</t>
   </si>
   <si>
@@ -1189,6 +1176,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>OPTION_TERMS_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTION_TERMS_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택적약관동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택적약관동의일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해지사유코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접입력(사유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_HIST_TXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가승인사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>법인정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1200,6 +1227,14 @@
     <t>CORP_SEQ</t>
   </si>
   <si>
+    <t>tb_lc_corp_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PL_MERCHANT_NAME</t>
   </si>
   <si>
@@ -1209,6 +1244,10 @@
     <t>PATH_TYP</t>
   </si>
   <si>
+    <t>등록경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>REG_TIMESTAMP</t>
   </si>
   <si>
@@ -1221,55 +1260,31 @@
     <t>UPD_SEQ</t>
   </si>
   <si>
-    <t>tb_lc_corp_seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>법인시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가승인사유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처리상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위반이력정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TB_LC_VIOLATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VIOLATION_SEQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tb_lc_violation_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>위반이력정보시퀀스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_LC_VIOLATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VIOLATION_CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>위반이력코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_lc_violation_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,7 +1292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,12 +1307,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <color rgb="FF202124"/>
-      <name val="Inherit"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1334,7 +1343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1378,12 +1387,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1773,13 +1776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K195"/>
+  <dimension ref="A2:K193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -1791,7 +1794,7 @@
     <col min="8" max="8" width="39" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -1806,7 +1809,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
@@ -1815,3045 +1818,3077 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="C17" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
-      <c r="B19" s="4"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C19" s="3" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1">
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+      <c r="F20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
-      <c r="C22" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
+      <c r="F22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
-      <c r="C24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
+      <c r="C24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>149</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>72</v>
+      <c r="E27" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E28" s="4" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="H28" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G31" s="4"/>
       <c r="H31" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
-      <c r="C32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
-      <c r="C33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="C33" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="H33" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="C37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>150</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E39" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="3" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>77</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="174">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11">
+        <v>245</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="H46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="5" t="s">
-        <v>25</v>
+        <v>77</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>252</v>
+        <v>65</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>258</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="5" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="8" t="s">
-        <v>66</v>
+      <c r="E54" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
-        <v>77</v>
+      <c r="E56" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="3:11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C59" s="3" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C60" s="3" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C61" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C62" s="3" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C63" s="3" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="3:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C64" s="3" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C65" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C66" s="3" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C67" s="3" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C68" s="3" t="s">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G68" s="4"/>
       <c r="H68" s="5" t="s">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C69" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C70" s="3" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H70" s="5" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C71" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C72" s="3" t="s">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C73" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C74" s="3" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C75" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9">
-      <c r="C76" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4" t="s">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C76" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="5" t="s">
-        <v>195</v>
+      <c r="F76" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="12" t="s">
-        <v>107</v>
+      <c r="E77" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="3"/>
-      <c r="B78" s="4"/>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C78" s="3" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C79" s="3" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="D79" s="4"/>
-      <c r="E79" s="12" t="s">
-        <v>107</v>
+      <c r="E79" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D80" s="4"/>
-      <c r="E80" s="4" t="s">
-        <v>74</v>
+      <c r="E80" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>263</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="3" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="3" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D82" s="4"/>
-      <c r="E82" s="4" t="s">
-        <v>73</v>
+      <c r="E82" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>243</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="C83" s="3" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G83" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="H83" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C85" s="3" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G85" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="H85" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C86" s="3" t="s">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="8" t="s">
-        <v>66</v>
+      <c r="E86" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C87" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C88" s="3" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="C89" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D89" s="8"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C89" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="4"/>
       <c r="E89" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="C90" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C90" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>51</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="C93" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C92" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C93" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C95" s="3" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G95" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="H95" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C96" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="D97" s="4"/>
-      <c r="E97" s="8" t="s">
-        <v>66</v>
+      <c r="E97" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>243</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G97" s="4"/>
       <c r="H97" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" s="3" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" s="3" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C100" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D100" s="4"/>
-      <c r="E100" s="4" t="s">
-        <v>74</v>
+      <c r="E100" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G100" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="H100" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>52</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C101" s="3" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>265</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G101" s="4"/>
       <c r="H101" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" s="3" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C103" s="3" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C105" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C106" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="C104" s="3" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C107" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H104" s="2" t="s">
+      <c r="E107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="C105" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
         <v>193</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
+        <v>178</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C111" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C112" t="s">
+        <v>224</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C113" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>53</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C106" s="7" t="s">
+      <c r="F113" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="C107" t="s">
-        <v>178</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="C108" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="C109" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="C110" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="C111" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>55</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="C113" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>56</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" t="s">
-        <v>212</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C116" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>218</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C118" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G118" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" t="s">
+        <v>194</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
-      <c r="C119" t="s">
-        <v>237</v>
-      </c>
-      <c r="D119" s="1" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="C120" t="s">
+      <c r="E121" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C122" t="s">
+        <v>104</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C123" t="s">
+        <v>88</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C124" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C125" t="s">
+        <v>92</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C126" t="s">
+        <v>95</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C127" t="s">
+        <v>196</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C128" t="s">
+        <v>140</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C129" t="s">
+        <v>100</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>61</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C131" t="s">
+        <v>109</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C132" t="s">
+        <v>110</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C133" t="s">
+        <v>111</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C134" t="s">
+        <v>112</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C135" t="s">
+        <v>113</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C136" t="s">
+        <v>114</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C137" t="s">
+        <v>115</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C138" t="s">
+        <v>99</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C139" t="s">
+        <v>196</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="C121" t="s">
-        <v>89</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="C122" t="s">
+      <c r="F139" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C140" t="s">
+        <v>172</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C141" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C142" t="s">
+        <v>141</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>62</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C143" t="s">
         <v>108</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="C123" t="s">
+      <c r="D143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C144" t="s">
+        <v>125</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C145" t="s">
+        <v>127</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="C124" t="s">
-        <v>96</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H124" s="2" t="s">
+      <c r="F145" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C146" t="s">
+        <v>128</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C147" t="s">
+        <v>111</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C148" t="s">
+        <v>112</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C149" t="s">
+        <v>113</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C150" t="s">
+        <v>114</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C151" t="s">
+        <v>115</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C152" t="s">
+        <v>99</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C153" t="s">
+        <v>196</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
-      <c r="C125" t="s">
-        <v>196</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="C126" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C154" t="s">
+        <v>172</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C155" t="s">
+        <v>140</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C156" t="s">
         <v>141</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="C127" t="s">
-        <v>101</v>
-      </c>
-      <c r="E127" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>62</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C128" t="s">
-        <v>109</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="F156" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>273</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="C129" t="s">
-        <v>110</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="C130" t="s">
-        <v>111</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="C131" t="s">
-        <v>112</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="C132" t="s">
-        <v>113</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="C133" t="s">
-        <v>114</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="C134" t="s">
-        <v>115</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="C135" t="s">
-        <v>116</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="C136" t="s">
-        <v>100</v>
-      </c>
-      <c r="E136" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="C137" t="s">
-        <v>196</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="C138" t="s">
-        <v>172</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="C139" t="s">
-        <v>141</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="C140" t="s">
-        <v>142</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
-        <v>63</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C141" t="s">
-        <v>109</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="C142" t="s">
-        <v>126</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="C143" t="s">
-        <v>128</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="C144" t="s">
-        <v>129</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="C145" t="s">
-        <v>112</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="C146" t="s">
-        <v>113</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="C147" t="s">
-        <v>114</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="C148" t="s">
-        <v>115</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="C149" t="s">
-        <v>116</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="C150" t="s">
-        <v>100</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="C151" t="s">
-        <v>196</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="C152" t="s">
-        <v>172</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="C153" t="s">
-        <v>141</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="C154" t="s">
-        <v>142</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" t="s">
-        <v>274</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C155" s="14" t="s">
+      <c r="F157" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H157" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H155" s="14" t="s">
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C158" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H158" s="14" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
-      <c r="C156" s="14" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C159" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H156" s="14" t="s">
+      <c r="E159" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H159" s="14" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
-      <c r="C157" s="14" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C160" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H157" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="C158" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G158" s="1">
-        <v>0</v>
-      </c>
-      <c r="H158" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="C159" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H159" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="C160" s="14" t="s">
-        <v>284</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C161" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C162" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H160" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="C161" s="14" t="s">
+      <c r="H162" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C163" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H161" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="C162" s="14" t="s">
+      <c r="E163" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H163" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C164" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H162" s="14" t="s">
+      <c r="E164" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H164" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
-      <c r="C163" s="14" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C165" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H165" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C166" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H163" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="C164" s="14" t="s">
+      <c r="E166" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H166" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H164" s="14" t="s">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>199</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>203</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C174" t="s">
+        <v>157</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C175" t="s">
+        <v>158</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C176" t="s">
+        <v>152</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C177" t="s">
+        <v>153</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C178" t="s">
+        <v>160</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C179" t="s">
+        <v>205</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>307</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C180" t="s">
+        <v>309</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H180" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C181" t="s">
+        <v>312</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C182" t="s">
+        <v>313</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C183" t="s">
+        <v>314</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G183" s="1">
+        <v>1</v>
+      </c>
+      <c r="H183" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C184" t="s">
+        <v>99</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H184" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C185" t="s">
+        <v>316</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H185" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C186" t="s">
+        <v>317</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H186" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C187" t="s">
+        <v>318</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H187" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>199</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>201</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>203</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C172" t="s">
-        <v>157</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="C173" t="s">
-        <v>158</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="C174" t="s">
-        <v>153</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="C175" t="s">
-        <v>154</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="C176" t="s">
-        <v>160</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="C177" t="s">
-        <v>205</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>298</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C178" t="s">
-        <v>300</v>
-      </c>
-      <c r="D178" s="1" t="s">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C188" t="s">
+        <v>319</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H188" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>320</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D189" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H178" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="C179" t="s">
-        <v>301</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="C180" t="s">
-        <v>302</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="C181" t="s">
-        <v>303</v>
-      </c>
-      <c r="E181" s="1" t="s">
+      <c r="E189" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G181" s="1">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="C182" t="s">
-        <v>100</v>
-      </c>
-      <c r="E182" s="1" t="s">
+      <c r="F189" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C190" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="C183" t="s">
-        <v>304</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H183" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="C184" t="s">
+      <c r="F190" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G190" s="8"/>
+      <c r="H190" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C191" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H184" s="14" t="s">
+      <c r="F191" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G191" s="8"/>
+      <c r="H191" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C192" t="s">
+        <v>316</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H192" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C193" t="s">
+        <v>317</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H193" s="14" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="C185" t="s">
-        <v>306</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H185" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="C186" t="s">
-        <v>307</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H186" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" t="s">
-        <v>314</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F187" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G187" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H187" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="C188" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F188" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G188" s="8"/>
-      <c r="H188" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="C189" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F189" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G189" s="8"/>
-      <c r="H189" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="C190" t="s">
-        <v>304</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H190" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="C191" t="s">
-        <v>305</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H191" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="195" spans="3:3" ht="21">
-      <c r="C195" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4870,7 +4905,7 @@
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4886,20 +4921,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -4907,6 +4942,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA85D33-8AE1-40ED-8C46-D953A7E1BF5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E092E3E-4609-4DDE-AABA-DABF65B440A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="324">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변경일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모집인변경이력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -621,10 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PL_REG_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PL_STAT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,10 +885,6 @@
   </si>
   <si>
     <t>CORP_FOUND_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOD_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1776,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K193"/>
+  <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1809,7 +1797,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
@@ -1823,39 +1811,39 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1863,10 +1851,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -1874,30 +1862,30 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1905,10 +1893,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -1916,18 +1904,18 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1935,13 +1923,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1950,10 +1938,10 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5" t="s">
@@ -1966,14 +1954,14 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1982,10 +1970,10 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
@@ -1994,102 +1982,102 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C19" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2098,139 +2086,139 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
       <c r="C26" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -2238,53 +2226,53 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5" t="s">
@@ -2295,14 +2283,14 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="5" t="s">
@@ -2317,142 +2305,142 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="H33" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2460,78 +2448,78 @@
         <v>19</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -2540,49 +2528,49 @@
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>20</v>
@@ -2590,20 +2578,20 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2611,14 +2599,14 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5" t="s">
@@ -2630,14 +2618,14 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="5" t="s">
@@ -2649,18 +2637,18 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2668,14 +2656,14 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="5" t="s">
@@ -2687,18 +2675,18 @@
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2706,14 +2694,14 @@
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
@@ -2729,16 +2717,16 @@
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -2746,18 +2734,18 @@
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -2765,14 +2753,14 @@
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>37</v>
@@ -2780,14 +2768,14 @@
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>39</v>
@@ -2795,14 +2783,14 @@
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>40</v>
@@ -2810,14 +2798,14 @@
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C59" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>41</v>
@@ -2825,14 +2813,14 @@
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C60" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>44</v>
@@ -2840,14 +2828,14 @@
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C61" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>24</v>
@@ -2855,30 +2843,30 @@
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C62" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C63" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>14</v>
@@ -2886,14 +2874,14 @@
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C64" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>15</v>
@@ -2905,25 +2893,25 @@
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C66" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="5" t="s">
@@ -2937,10 +2925,10 @@
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5" t="s">
@@ -2950,14 +2938,14 @@
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C68" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5" t="s">
@@ -2967,14 +2955,14 @@
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C69" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
@@ -2984,33 +2972,33 @@
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C70" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="H70" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C71" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5" t="s">
@@ -3020,14 +3008,14 @@
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C72" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
@@ -3037,14 +3025,14 @@
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C73" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
@@ -3058,10 +3046,10 @@
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
@@ -3071,103 +3059,103 @@
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C75" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C76" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C78" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C79" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I80" s="3"/>
     </row>
@@ -3175,18 +3163,18 @@
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I81" s="3"/>
     </row>
@@ -3194,18 +3182,18 @@
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
@@ -3213,39 +3201,39 @@
         <v>48</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C84" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
@@ -3254,16 +3242,16 @@
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
@@ -3272,42 +3260,42 @@
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C87" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C88" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5" t="s">
@@ -3316,14 +3304,14 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C89" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5" t="s">
@@ -3332,14 +3320,14 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C90" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5" t="s">
@@ -3348,14 +3336,14 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
@@ -3364,54 +3352,54 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C92" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C93" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
@@ -3419,39 +3407,39 @@
         <v>50</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C96" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -3460,26 +3448,26 @@
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5" t="s">
@@ -3488,14 +3476,14 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5" t="s">
@@ -3504,17 +3492,17 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C100" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>37</v>
@@ -3522,14 +3510,14 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C101" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="5" t="s">
@@ -3538,14 +3526,14 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5" t="s">
@@ -3554,18 +3542,18 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C103" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
@@ -3573,51 +3561,51 @@
         <v>51</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C105" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C106" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5" t="s">
@@ -3626,13 +3614,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C107" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>23</v>
@@ -3640,16 +3628,16 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
@@ -3657,149 +3645,158 @@
         <v>52</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E109" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C110" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G110" s="8"/>
+      <c r="H110" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C111" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G111" s="8"/>
+      <c r="H111" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C112" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G112" s="8"/>
+      <c r="H112" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C113" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C110" t="s">
-        <v>178</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C111" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C112" t="s">
-        <v>224</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C113" t="s">
-        <v>42</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>34</v>
+      <c r="F113" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G113" s="8"/>
+      <c r="H113" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>54</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="C114" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G114" s="8"/>
+      <c r="H114" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C115" t="s">
-        <v>59</v>
+      <c r="C115" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G115" s="8"/>
+      <c r="H115" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C116" t="s">
-        <v>212</v>
+        <v>187</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C118" t="s">
         <v>210</v>
@@ -3808,13 +3805,13 @@
         <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>211</v>
@@ -3822,1072 +3819,1103 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C119" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C120" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
-        <v>238</v>
-      </c>
-      <c r="D121" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" t="s">
+        <v>192</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C122" t="s">
-        <v>104</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
-        <v>88</v>
+        <v>235</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H126" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>196</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>100</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>72</v>
+        <v>194</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>61</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="C130" t="s">
-        <v>108</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C132" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C133" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>62</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C143" t="s">
-        <v>108</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
-        <v>125</v>
-      </c>
-      <c r="D144" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C145" t="s">
+        <v>107</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C145" t="s">
-        <v>127</v>
-      </c>
       <c r="E145" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C146" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C149" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C150" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C153" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C155" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C156" t="s">
+        <v>170</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C157" t="s">
+        <v>139</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C158" t="s">
+        <v>140</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
-        <v>273</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D157" s="1" t="s">
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>270</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H157" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C158" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H158" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C159" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="E159" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="H159" s="14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C160" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G160" s="1">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C161" s="14" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C162" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C163" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C164" s="14" t="s">
-        <v>172</v>
+        <v>280</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F164" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>173</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C165" s="14" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C166" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C167" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H167" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C168" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H166" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
-        <v>199</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
-        <v>201</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C174" t="s">
-        <v>157</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H174" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>199</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>201</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C176" t="s">
+        <v>155</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H176" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C175" t="s">
-        <v>158</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C176" t="s">
-        <v>152</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C177" t="s">
-        <v>153</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>71</v>
+        <v>156</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C178" t="s">
-        <v>160</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>65</v>
+        <v>151</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C179" t="s">
+        <v>152</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
-        <v>307</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="C180" t="s">
-        <v>309</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>73</v>
+        <v>158</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H180" s="14" t="s">
-        <v>311</v>
+        <v>67</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C181" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H181" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>304</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C182" t="s">
-        <v>313</v>
+        <v>306</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H182" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C183" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G183" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="H183" t="s">
-        <v>315</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C184" t="s">
-        <v>99</v>
+        <v>310</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="H184" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C185" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H185" s="14" t="s">
-        <v>97</v>
+        <v>67</v>
+      </c>
+      <c r="G185" s="1">
+        <v>1</v>
+      </c>
+      <c r="H185" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C186" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H186" s="14" t="s">
-        <v>173</v>
+        <v>67</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H186" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C187" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H187" s="14" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C188" t="s">
+        <v>314</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H188" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C189" t="s">
+        <v>315</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H189" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C190" t="s">
+        <v>316</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H190" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>317</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C191" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H188" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
+      <c r="D191" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G191" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="H191" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C189" s="7" t="s">
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C192" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G192" s="8"/>
+      <c r="H192" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C193" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D189" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F189" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G189" s="8" t="s">
+      <c r="D193" s="8"/>
+      <c r="E193" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G193" s="8"/>
+      <c r="H193" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H189" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C190" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F190" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G190" s="8"/>
-      <c r="H190" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C191" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F191" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G191" s="8"/>
-      <c r="H191" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C192" t="s">
-        <v>316</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H192" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C193" t="s">
-        <v>317</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H193" s="14" t="s">
-        <v>173</v>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C194" t="s">
+        <v>313</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H194" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C195" t="s">
+        <v>314</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H195" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4925,16 +4953,16 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E092E3E-4609-4DDE-AABA-DABF65B440A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF9236A-5AA8-4A7F-96A7-DC8254672EC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="330">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1273,6 +1273,30 @@
   </si>
   <si>
     <t>위반이력코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부서류체크정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_FILE_CHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부서류체크코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORP_USER_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인사용인여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1331,7 +1355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,6 +1399,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1764,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K195"/>
+  <dimension ref="A2:K198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2523,62 +2550,62 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>228</v>
+      <c r="C44" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C45" s="3" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
@@ -2588,29 +2615,28 @@
         <v>76</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+        <v>243</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="5" t="s">
-        <v>21</v>
+      <c r="G48" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>298</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2618,7 +2644,7 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
@@ -2629,7 +2655,7 @@
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -2637,18 +2663,18 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>251</v>
+        <v>155</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2656,18 +2682,18 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="5" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2675,7 +2701,7 @@
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
@@ -2686,7 +2712,7 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2694,7 +2720,7 @@
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
@@ -2705,7 +2731,7 @@
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2713,20 +2739,18 @@
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>256</v>
-      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="5" t="s">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -2734,18 +2758,20 @@
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="H55" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -2753,37 +2779,41 @@
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="8" t="s">
-        <v>64</v>
+      <c r="E56" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
@@ -2793,12 +2823,12 @@
         <v>76</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C59" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
@@ -2808,12 +2838,12 @@
         <v>76</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C60" s="3" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
@@ -2823,192 +2853,190 @@
         <v>76</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C61" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C62" s="3" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="5" t="s">
-        <v>225</v>
+      <c r="H62" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C63" s="3" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>14</v>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C64" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C65" s="3" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C66" s="3" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I66" s="3"/>
+      <c r="H66" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C67" s="3" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C68" s="3" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C69" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C70" s="3" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C71" s="3" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H71" s="5" t="s">
-        <v>31</v>
+        <v>244</v>
       </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C72" s="3" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
@@ -3019,13 +3047,13 @@
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C73" s="3" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
@@ -3036,81 +3064,81 @@
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C74" s="3" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C75" s="3" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C76" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="9" t="s">
-        <v>300</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C78" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
@@ -3121,60 +3149,58 @@
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C79" s="3" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D80" s="4"/>
-      <c r="E80" s="12" t="s">
-        <v>105</v>
+      <c r="E80" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
       <c r="C81" s="3" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="D81" s="4"/>
-      <c r="E81" s="4" t="s">
-        <v>72</v>
+      <c r="E81" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="I81" s="3"/>
     </row>
@@ -3182,47 +3208,48 @@
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D82" s="4"/>
-      <c r="E82" s="12" t="s">
-        <v>105</v>
+      <c r="E82" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C84" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -3231,48 +3258,50 @@
       <c r="F84" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="H84" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C85" s="3" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>241</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G85" s="4"/>
       <c r="H85" s="5" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C86" s="3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H86" s="5" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C87" s="3" t="s">
-        <v>227</v>
+        <v>9</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
@@ -3283,12 +3312,12 @@
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>248</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C88" s="3" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
@@ -3299,15 +3328,15 @@
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C89" s="3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D89" s="4"/>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F89" s="4" t="s">
@@ -3315,28 +3344,28 @@
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C90" s="3" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
@@ -3347,88 +3376,86 @@
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C92" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C92" s="7" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C93" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8" t="s">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G92" s="8" t="s">
+      <c r="F93" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H93" s="5" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C93" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="H94" s="5" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C95" s="3" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>262</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G95" s="4"/>
       <c r="H95" s="5" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="C96" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
@@ -3437,46 +3464,48 @@
       <c r="F96" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="H96" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C98" s="3" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" s="3" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
@@ -3487,46 +3516,46 @@
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C100" s="3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D100" s="4"/>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G100" s="4" t="s">
-        <v>241</v>
-      </c>
+      <c r="G100" s="4"/>
       <c r="H100" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C101" s="3" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H101" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
@@ -3537,52 +3566,50 @@
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C103" s="3" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>51</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="C104" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>263</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G104" s="4"/>
       <c r="H104" s="5" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C105" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
@@ -3591,297 +3618,304 @@
       <c r="F105" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G105" s="4"/>
+      <c r="G105" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="H105" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C106" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C107" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C108" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="D108" s="4"/>
+      <c r="E108" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H107" s="2" t="s">
+      <c r="F108" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C108" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C109" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="D109" s="4"/>
+      <c r="E109" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H108" s="2" t="s">
+      <c r="F109" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
         <v>52</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C110" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8" t="s">
+      <c r="D110" s="4"/>
+      <c r="E110" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F109" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G109" s="8" t="s">
+      <c r="F110" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="H110" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C110" s="7" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C111" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8" t="s">
+      <c r="D111" s="4"/>
+      <c r="E111" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F110" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="9" t="s">
+      <c r="F111" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C111" s="7" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C112" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8" t="s">
+      <c r="D112" s="4"/>
+      <c r="E112" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F111" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="9" t="s">
+      <c r="F112" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C112" s="7" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C113" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8" t="s">
+      <c r="D113" s="4"/>
+      <c r="E113" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F112" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G112" s="8"/>
-      <c r="H112" s="9" t="s">
+      <c r="F113" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C113" s="7" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C114" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8" t="s">
+      <c r="D114" s="4"/>
+      <c r="E114" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G113" s="8"/>
-      <c r="H113" s="9" t="s">
+      <c r="F114" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C114" s="7" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C115" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8" t="s">
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F114" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G114" s="8"/>
-      <c r="H114" s="9" t="s">
+      <c r="F115" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C115" s="7" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C116" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8" t="s">
+      <c r="D116" s="4"/>
+      <c r="E116" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F115" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="9" t="s">
+      <c r="F116" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C117" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D117" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E117" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G116" s="1" t="s">
+      <c r="F117" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G117" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="H117" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C117" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C118" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
         <v>54</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D119" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E119" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G118" s="1" t="s">
+      <c r="F119" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="H119" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C119" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C120" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
         <v>56</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>208</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G120" s="1" t="s">
+      <c r="F121" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C121" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C122" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
         <v>59</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>192</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C123" t="s">
-        <v>235</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
@@ -3893,170 +3927,176 @@
         <v>67</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C124" t="s">
-        <v>103</v>
+        <v>235</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C125" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C127" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C129" t="s">
-        <v>194</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C130" t="s">
-        <v>139</v>
-      </c>
-      <c r="E130" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>105</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C131" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C132" t="s">
         <v>99</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G131" s="1" t="s">
+      <c r="F132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
         <v>60</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>107</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H132" s="2" t="s">
+      <c r="F133" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H133" s="2" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C133" t="s">
-        <v>108</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>92</v>
@@ -4065,12 +4105,12 @@
         <v>76</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>92</v>
@@ -4079,12 +4119,12 @@
         <v>76</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>92</v>
@@ -4093,12 +4133,12 @@
         <v>76</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>92</v>
@@ -4107,12 +4147,12 @@
         <v>76</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>92</v>
@@ -4121,12 +4161,12 @@
         <v>76</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>92</v>
@@ -4135,139 +4175,139 @@
         <v>76</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G141" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H141" s="2" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
+        <v>139</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C145" t="s">
         <v>140</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H144" s="2" t="s">
+      <c r="F145" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
         <v>61</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>107</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C146" t="s">
-        <v>124</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>92</v>
@@ -4276,12 +4316,12 @@
         <v>76</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C149" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>92</v>
@@ -4290,12 +4330,12 @@
         <v>76</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>92</v>
@@ -4304,12 +4344,12 @@
         <v>76</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>92</v>
@@ -4318,12 +4358,12 @@
         <v>76</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>92</v>
@@ -4332,12 +4372,12 @@
         <v>76</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C153" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>92</v>
@@ -4346,576 +4386,660 @@
         <v>76</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C155" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G155" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H155" s="2" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C156" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C157" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C158" t="s">
+        <v>139</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C159" t="s">
         <v>140</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
-        <v>270</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G159" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>270</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H159" s="14" t="s">
+      <c r="H160" s="14" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C160" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H160" s="14" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C161" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C162" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G162" s="1">
-        <v>0</v>
-      </c>
       <c r="H162" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C163" s="14" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C164" s="14" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C165" s="14" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G165" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="H165" s="14" t="s">
-        <v>96</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C166" s="14" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C167" s="14" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C168" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C169" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H168" s="14" t="s">
+      <c r="F169" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H169" s="14" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
-        <v>197</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
+        <v>199</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
         <v>201</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="D177" s="4"/>
+      <c r="E177" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H176" s="2" t="s">
+      <c r="F177" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G177" s="4"/>
+      <c r="H177" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C177" t="s">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C178" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="D178" s="4"/>
+      <c r="E178" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H177" s="2" t="s">
+      <c r="F178" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G178" s="4"/>
+      <c r="H178" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C178" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C179" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="D179" s="4"/>
+      <c r="E179" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H178" s="2" t="s">
+      <c r="F179" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G179" s="4"/>
+      <c r="H179" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C179" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C180" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="D180" s="4"/>
+      <c r="E180" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H179" s="2" t="s">
+      <c r="F180" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G180" s="4"/>
+      <c r="H180" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C180" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C181" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="D181" s="4"/>
+      <c r="E181" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H180" s="2" t="s">
+      <c r="F181" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G181" s="4"/>
+      <c r="H181" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C181" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C182" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="D182" s="4"/>
+      <c r="E182" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H181" s="2" t="s">
+      <c r="F182" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G182" s="4"/>
+      <c r="H182" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
         <v>304</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D183" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E183" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G182" s="1" t="s">
+      <c r="F183" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G183" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="H182" s="14" t="s">
+      <c r="H183" s="15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C183" t="s">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C184" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="D184" s="4"/>
+      <c r="E184" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H183" t="s">
+      <c r="F184" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G184" s="4"/>
+      <c r="H184" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C184" t="s">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C185" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="D185" s="4"/>
+      <c r="E185" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H184" t="s">
+      <c r="F185" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G185" s="4"/>
+      <c r="H185" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C185" t="s">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C186" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="D186" s="4"/>
+      <c r="E186" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G185" s="1">
+      <c r="F186" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G186" s="4">
         <v>1</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H186" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C186" t="s">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C187" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="D187" s="4"/>
+      <c r="E187" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G186" s="1" t="s">
+      <c r="F187" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G187" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H187" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C187" t="s">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C188" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="D188" s="4"/>
+      <c r="E188" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H187" s="14" t="s">
+      <c r="F188" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G188" s="4"/>
+      <c r="H188" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C188" t="s">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C189" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="D189" s="4"/>
+      <c r="E189" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H188" s="14" t="s">
+      <c r="F189" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G189" s="4"/>
+      <c r="H189" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C189" t="s">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C190" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="D190" s="4"/>
+      <c r="E190" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H189" s="14" t="s">
+      <c r="F190" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G190" s="4"/>
+      <c r="H190" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C190" t="s">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C191" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="D191" s="4"/>
+      <c r="E191" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H190" s="14" t="s">
+      <c r="F191" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G191" s="4"/>
+      <c r="H191" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
         <v>317</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C192" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D191" s="8" t="s">
+      <c r="D192" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E191" s="8" t="s">
+      <c r="E192" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F191" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G191" s="8" t="s">
+      <c r="F192" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G192" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="H191" s="7" t="s">
+      <c r="H192" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C192" s="7" t="s">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C193" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D193" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E192" s="8" t="s">
+      <c r="E193" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F192" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G192" s="8"/>
-      <c r="H192" s="7" t="s">
+      <c r="F193" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G193" s="4"/>
+      <c r="H193" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C193" s="7" t="s">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C194" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8" t="s">
+      <c r="D194" s="4"/>
+      <c r="E194" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F193" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G193" s="8"/>
-      <c r="H193" s="7" t="s">
+      <c r="F194" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G194" s="4"/>
+      <c r="H194" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="194" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C194" t="s">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C195" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="D195" s="4"/>
+      <c r="E195" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H194" s="14" t="s">
+      <c r="F195" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G195" s="4"/>
+      <c r="H195" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="195" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C195" t="s">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C196" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="D196" s="4"/>
+      <c r="E196" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H195" s="14" t="s">
+      <c r="F196" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G196" s="4"/>
+      <c r="H196" s="15" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A197" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G197" s="8"/>
+      <c r="H197" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A198" s="7"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G198" s="8"/>
+      <c r="H198" s="9" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF9236A-5AA8-4A7F-96A7-DC8254672EC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C7A2E-A068-47FF-8A26-25AC24E901BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="346">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,14 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제정보 전달 받은 후 기재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제내역이력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -846,10 +838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제내역시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모집인변경이력시퀀스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1297,6 +1285,80 @@
   </si>
   <si>
     <t>법인사용인여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_lc_pay_seq</t>
+  </si>
+  <si>
+    <t>ORDER_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVAL_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELL_MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보</t>
+  </si>
+  <si>
+    <t>결제시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드/은행ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드/은행명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할부개월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1791,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K198"/>
+  <dimension ref="A2:K208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1824,7 +1886,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
@@ -1838,39 +1900,39 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1878,10 +1940,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -1889,30 +1951,30 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1920,10 +1982,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -1931,18 +1993,18 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1950,13 +2012,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1965,10 +2027,10 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5" t="s">
@@ -1981,14 +2043,14 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1997,10 +2059,10 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
@@ -2009,102 +2071,102 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C18" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C19" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2113,139 +2175,139 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
       <c r="C26" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -2253,53 +2315,53 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5" t="s">
@@ -2310,14 +2372,14 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="5" t="s">
@@ -2332,142 +2394,142 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -2475,96 +2537,96 @@
         <v>19</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C44" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -2573,49 +2635,49 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>20</v>
@@ -2623,20 +2685,20 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2644,14 +2706,14 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="5" t="s">
@@ -2663,14 +2725,14 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
@@ -2682,18 +2744,18 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2701,14 +2763,14 @@
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5" t="s">
@@ -2720,18 +2782,18 @@
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2739,14 +2801,14 @@
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5" t="s">
@@ -2762,16 +2824,16 @@
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -2779,18 +2841,18 @@
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -2798,14 +2860,14 @@
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>37</v>
@@ -2813,14 +2875,14 @@
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>39</v>
@@ -2828,14 +2890,14 @@
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C59" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>40</v>
@@ -2843,14 +2905,14 @@
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C60" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>41</v>
@@ -2858,14 +2920,14 @@
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C61" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>44</v>
@@ -2873,14 +2935,14 @@
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C62" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>24</v>
@@ -2888,30 +2950,30 @@
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C63" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C64" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>14</v>
@@ -2919,14 +2981,14 @@
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C65" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>15</v>
@@ -2938,25 +3000,25 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C67" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5" t="s">
@@ -2970,10 +3032,10 @@
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5" t="s">
@@ -2983,14 +3045,14 @@
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C69" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
@@ -3000,14 +3062,14 @@
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C70" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
@@ -3017,33 +3079,33 @@
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C71" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C72" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
@@ -3053,14 +3115,14 @@
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C73" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
@@ -3070,14 +3132,14 @@
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C74" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
@@ -3091,10 +3153,10 @@
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
@@ -3104,103 +3166,103 @@
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C76" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C78" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C79" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C81" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I81" s="3"/>
     </row>
@@ -3208,18 +3270,18 @@
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I82" s="3"/>
     </row>
@@ -3227,18 +3289,18 @@
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
@@ -3246,39 +3308,39 @@
         <v>48</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C85" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
@@ -3287,16 +3349,16 @@
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
@@ -3305,42 +3367,42 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C88" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C89" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5" t="s">
@@ -3349,14 +3411,14 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C90" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5" t="s">
@@ -3365,14 +3427,14 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
@@ -3381,14 +3443,14 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C92" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="5" t="s">
@@ -3397,54 +3459,54 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C93" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C95" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
@@ -3452,39 +3514,39 @@
         <v>50</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
@@ -3493,26 +3555,26 @@
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5" t="s">
@@ -3521,14 +3583,14 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C100" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5" t="s">
@@ -3537,17 +3599,17 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C101" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>37</v>
@@ -3555,14 +3617,14 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5" t="s">
@@ -3571,14 +3633,14 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C103" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5" t="s">
@@ -3587,18 +3649,18 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C104" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
@@ -3606,51 +3668,51 @@
         <v>51</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C106" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C107" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="5" t="s">
@@ -3659,14 +3721,14 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C108" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="5" t="s">
@@ -3675,18 +3737,18 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C109" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
@@ -3694,51 +3756,51 @@
         <v>52</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C111" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C112" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="5" t="s">
@@ -3747,66 +3809,66 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C113" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C114" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C116" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
@@ -3814,30 +3876,30 @@
         <v>53</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C118" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -3846,1200 +3908,1393 @@
       <c r="H118" s="5"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
+      <c r="A119" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A120" s="7"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G120" s="8"/>
+      <c r="H120" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G121" s="8"/>
+      <c r="H121" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A122" s="7"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G122" s="8"/>
+      <c r="H122" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A123" s="7"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G123" s="8"/>
+      <c r="H123" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A124" s="7"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G124" s="8"/>
+      <c r="H124" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A125" s="7"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G125" s="8"/>
+      <c r="H125" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A126" s="7"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G126" s="8"/>
+      <c r="H126" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A127" s="7"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G127" s="8"/>
+      <c r="H127" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A128" s="7"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G128" s="8"/>
+      <c r="H128" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A129" s="7"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G129" s="8"/>
+      <c r="H129" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A130" s="7"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G130" s="8"/>
+      <c r="H130" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
         <v>54</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D119" s="4" t="s">
+      <c r="B131" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C120" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>56</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C121" t="s">
-        <v>208</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C122" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>59</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C123" t="s">
-        <v>192</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C124" t="s">
-        <v>235</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C125" t="s">
-        <v>103</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C126" t="s">
-        <v>87</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C127" t="s">
-        <v>106</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C128" t="s">
-        <v>91</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C129" t="s">
-        <v>94</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C130" t="s">
-        <v>194</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C131" t="s">
-        <v>139</v>
-      </c>
       <c r="E131" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C132" t="s">
-        <v>99</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C133" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>108</v>
+        <v>232</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C135" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>114</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>92</v>
+        <v>192</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C143" t="s">
-        <v>170</v>
+        <v>105</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>61</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="C146" t="s">
-        <v>107</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
-        <v>124</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C149" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C150" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C153" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C155" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="C156" t="s">
-        <v>194</v>
+        <v>105</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C157" t="s">
-        <v>170</v>
+        <v>122</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C158" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C159" t="s">
+        <v>125</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C160" t="s">
+        <v>108</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C161" t="s">
+        <v>109</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C162" t="s">
+        <v>110</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C163" t="s">
+        <v>111</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C164" t="s">
+        <v>112</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C165" t="s">
+        <v>96</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C166" t="s">
+        <v>192</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C167" t="s">
+        <v>168</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C168" t="s">
+        <v>137</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H168" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C169" t="s">
+        <v>138</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>267</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C171" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H171" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C160" s="14" t="s">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C172" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H172" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H160" s="14" t="s">
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C173" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
+      <c r="H173" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C161" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H161" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C162" s="14" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C174" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C175" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H162" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C163" s="14" t="s">
+      <c r="E175" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H175" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G163" s="1">
-        <v>0</v>
-      </c>
-      <c r="H163" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C164" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H164" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C165" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H165" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C166" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H166" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C167" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H167" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C168" s="14" t="s">
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C176" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H176" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C177" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H177" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C178" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H178" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C179" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H179" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H168" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C169" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H169" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
         <v>197</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
         <v>199</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
-        <v>201</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G177" s="4"/>
-      <c r="H177" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C178" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G178" s="4"/>
-      <c r="H178" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C179" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G179" s="4"/>
-      <c r="H179" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C180" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G180" s="4"/>
-      <c r="H180" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C181" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G181" s="4"/>
-      <c r="H181" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C182" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G182" s="4"/>
-      <c r="H182" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
-        <v>304</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H183" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C184" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G184" s="4"/>
-      <c r="H184" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C185" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F185" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G185" s="4"/>
-      <c r="H185" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C186" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G186" s="4">
-        <v>1</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C187" s="3" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>123</v>
+        <v>65</v>
+      </c>
+      <c r="G187" s="4"/>
+      <c r="H187" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C188" s="3" t="s">
-        <v>313</v>
+        <v>154</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G188" s="4"/>
-      <c r="H188" s="15" t="s">
-        <v>96</v>
+      <c r="H188" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C189" s="3" t="s">
-        <v>314</v>
+        <v>149</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G189" s="4"/>
-      <c r="H189" s="15" t="s">
-        <v>171</v>
+      <c r="H189" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C190" s="3" t="s">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G190" s="4"/>
-      <c r="H190" s="15" t="s">
-        <v>142</v>
+      <c r="H190" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C191" s="3" t="s">
-        <v>316</v>
+        <v>156</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G191" s="4"/>
-      <c r="H191" s="15" t="s">
-        <v>141</v>
+      <c r="H191" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
-        <v>317</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="C192" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D192" s="4"/>
       <c r="E192" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H192" s="3" t="s">
-        <v>321</v>
+        <v>65</v>
+      </c>
+      <c r="G192" s="4"/>
+      <c r="H192" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>301</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="C193" s="3" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G193" s="4"/>
-      <c r="H193" s="3" t="s">
-        <v>177</v>
+        <v>65</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H193" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C194" s="3" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="4" t="s">
-        <v>302</v>
+        <v>68</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="3" t="s">
-        <v>323</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C195" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G195" s="4"/>
-      <c r="H195" s="15" t="s">
-        <v>96</v>
+      <c r="H195" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C196" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G196" s="4"/>
-      <c r="H196" s="15" t="s">
-        <v>171</v>
+        <v>65</v>
+      </c>
+      <c r="G196" s="4">
+        <v>1</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A197" s="7" t="s">
+      <c r="C197" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C198" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G198" s="4"/>
+      <c r="H198" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C199" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G199" s="4"/>
+      <c r="H199" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C200" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G200" s="4"/>
+      <c r="H200" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C201" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G201" s="4"/>
+      <c r="H201" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>314</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C203" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G203" s="4"/>
+      <c r="H203" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C204" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G204" s="4"/>
+      <c r="H204" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C205" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G205" s="4"/>
+      <c r="H205" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C206" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G206" s="4"/>
+      <c r="H206" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A207" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G207" s="8"/>
+      <c r="H207" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A208" s="7"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G208" s="8"/>
+      <c r="H208" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G197" s="8"/>
-      <c r="H197" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A198" s="7"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G198" s="8"/>
-      <c r="H198" s="9" t="s">
-        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5077,16 +5332,16 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C7A2E-A068-47FF-8A26-25AC24E901BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF6770B-4870-45D4-95CE-419C854B6CDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="350">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1359,6 +1359,22 @@
   </si>
   <si>
     <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM_UPD_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보완요청일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE_APP_FI_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인남은일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1853,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K208"/>
+  <dimension ref="A2:K210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3097,42 +3113,42 @@
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C72" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
+      <c r="C72" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="5" t="s">
-        <v>31</v>
+      <c r="F72" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C73" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4" t="s">
+      <c r="C73" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="5" t="s">
-        <v>32</v>
+      <c r="F73" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C74" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
@@ -3143,47 +3159,47 @@
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C75" s="3" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C76" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
@@ -3194,83 +3210,81 @@
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C78" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5" t="s">
-        <v>166</v>
+        <v>296</v>
       </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C79" s="3" t="s">
-        <v>165</v>
+        <v>298</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5" t="s">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C81" s="3" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D81" s="4"/>
-      <c r="E81" s="12" t="s">
-        <v>103</v>
+      <c r="E81" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
       <c r="C82" s="3" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
@@ -3281,15 +3295,13 @@
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
       <c r="C83" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="12" t="s">
@@ -3300,102 +3312,108 @@
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>48</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
       <c r="C84" s="3" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>258</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>172</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="3" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="D85" s="4"/>
-      <c r="E85" s="4" t="s">
-        <v>70</v>
+      <c r="E85" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="C86" s="3" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C87" s="3" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C88" s="3" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="H88" s="5" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C89" s="3" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
@@ -3406,12 +3424,12 @@
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C90" s="3" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
@@ -3422,184 +3440,184 @@
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C92" s="3" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C93" s="3" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="G93" s="4"/>
       <c r="H93" s="5" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="G94" s="4"/>
       <c r="H94" s="5" t="s">
-        <v>284</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C95" s="3" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G95" s="4"/>
+      <c r="G95" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="H95" s="5" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C96" s="3" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="C98" s="3" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G98" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="H98" s="5" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C99" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C100" s="3" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C101" s="3" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
@@ -3608,516 +3626,512 @@
       <c r="F101" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="G101" s="4"/>
       <c r="H101" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C102" s="3" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C103" s="3" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G103" s="4"/>
+      <c r="G103" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="H103" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C104" s="3" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>51</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="C105" s="3" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>260</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G105" s="4"/>
       <c r="H105" s="5" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C106" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="C107" s="3" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G107" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="H107" s="5" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C108" s="3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="5" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C109" s="3" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="5" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>52</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C110" s="3" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>263</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G110" s="4"/>
       <c r="H110" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C111" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="5" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C112" s="3" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G112" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="H112" s="5" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C113" s="3" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5" t="s">
-        <v>295</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C114" s="3" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>71</v>
+        <v>299</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="5" t="s">
-        <v>297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C115" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="5" t="s">
-        <v>94</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C116" s="3" t="s">
-        <v>168</v>
+        <v>298</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="5" t="s">
-        <v>169</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>53</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="C117" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="G117" s="4"/>
       <c r="H117" s="5" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C118" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C120" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="5"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A119" s="7" t="s">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B121" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D121" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G120" s="8"/>
-      <c r="H120" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D121" s="8"/>
       <c r="E121" s="8" t="s">
         <v>70</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G121" s="8"/>
+      <c r="G121" s="8" t="s">
+        <v>327</v>
+      </c>
       <c r="H121" s="9" t="s">
-        <v>175</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="7" t="s">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="9" t="s">
-        <v>340</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="7" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G129" s="8"/>
       <c r="H129" s="9" t="s">
-        <v>94</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="7" t="s">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8" t="s">
@@ -4128,49 +4142,54 @@
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A131" s="7"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G131" s="8"/>
+      <c r="H131" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A132" s="7"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G132" s="8"/>
+      <c r="H132" s="9" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>54</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C131" t="s">
-        <v>206</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C132" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C133" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>13</v>
@@ -4182,94 +4201,97 @@
         <v>65</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C134" t="s">
-        <v>232</v>
-      </c>
-      <c r="D134" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C135" t="s">
+        <v>190</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C135" t="s">
-        <v>101</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F135" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C136" t="s">
-        <v>85</v>
+        <v>232</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="G136" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="H136" s="2" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C137" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>87</v>
@@ -4278,108 +4300,108 @@
         <v>65</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>192</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>103</v>
+        <v>89</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>97</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>69</v>
+        <v>192</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="H142" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>58</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="C143" t="s">
-        <v>105</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>58</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C145" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C146" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>90</v>
@@ -4388,12 +4410,12 @@
         <v>74</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>90</v>
@@ -4402,12 +4424,12 @@
         <v>74</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>90</v>
@@ -4416,12 +4438,12 @@
         <v>74</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C149" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>90</v>
@@ -4430,12 +4452,12 @@
         <v>74</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C150" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>90</v>
@@ -4444,153 +4466,153 @@
         <v>74</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C153" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="G153" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H153" s="2" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C155" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
-        <v>59</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C156" t="s">
-        <v>105</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C157" t="s">
-        <v>122</v>
-      </c>
-      <c r="D157" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C158" t="s">
+        <v>105</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C158" t="s">
-        <v>124</v>
-      </c>
       <c r="E158" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C159" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C160" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>90</v>
@@ -4599,12 +4621,12 @@
         <v>74</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C161" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>90</v>
@@ -4613,12 +4635,12 @@
         <v>74</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C162" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>90</v>
@@ -4627,12 +4649,12 @@
         <v>74</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C163" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>90</v>
@@ -4641,12 +4663,12 @@
         <v>74</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C164" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>90</v>
@@ -4655,487 +4677,483 @@
         <v>74</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C165" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C166" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C167" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="G167" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H167" s="2" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C168" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C169" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H169" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C170" t="s">
+        <v>137</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C171" t="s">
+        <v>138</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H171" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
         <v>267</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C170" s="14" t="s">
+      <c r="C172" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G170" s="1" t="s">
+      <c r="F172" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H170" s="14" t="s">
+      <c r="H172" s="14" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C171" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H171" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C172" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H172" s="14" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C173" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G173" s="1">
-        <v>0</v>
-      </c>
       <c r="H173" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C174" s="14" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H174" s="14" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C175" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>66</v>
+      <c r="G175" s="1">
+        <v>0</v>
       </c>
       <c r="H175" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C176" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H176" s="14" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C177" s="14" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="G177" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H177" s="14" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C178" s="14" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H178" s="14" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C179" s="14" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H179" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C180" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H180" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C181" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H181" s="14" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
-        <v>195</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
-        <v>197</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
+        <v>195</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>197</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
         <v>199</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G187" s="4"/>
-      <c r="H187" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C188" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G188" s="4"/>
-      <c r="H188" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C189" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="5" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C190" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="5" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C191" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C192" s="3" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A193" t="s">
-        <v>301</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="C193" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G193" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H193" s="15" t="s">
-        <v>305</v>
+      <c r="G193" s="4"/>
+      <c r="H193" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C194" s="3" t="s">
-        <v>306</v>
+        <v>201</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G194" s="4"/>
-      <c r="H194" s="3" t="s">
-        <v>24</v>
+      <c r="H194" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>301</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="C195" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D195" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E195" s="4" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G195" s="4"/>
-      <c r="H195" s="3" t="s">
-        <v>14</v>
+      <c r="G195" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H195" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C196" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G196" s="4">
-        <v>1</v>
-      </c>
+      <c r="G196" s="4"/>
       <c r="H196" s="3" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C197" s="3" t="s">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="4" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G197" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="G197" s="4"/>
       <c r="H197" s="3" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C198" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G198" s="4"/>
-      <c r="H198" s="15" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="G198" s="4">
+        <v>1</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C199" s="3" t="s">
-        <v>311</v>
+        <v>96</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G199" s="4"/>
-      <c r="H199" s="15" t="s">
-        <v>169</v>
+        <v>65</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C200" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
@@ -5146,12 +5164,12 @@
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="15" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C201" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="4" t="s">
@@ -5162,138 +5180,170 @@
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="15" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
-        <v>314</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="C202" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D202" s="4"/>
       <c r="E202" s="4" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H202" s="3" t="s">
-        <v>318</v>
+        <v>74</v>
+      </c>
+      <c r="G202" s="4"/>
+      <c r="H202" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C203" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D203" s="4"/>
       <c r="E203" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G203" s="4"/>
-      <c r="H203" s="3" t="s">
-        <v>175</v>
+      <c r="H203" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
+        <v>314</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C204" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D204" s="4"/>
+        <v>316</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E204" s="4" t="s">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G204" s="4"/>
+      <c r="G204" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="H204" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C205" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D205" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E205" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G205" s="4"/>
-      <c r="H205" s="15" t="s">
-        <v>94</v>
+      <c r="H205" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C206" s="3" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G206" s="4"/>
+      <c r="H206" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C207" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G207" s="4"/>
+      <c r="H207" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C208" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F206" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G206" s="4"/>
-      <c r="H206" s="15" t="s">
+      <c r="F208" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G208" s="4"/>
+      <c r="H208" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A207" s="7" t="s">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A209" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B209" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8" t="s">
+      <c r="D209" s="8"/>
+      <c r="E209" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F207" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G207" s="8"/>
-      <c r="H207" s="9" t="s">
+      <c r="F209" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G209" s="8"/>
+      <c r="H209" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A208" s="7"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="7" t="s">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A210" s="7"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8" t="s">
+      <c r="D210" s="8"/>
+      <c r="E210" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F208" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G208" s="8"/>
-      <c r="H208" s="9" t="s">
+      <c r="F210" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G210" s="8"/>
+      <c r="H210" s="9" t="s">
         <v>324</v>
       </c>
     </row>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF6770B-4870-45D4-95CE-419C854B6CDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3E39A-C5CA-48E8-AA02-82D0355C8A41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="351">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1375,6 +1375,10 @@
   </si>
   <si>
     <t>승인남은일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1871,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1885,9 +1889,10 @@
     <col min="6" max="6" width="13.69921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -1910,8 +1915,11 @@
       <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I2" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1937,7 +1945,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>131</v>
       </c>
@@ -1951,7 +1959,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -1965,7 +1973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>132</v>
       </c>
@@ -1979,7 +1987,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>136</v>
       </c>
@@ -1993,21 +2001,23 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
         <v>251</v>
       </c>
@@ -2023,21 +2033,23 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="F10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2053,7 +2065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2069,7 +2081,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2085,7 +2097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C14" s="3" t="s">
         <v>75</v>
       </c>
@@ -2101,7 +2113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
         <v>254</v>
       </c>
@@ -2119,7 +2131,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
         <v>257</v>
       </c>
@@ -2135,39 +2147,39 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="7" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C17" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9" t="s">
+      <c r="F17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C18" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9" t="s">
+      <c r="F18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C19" s="3" t="s">
         <v>262</v>
       </c>
@@ -2185,23 +2197,23 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C20" s="7" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7" t="s">
+      <c r="F20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
         <v>190</v>
@@ -2218,7 +2230,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
         <v>60</v>
@@ -2237,7 +2249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
         <v>82</v>
@@ -2256,24 +2268,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
         <v>78</v>
@@ -2292,7 +2304,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
       <c r="C26" s="3" t="s">
         <v>138</v>
@@ -2309,7 +2321,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
         <v>137</v>
@@ -2326,7 +2338,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2352,7 +2364,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
         <v>142</v>
       </c>
@@ -2368,13 +2380,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C30" s="3" t="s">
         <v>143</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>176</v>
+      <c r="E30" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>74</v>
@@ -2383,8 +2395,11 @@
       <c r="H30" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I30" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3" t="s">
@@ -2402,7 +2417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
@@ -2628,20 +2643,20 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="8" t="s">
+      <c r="F44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="5" t="s">
         <v>326</v>
       </c>
     </row>
@@ -2782,8 +2797,8 @@
         <v>154</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>62</v>
+      <c r="E52" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>74</v>
@@ -2792,7 +2807,9 @@
       <c r="H52" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I52" s="3"/>
+      <c r="I52" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
@@ -2985,14 +3002,17 @@
         <v>143</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
-        <v>176</v>
+      <c r="E64" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.4">
@@ -3113,35 +3133,35 @@
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8" t="s">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9" t="s">
+      <c r="F72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5" t="s">
         <v>347</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8" t="s">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="9" t="s">
+      <c r="F73" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="5" t="s">
         <v>349</v>
       </c>
       <c r="I73" s="3"/>
@@ -3448,8 +3468,8 @@
         <v>154</v>
       </c>
       <c r="D91" s="4"/>
-      <c r="E91" s="4" t="s">
-        <v>62</v>
+      <c r="E91" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>74</v>
@@ -3458,6 +3478,9 @@
       <c r="H91" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="I91" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C92" s="3" t="s">
@@ -3543,7 +3566,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
         <v>189</v>
       </c>
@@ -3559,7 +3582,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>50</v>
       </c>
@@ -3583,7 +3606,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C99" s="3" t="s">
         <v>174</v>
       </c>
@@ -3599,7 +3622,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C100" s="3" t="s">
         <v>49</v>
       </c>
@@ -3615,7 +3638,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C101" s="3" t="s">
         <v>227</v>
       </c>
@@ -3631,13 +3654,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C102" s="3" t="s">
         <v>154</v>
       </c>
       <c r="D102" s="4"/>
-      <c r="E102" s="4" t="s">
-        <v>62</v>
+      <c r="E102" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>74</v>
@@ -3646,8 +3669,11 @@
       <c r="H102" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I102" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C103" s="3" t="s">
         <v>177</v>
       </c>
@@ -3665,7 +3691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C104" s="3" t="s">
         <v>214</v>
       </c>
@@ -3681,7 +3707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C105" s="3" t="s">
         <v>216</v>
       </c>
@@ -3697,7 +3723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C106" s="3" t="s">
         <v>189</v>
       </c>
@@ -3713,7 +3739,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>51</v>
       </c>
@@ -3737,7 +3763,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C108" s="3" t="s">
         <v>174</v>
       </c>
@@ -3753,7 +3779,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C109" s="3" t="s">
         <v>228</v>
       </c>
@@ -3769,13 +3795,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C110" s="3" t="s">
         <v>154</v>
       </c>
       <c r="D110" s="4"/>
-      <c r="E110" s="4" t="s">
-        <v>62</v>
+      <c r="E110" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>74</v>
@@ -3784,8 +3810,11 @@
       <c r="H110" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I110" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C111" s="3" t="s">
         <v>189</v>
       </c>
@@ -3801,7 +3830,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>52</v>
       </c>

--- a/src/main/document/협회TABLE.xlsx
+++ b/src/main/document/협회TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3E39A-C5CA-48E8-AA02-82D0355C8A41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09482C2E-331C-46A2-9558-97F46AB56741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="376">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -708,10 +708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PL_EDU_NO</t>
   </si>
   <si>
@@ -782,22 +778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타협회수신정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_LC_BANKRECV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타협회송신정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_LC_BANKSEND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교육이수정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,26 +786,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PL_EDU_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신입/경력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취급상품 교육분류(대출, 리스)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수료번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAY_HIST_SEQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1379,6 +1339,145 @@
   </si>
   <si>
     <t>암호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASTER_TO_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수번호ID(조회)</t>
+  </si>
+  <si>
+    <t>PRE_REG_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기등록여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_LC_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(88)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_BIRTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육과정명(대출/리스할부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분(신입/경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이수번호(신입/경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육수료일자(신입/경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증서번호(신규)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증일자(신규)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_GUBUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPLOMA_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXAM_CERT_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXAM_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이수정보_TEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_EDU01_TEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LC_EDU01와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부등록용TEMP테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1403,7 +1502,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1422,6 +1521,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1437,7 +1542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,6 +1591,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1508,22 +1625,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>130292</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>578857</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>48628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506D5D7F-D266-4058-ADA0-80778F677748}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6A59E8-0BBA-4BF6-BB48-94389B4CE77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,8 +1656,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="91440" y="15240"/>
-          <a:ext cx="14120612" cy="5097780"/>
+          <a:off x="0" y="563880"/>
+          <a:ext cx="17342857" cy="7219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1873,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K210"/>
+  <dimension ref="A2:K214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1916,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -2019,7 +2136,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -2030,7 +2147,7 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -2046,7 +2163,7 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -2115,7 +2232,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
@@ -2128,12 +2245,12 @@
         <v>98</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C16" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -2144,12 +2261,12 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C17" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -2160,12 +2277,12 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C18" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
@@ -2176,12 +2293,12 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C19" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -2191,10 +2308,10 @@
         <v>65</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -2210,13 +2327,13 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -2227,7 +2344,7 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2271,7 +2388,7 @@
     <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -2282,7 +2399,7 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2406,8 +2523,8 @@
         <v>144</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>67</v>
+      <c r="E31" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>74</v>
@@ -2435,11 +2552,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
@@ -2452,14 +2569,14 @@
         <v>66</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>102</v>
@@ -2471,7 +2588,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
@@ -2487,7 +2604,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" t="s">
@@ -2503,7 +2620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" t="s">
@@ -2519,12 +2636,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>128</v>
@@ -2543,7 +2660,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3" t="s">
@@ -2563,7 +2680,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
@@ -2589,29 +2706,29 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C41" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
@@ -2620,173 +2737,172 @@
       <c r="F42" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G42" s="4"/>
+      <c r="H42" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="3" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C44" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="F44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H44" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C46" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G46" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C47" s="3" t="s">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C48" s="3" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+        <v>228</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C49" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="H49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+        <v>216</v>
+      </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C50" s="3" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="H50" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C51" s="3" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5" t="s">
-        <v>249</v>
+      <c r="G51" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2794,28 +2910,26 @@
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C52" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="8" t="s">
-        <v>63</v>
+      <c r="E52" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C53" s="3" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
@@ -2826,7 +2940,7 @@
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2834,18 +2948,18 @@
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C54" s="3" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>62</v>
+        <v>348</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -2853,39 +2967,39 @@
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C55" s="3" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
-        <v>247</v>
+      <c r="E55" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="G55" s="4"/>
       <c r="H55" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I55" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C56" s="3" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -2893,7 +3007,7 @@
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C57" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
@@ -2902,58 +3016,72 @@
       <c r="F57" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="G58" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C59" s="3" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C60" s="3" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C61" s="3" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
@@ -2963,142 +3091,136 @@
         <v>74</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C62" s="3" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C63" s="3" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="5" t="s">
-        <v>222</v>
+      <c r="H63" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C64" s="3" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="8" t="s">
-        <v>63</v>
+      <c r="E64" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C65" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C66" s="3" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>84</v>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C67" s="3" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
-        <v>73</v>
+      <c r="E67" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I67" s="3"/>
+      <c r="H67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C68" s="3" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I68" s="3"/>
+      <c r="H68" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C69" s="3" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I69" s="3"/>
+      <c r="H69" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C70" s="3" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
@@ -3109,49 +3231,47 @@
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C71" s="3" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="5" t="s">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C72" s="3" t="s">
-        <v>346</v>
+        <v>159</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="s">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C73" s="3" t="s">
-        <v>348</v>
+        <v>160</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
@@ -3162,30 +3282,32 @@
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5" t="s">
-        <v>349</v>
+        <v>30</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C74" s="3" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G74" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="H74" s="5" t="s">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C75" s="3" t="s">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
@@ -3196,13 +3318,13 @@
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C76" s="3" t="s">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
@@ -3213,278 +3335,278 @@
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="s">
-        <v>33</v>
+        <v>339</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C77" s="3" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C78" s="3" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5" t="s">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C79" s="3" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5" t="s">
-        <v>297</v>
+        <v>33</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C80" s="3" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C81" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="s">
-        <v>167</v>
+        <v>286</v>
       </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C82" s="3" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C83" s="3" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D83" s="4"/>
-      <c r="E83" s="12" t="s">
-        <v>103</v>
+      <c r="E83" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="3"/>
-      <c r="B84" s="4"/>
       <c r="C84" s="3" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" s="3"/>
-      <c r="B85" s="4"/>
       <c r="C85" s="3" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="D85" s="4"/>
-      <c r="E85" s="12" t="s">
-        <v>103</v>
+      <c r="E85" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="C86" s="3" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
-        <v>70</v>
+      <c r="E86" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>258</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="5" t="s">
-        <v>172</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
       <c r="C87" s="3" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="s">
-        <v>175</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I87" s="3"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="3" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="D88" s="4"/>
-      <c r="E88" s="4" t="s">
-        <v>69</v>
+      <c r="E88" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="G88" s="4"/>
       <c r="H88" s="5" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="C89" s="3" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G89" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="H89" s="5" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C90" s="3" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C91" s="3" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="D91" s="4"/>
-      <c r="E91" s="8" t="s">
-        <v>63</v>
+      <c r="E91" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="H91" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C92" s="3" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
@@ -3495,7 +3617,7 @@
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="5" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
@@ -3504,975 +3626,991 @@
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5" t="s">
-        <v>39</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C94" s="3" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="D94" s="4"/>
-      <c r="E94" s="4" t="s">
-        <v>73</v>
+      <c r="E94" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C95" s="3" t="s">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="G95" s="4"/>
       <c r="H95" s="5" t="s">
-        <v>281</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C96" s="3" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="G96" s="4"/>
       <c r="H96" s="5" t="s">
-        <v>284</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5" t="s">
-        <v>221</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C98" s="3" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C99" s="3" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G99" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="H99" s="5" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C100" s="3" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="C101" s="3" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G101" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="H101" s="5" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C102" s="3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D102" s="4"/>
-      <c r="E102" s="8" t="s">
-        <v>63</v>
+      <c r="E102" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C103" s="3" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="G103" s="4"/>
       <c r="H103" s="5" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C104" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C105" s="3" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="D105" s="4"/>
-      <c r="E105" s="4" t="s">
-        <v>73</v>
+      <c r="E105" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C106" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G106" s="4"/>
+      <c r="G106" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="H106" s="5" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>51</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="C107" s="3" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>260</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G107" s="4"/>
       <c r="H107" s="5" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C108" s="3" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="5" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C109" s="3" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="5" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="C110" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D110" s="4"/>
-      <c r="E110" s="8" t="s">
-        <v>63</v>
+      <c r="E110" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G110" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="H110" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C111" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="5" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>52</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C112" s="3" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>263</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G112" s="4"/>
       <c r="H112" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C113" s="3" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D113" s="4"/>
-      <c r="E113" s="4" t="s">
-        <v>70</v>
+      <c r="E113" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C114" s="3" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="C115" s="3" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G115" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="H115" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C116" s="3" t="s">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C117" s="3" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C118" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C119" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C120" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C121" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
         <v>53</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B122" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C123" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A124" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D119" s="4" t="s">
+      <c r="C124" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E124" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C120" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="5"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A121" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G121" s="8" t="s">
+      <c r="F124" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="H124" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="H121" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G122" s="8"/>
-      <c r="H122" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A123" s="7"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G123" s="8"/>
-      <c r="H123" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A124" s="7"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G124" s="8"/>
-      <c r="H124" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="7" t="s">
-        <v>331</v>
+        <v>148</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="9" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G129" s="8"/>
       <c r="H129" s="9" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="9" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="7" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G131" s="8"/>
       <c r="H131" s="9" t="s">
-        <v>94</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="7" t="s">
-        <v>168</v>
+        <v>324</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A133" s="7"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G133" s="8"/>
+      <c r="H133" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A134" s="7"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G134" s="8"/>
+      <c r="H134" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" s="7"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G135" s="8"/>
+      <c r="H135" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A136" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B136" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H136" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A137" s="16"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="18"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>57</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C133" t="s">
-        <v>206</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="C138" t="s">
+        <v>189</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C134" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>57</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="F138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C136" t="s">
-        <v>232</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C137" t="s">
-        <v>101</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C138" t="s">
-        <v>85</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>104</v>
+        <v>222</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="G139" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="H139" s="2" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>192</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="H144" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>58</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="C145" t="s">
-        <v>105</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>80</v>
+        <v>191</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C146" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C147" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>58</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="C148" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C149" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>90</v>
@@ -4481,12 +4619,12 @@
         <v>74</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C150" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>90</v>
@@ -4495,12 +4633,12 @@
         <v>74</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>90</v>
@@ -4509,12 +4647,12 @@
         <v>74</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>90</v>
@@ -4523,167 +4661,167 @@
         <v>74</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C153" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C155" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C156" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C157" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C158" t="s">
+        <v>168</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
-        <v>59</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C158" t="s">
-        <v>105</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F158" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C159" t="s">
-        <v>122</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C160" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>59</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C161" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C162" t="s">
-        <v>108</v>
+        <v>122</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C163" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>90</v>
@@ -4692,12 +4830,12 @@
         <v>74</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C164" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>90</v>
@@ -4706,12 +4844,12 @@
         <v>74</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C165" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>90</v>
@@ -4720,12 +4858,12 @@
         <v>74</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C166" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>90</v>
@@ -4734,94 +4872,85 @@
         <v>74</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C167" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C168" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C169" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C170" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C171" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
-        <v>267</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>13</v>
+      <c r="C172" t="s">
+        <v>168</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>70</v>
@@ -4829,44 +4958,50 @@
       <c r="F172" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H172" s="14" t="s">
-        <v>269</v>
+      <c r="H172" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C173" s="14" t="s">
-        <v>273</v>
+      <c r="C173" t="s">
+        <v>137</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H173" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C174" t="s">
+        <v>138</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>257</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C174" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H174" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C175" s="14" t="s">
-        <v>275</v>
+        <v>258</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>70</v>
@@ -4874,347 +5009,440 @@
       <c r="F175" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G175" s="1">
-        <v>0</v>
+      <c r="G175" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="H175" s="14" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C176" s="14" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H176" s="14" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C177" s="14" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="H177" s="14" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C178" s="14" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="G178" s="1">
+        <v>0</v>
+      </c>
       <c r="H178" s="14" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C179" s="14" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H179" s="14" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C180" s="14" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H180" s="14" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C181" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C182" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C183" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H183" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C184" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H181" s="14" t="s">
+      <c r="F184" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H184" s="14" t="s">
         <v>139</v>
       </c>
     </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>194</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G185" s="8"/>
+      <c r="H185" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C186" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G186" s="8"/>
+      <c r="H186" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
-        <v>195</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>196</v>
+      <c r="C187" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G187" s="8"/>
+      <c r="H187" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
-        <v>197</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>198</v>
+      <c r="C188" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G188" s="8"/>
+      <c r="H188" s="9" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
-        <v>199</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G189" s="4"/>
-      <c r="H189" s="5" t="s">
-        <v>25</v>
+      <c r="C189" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G189" s="8"/>
+      <c r="H189" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C190" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G190" s="4"/>
-      <c r="H190" s="5" t="s">
-        <v>26</v>
+      <c r="C190" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G190" s="8"/>
+      <c r="H190" s="9" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C191" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G191" s="4"/>
-      <c r="H191" s="5" t="s">
-        <v>202</v>
+      <c r="C191" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G191" s="8"/>
+      <c r="H191" s="9" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C192" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4" t="s">
+      <c r="C192" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G192" s="8"/>
+      <c r="H192" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C193" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F192" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G192" s="4"/>
-      <c r="H192" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C193" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G193" s="4"/>
-      <c r="H193" s="5" t="s">
-        <v>204</v>
+      <c r="F193" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G193" s="8"/>
+      <c r="H193" s="9" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C194" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4" t="s">
+      <c r="C194" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F194" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G194" s="4"/>
-      <c r="H194" s="5" t="s">
-        <v>205</v>
+      <c r="F194" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G194" s="8"/>
+      <c r="H194" s="9" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
-        <v>301</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D195" s="4" t="s">
+      <c r="C195" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G195" s="8"/>
+      <c r="H195" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A196" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>291</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E195" s="4" t="s">
+      <c r="E197" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F195" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G195" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H195" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C196" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G196" s="4"/>
-      <c r="H196" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C197" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D197" s="4"/>
-      <c r="E197" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="F197" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G197" s="4"/>
-      <c r="H197" s="3" t="s">
-        <v>14</v>
+      <c r="G197" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H197" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C198" s="3" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G198" s="4">
-        <v>1</v>
-      </c>
+      <c r="G198" s="4"/>
       <c r="H198" s="3" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C199" s="3" t="s">
-        <v>96</v>
+        <v>297</v>
       </c>
       <c r="D199" s="4"/>
-      <c r="E199" s="4" t="s">
-        <v>69</v>
+      <c r="E199" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G199" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="G199" s="4"/>
       <c r="H199" s="3" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C200" s="3" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G200" s="4"/>
-      <c r="H200" s="15" t="s">
-        <v>94</v>
+      <c r="H200" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C201" s="3" t="s">
-        <v>311</v>
+        <v>96</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G201" s="4"/>
-      <c r="H201" s="15" t="s">
-        <v>169</v>
+        <v>65</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C202" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4" t="s">
@@ -5225,12 +5453,12 @@
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="15" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C203" s="3" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="4" t="s">
@@ -5241,139 +5469,203 @@
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="15" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A204" t="s">
-        <v>314</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="C204" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D204" s="4"/>
       <c r="E204" s="4" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H204" s="3" t="s">
-        <v>318</v>
+        <v>74</v>
+      </c>
+      <c r="G204" s="4"/>
+      <c r="H204" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C205" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D205" s="4"/>
       <c r="E205" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G205" s="4"/>
-      <c r="H205" s="3" t="s">
-        <v>175</v>
+      <c r="H205" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>304</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C206" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D206" s="4"/>
+        <v>306</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E206" s="4" t="s">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G206" s="4"/>
+      <c r="G206" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="H206" s="3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C207" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D207" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E207" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G207" s="4"/>
-      <c r="H207" s="15" t="s">
-        <v>94</v>
+      <c r="H207" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C208" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G208" s="4"/>
+      <c r="H208" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C209" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G209" s="4"/>
+      <c r="H209" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C210" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F208" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G208" s="4"/>
-      <c r="H208" s="15" t="s">
+      <c r="F210" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G210" s="4"/>
+      <c r="H210" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A209" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D209" s="8"/>
-      <c r="E209" s="8" t="s">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A211" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F209" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G209" s="8"/>
-      <c r="H209" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A210" s="7"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8" t="s">
+      <c r="F211" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G211" s="8"/>
+      <c r="H211" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A212" s="3"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D212" s="8"/>
+      <c r="E212" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F210" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G210" s="8"/>
-      <c r="H210" s="9" t="s">
-        <v>324</v>
+      <c r="F212" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G212" s="8"/>
+      <c r="H212" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C213" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G213" s="8"/>
+      <c r="H213" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C214" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G214" s="8"/>
+      <c r="H214" s="19" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5387,7 +5679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -5420,7 +5712,7 @@
         <v>115</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
